--- a/1227/[銀]兆豐_第一階段語音導航FAQ_FAQ列表 (1227-new).xlsx
+++ b/1227/[銀]兆豐_第一階段語音導航FAQ_FAQ列表 (1227-new).xlsx
@@ -38904,6 +38904,9 @@
     <t>告訴我今天的利率</t>
   </si>
   <si>
+    <t>問利率</t>
+  </si>
+  <si>
     <t>官網無法正常顯示說明</t>
   </si>
   <si>
@@ -44053,9 +44056,6 @@
   </si>
   <si>
     <t>查詢利率</t>
-  </si>
-  <si>
-    <t>問利率</t>
   </si>
   <si>
     <t>詢問利率</t>
@@ -98776,6 +98776,9 @@
       <c r="AF461" t="s">
         <v>12961</v>
       </c>
+      <c r="AG461" t="s">
+        <v>12962</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -98797,82 +98800,82 @@
       <c r="G462" t="s"/>
       <c r="H462" t="s"/>
       <c r="I462" t="s">
-        <v>12962</v>
+        <v>12963</v>
       </c>
       <c r="J462" t="s">
-        <v>12963</v>
+        <v>12964</v>
       </c>
       <c r="K462" t="s">
-        <v>12964</v>
+        <v>12965</v>
       </c>
       <c r="L462" t="s">
-        <v>12965</v>
+        <v>12966</v>
       </c>
       <c r="M462" t="s">
-        <v>12966</v>
+        <v>12967</v>
       </c>
       <c r="N462" t="s">
-        <v>12967</v>
+        <v>12968</v>
       </c>
       <c r="O462" t="s">
-        <v>12968</v>
+        <v>12969</v>
       </c>
       <c r="P462" t="s">
-        <v>12969</v>
+        <v>12970</v>
       </c>
       <c r="Q462" t="s">
-        <v>12970</v>
+        <v>12971</v>
       </c>
       <c r="R462" t="s">
-        <v>12971</v>
+        <v>12972</v>
       </c>
       <c r="S462" t="s">
-        <v>12972</v>
+        <v>12973</v>
       </c>
       <c r="T462" t="s">
-        <v>12973</v>
+        <v>12974</v>
       </c>
       <c r="U462" t="s">
-        <v>12974</v>
+        <v>12975</v>
       </c>
       <c r="V462" t="s">
-        <v>12975</v>
+        <v>12976</v>
       </c>
       <c r="W462" t="s">
-        <v>12976</v>
+        <v>12977</v>
       </c>
       <c r="X462" t="s">
-        <v>12977</v>
+        <v>12978</v>
       </c>
       <c r="Y462" t="s">
-        <v>12978</v>
+        <v>12979</v>
       </c>
       <c r="Z462" t="s">
-        <v>12979</v>
+        <v>12980</v>
       </c>
       <c r="AA462" t="s">
-        <v>12980</v>
+        <v>12981</v>
       </c>
       <c r="AB462" t="s">
-        <v>12981</v>
+        <v>12982</v>
       </c>
       <c r="AC462" t="s">
-        <v>12982</v>
+        <v>12983</v>
       </c>
       <c r="AD462" t="s">
-        <v>12983</v>
+        <v>12984</v>
       </c>
       <c r="AE462" t="s">
-        <v>12984</v>
+        <v>12985</v>
       </c>
       <c r="AF462" t="s">
-        <v>12985</v>
+        <v>12986</v>
       </c>
       <c r="AG462" t="s">
-        <v>12986</v>
+        <v>12987</v>
       </c>
       <c r="AH462" t="s">
-        <v>12987</v>
+        <v>12988</v>
       </c>
     </row>
     <row r="463">
@@ -98895,22 +98898,22 @@
       <c r="G463" t="s"/>
       <c r="H463" t="s"/>
       <c r="I463" t="s">
-        <v>12988</v>
+        <v>12989</v>
       </c>
       <c r="J463" t="s">
-        <v>12989</v>
+        <v>12990</v>
       </c>
       <c r="K463" t="s">
-        <v>12990</v>
+        <v>12991</v>
       </c>
       <c r="L463" t="s">
-        <v>12991</v>
+        <v>12992</v>
       </c>
       <c r="M463" t="s">
-        <v>12992</v>
+        <v>12993</v>
       </c>
       <c r="N463" t="s">
-        <v>12993</v>
+        <v>12994</v>
       </c>
     </row>
     <row r="464">
@@ -98933,22 +98936,22 @@
       <c r="G464" t="s"/>
       <c r="H464" t="s"/>
       <c r="I464" t="s">
-        <v>12994</v>
+        <v>12995</v>
       </c>
       <c r="J464" t="s">
-        <v>12995</v>
+        <v>12996</v>
       </c>
       <c r="K464" t="s">
-        <v>12996</v>
+        <v>12997</v>
       </c>
       <c r="L464" t="s">
-        <v>12997</v>
+        <v>12998</v>
       </c>
       <c r="M464" t="s">
-        <v>12998</v>
+        <v>12999</v>
       </c>
       <c r="N464" t="s">
-        <v>12999</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="465">
@@ -98959,7 +98962,7 @@
         <v>1616</v>
       </c>
       <c r="C465" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="D465" t="s">
         <v>1573</v>
@@ -98968,283 +98971,283 @@
       <c r="G465" t="s"/>
       <c r="H465" t="s"/>
       <c r="I465" t="s">
-        <v>13001</v>
+        <v>13002</v>
       </c>
       <c r="J465" t="s">
-        <v>13002</v>
+        <v>13003</v>
       </c>
       <c r="K465" t="s">
-        <v>13003</v>
+        <v>13004</v>
       </c>
       <c r="L465" t="s">
-        <v>13004</v>
+        <v>13005</v>
       </c>
       <c r="M465" t="s">
-        <v>13005</v>
+        <v>13006</v>
       </c>
       <c r="N465" t="s">
-        <v>13006</v>
+        <v>13007</v>
       </c>
       <c r="O465" t="s">
-        <v>13007</v>
+        <v>13008</v>
       </c>
       <c r="P465" t="s">
+        <v>13009</v>
+      </c>
+      <c r="Q465" t="s">
         <v>13008</v>
       </c>
-      <c r="Q465" t="s">
-        <v>13007</v>
-      </c>
       <c r="R465" t="s">
-        <v>13008</v>
+        <v>13009</v>
       </c>
       <c r="S465" t="s">
-        <v>13009</v>
+        <v>13010</v>
       </c>
       <c r="T465" t="s">
-        <v>13009</v>
+        <v>13010</v>
       </c>
       <c r="U465" t="s">
-        <v>13010</v>
+        <v>13011</v>
       </c>
       <c r="V465" t="s">
-        <v>13011</v>
+        <v>13012</v>
       </c>
       <c r="W465" t="s">
-        <v>13012</v>
+        <v>13013</v>
       </c>
       <c r="X465" t="s">
-        <v>13013</v>
+        <v>13014</v>
       </c>
       <c r="Y465" t="s">
-        <v>13014</v>
+        <v>13015</v>
       </c>
       <c r="Z465" t="s">
-        <v>13015</v>
+        <v>13016</v>
       </c>
       <c r="AA465" t="s">
-        <v>13016</v>
+        <v>13017</v>
       </c>
       <c r="AB465" t="s">
-        <v>13017</v>
+        <v>13018</v>
       </c>
       <c r="AC465" t="s">
-        <v>13018</v>
+        <v>13019</v>
       </c>
       <c r="AD465" t="s">
-        <v>13019</v>
+        <v>13020</v>
       </c>
       <c r="AE465" t="s">
-        <v>13020</v>
+        <v>13021</v>
       </c>
       <c r="AF465" t="s">
-        <v>13021</v>
+        <v>13022</v>
       </c>
       <c r="AG465" t="s">
-        <v>13022</v>
+        <v>13023</v>
       </c>
       <c r="AH465" t="s">
-        <v>13023</v>
+        <v>13024</v>
       </c>
       <c r="AI465" t="s">
-        <v>13024</v>
+        <v>13025</v>
       </c>
       <c r="AJ465" t="s">
-        <v>13025</v>
+        <v>13026</v>
       </c>
       <c r="AK465" t="s">
-        <v>13026</v>
+        <v>13027</v>
       </c>
       <c r="AL465" t="s">
-        <v>13027</v>
+        <v>13028</v>
       </c>
       <c r="AM465" t="s">
-        <v>13028</v>
+        <v>13029</v>
       </c>
       <c r="AN465" t="s">
-        <v>13029</v>
+        <v>13030</v>
       </c>
       <c r="AO465" t="s">
-        <v>13030</v>
+        <v>13031</v>
       </c>
       <c r="AP465" t="s">
-        <v>13031</v>
+        <v>13032</v>
       </c>
       <c r="AQ465" t="s">
-        <v>13032</v>
+        <v>13033</v>
       </c>
       <c r="AR465" t="s">
-        <v>13032</v>
+        <v>13033</v>
       </c>
       <c r="AS465" t="s">
-        <v>13033</v>
+        <v>13034</v>
       </c>
       <c r="AT465" t="s">
-        <v>13034</v>
+        <v>13035</v>
       </c>
       <c r="AU465" t="s">
-        <v>13035</v>
+        <v>13036</v>
       </c>
       <c r="AV465" t="s">
-        <v>13036</v>
+        <v>13037</v>
       </c>
       <c r="AW465" t="s">
-        <v>13037</v>
+        <v>13038</v>
       </c>
       <c r="AX465" t="s">
-        <v>13038</v>
+        <v>13039</v>
       </c>
       <c r="AY465" t="s">
-        <v>13039</v>
+        <v>13040</v>
       </c>
       <c r="AZ465" t="s">
-        <v>13040</v>
+        <v>13041</v>
       </c>
       <c r="BA465" t="s">
-        <v>13041</v>
+        <v>13042</v>
       </c>
       <c r="BB465" t="s">
-        <v>13042</v>
+        <v>13043</v>
       </c>
       <c r="BC465" t="s">
-        <v>13042</v>
+        <v>13043</v>
       </c>
       <c r="BD465" t="s">
-        <v>13043</v>
+        <v>13044</v>
       </c>
       <c r="BE465" t="s">
-        <v>13044</v>
+        <v>13045</v>
       </c>
       <c r="BF465" t="s">
-        <v>13045</v>
+        <v>13046</v>
       </c>
       <c r="BG465" t="s">
-        <v>13046</v>
+        <v>13047</v>
       </c>
       <c r="BH465" t="s">
-        <v>13047</v>
+        <v>13048</v>
       </c>
       <c r="BI465" t="s">
-        <v>13048</v>
+        <v>13049</v>
       </c>
       <c r="BJ465" t="s">
-        <v>13049</v>
+        <v>13050</v>
       </c>
       <c r="BK465" t="s">
-        <v>13050</v>
+        <v>13051</v>
       </c>
       <c r="BL465" t="s">
-        <v>13051</v>
+        <v>13052</v>
       </c>
       <c r="BM465" t="s">
-        <v>13052</v>
+        <v>13053</v>
       </c>
       <c r="BN465" t="s">
-        <v>13053</v>
+        <v>13054</v>
       </c>
       <c r="BO465" t="s">
-        <v>13054</v>
+        <v>13055</v>
       </c>
       <c r="BP465" t="s">
-        <v>13055</v>
+        <v>13056</v>
       </c>
       <c r="BQ465" t="s">
-        <v>13056</v>
+        <v>13057</v>
       </c>
       <c r="BR465" t="s">
-        <v>13057</v>
+        <v>13058</v>
       </c>
       <c r="BS465" t="s">
-        <v>13058</v>
+        <v>13059</v>
       </c>
       <c r="BT465" t="s">
-        <v>13058</v>
+        <v>13059</v>
       </c>
       <c r="BU465" t="s">
-        <v>13059</v>
+        <v>13060</v>
       </c>
       <c r="BV465" t="s">
-        <v>13060</v>
+        <v>13061</v>
       </c>
       <c r="BW465" t="s">
-        <v>13061</v>
+        <v>13062</v>
       </c>
       <c r="BX465" t="s">
-        <v>13062</v>
+        <v>13063</v>
       </c>
       <c r="BY465" t="s">
-        <v>13063</v>
+        <v>13064</v>
       </c>
       <c r="BZ465" t="s">
-        <v>13064</v>
+        <v>13065</v>
       </c>
       <c r="CA465" t="s">
-        <v>13065</v>
+        <v>13066</v>
       </c>
       <c r="CB465" t="s">
-        <v>13066</v>
+        <v>13067</v>
       </c>
       <c r="CC465" t="s">
-        <v>13067</v>
+        <v>13068</v>
       </c>
       <c r="CD465" t="s">
-        <v>13068</v>
+        <v>13069</v>
       </c>
       <c r="CE465" t="s">
-        <v>13069</v>
+        <v>13070</v>
       </c>
       <c r="CF465" t="s">
-        <v>13070</v>
+        <v>13071</v>
       </c>
       <c r="CG465" t="s">
-        <v>13071</v>
+        <v>13072</v>
       </c>
       <c r="CH465" t="s">
-        <v>13072</v>
+        <v>13073</v>
       </c>
       <c r="CI465" t="s">
-        <v>13073</v>
+        <v>13074</v>
       </c>
       <c r="CJ465" t="s">
-        <v>13074</v>
+        <v>13075</v>
       </c>
       <c r="CK465" t="s">
-        <v>13075</v>
+        <v>13076</v>
       </c>
       <c r="CL465" t="s">
-        <v>13076</v>
+        <v>13077</v>
       </c>
       <c r="CM465" t="s">
-        <v>13077</v>
+        <v>13078</v>
       </c>
       <c r="CN465" t="s">
-        <v>13078</v>
+        <v>13079</v>
       </c>
       <c r="CO465" t="s">
-        <v>13079</v>
+        <v>13080</v>
       </c>
       <c r="CP465" t="s">
-        <v>13080</v>
+        <v>13081</v>
       </c>
       <c r="CQ465" t="s">
-        <v>13081</v>
+        <v>13082</v>
       </c>
       <c r="CR465" t="s">
-        <v>13082</v>
+        <v>13083</v>
       </c>
       <c r="CS465" t="s">
-        <v>13083</v>
+        <v>13084</v>
       </c>
       <c r="CT465" t="s">
-        <v>13084</v>
+        <v>13085</v>
       </c>
       <c r="CU465" t="s">
-        <v>13085</v>
+        <v>13086</v>
       </c>
       <c r="CV465" t="s">
-        <v>13086</v>
+        <v>13087</v>
       </c>
       <c r="CW465" t="s">
-        <v>13087</v>
+        <v>13088</v>
       </c>
     </row>
     <row r="466">
@@ -99267,76 +99270,76 @@
       <c r="G466" t="s"/>
       <c r="H466" t="s"/>
       <c r="I466" t="s">
-        <v>13088</v>
+        <v>13089</v>
       </c>
       <c r="J466" t="s">
-        <v>13089</v>
+        <v>13090</v>
       </c>
       <c r="K466" t="s">
-        <v>13090</v>
+        <v>13091</v>
       </c>
       <c r="L466" t="s">
-        <v>13091</v>
+        <v>13092</v>
       </c>
       <c r="M466" t="s">
-        <v>13092</v>
+        <v>13093</v>
       </c>
       <c r="N466" t="s">
-        <v>13093</v>
+        <v>13094</v>
       </c>
       <c r="O466" t="s">
-        <v>13094</v>
+        <v>13095</v>
       </c>
       <c r="P466" t="s">
-        <v>13095</v>
+        <v>13096</v>
       </c>
       <c r="Q466" t="s">
-        <v>13096</v>
+        <v>13097</v>
       </c>
       <c r="R466" t="s">
-        <v>13097</v>
+        <v>13098</v>
       </c>
       <c r="S466" t="s">
-        <v>13098</v>
+        <v>13099</v>
       </c>
       <c r="T466" t="s">
-        <v>13099</v>
+        <v>13100</v>
       </c>
       <c r="U466" t="s">
-        <v>13100</v>
+        <v>13101</v>
       </c>
       <c r="V466" t="s">
-        <v>13101</v>
+        <v>13102</v>
       </c>
       <c r="W466" t="s">
-        <v>13102</v>
+        <v>13103</v>
       </c>
       <c r="X466" t="s">
-        <v>13103</v>
+        <v>13104</v>
       </c>
       <c r="Y466" t="s">
-        <v>13104</v>
+        <v>13105</v>
       </c>
       <c r="Z466" t="s">
-        <v>13105</v>
+        <v>13106</v>
       </c>
       <c r="AA466" t="s">
-        <v>13106</v>
+        <v>13107</v>
       </c>
       <c r="AB466" t="s">
-        <v>13107</v>
+        <v>13108</v>
       </c>
       <c r="AC466" t="s">
-        <v>13108</v>
+        <v>13109</v>
       </c>
       <c r="AD466" t="s">
-        <v>13109</v>
+        <v>13110</v>
       </c>
       <c r="AE466" t="s">
-        <v>13110</v>
+        <v>13111</v>
       </c>
       <c r="AF466" t="s">
-        <v>13111</v>
+        <v>13112</v>
       </c>
     </row>
     <row r="467">
@@ -99359,52 +99362,52 @@
       <c r="G467" t="s"/>
       <c r="H467" t="s"/>
       <c r="I467" t="s">
-        <v>13112</v>
+        <v>13113</v>
       </c>
       <c r="J467" t="s">
-        <v>13113</v>
+        <v>13114</v>
       </c>
       <c r="K467" t="s">
-        <v>13114</v>
+        <v>13115</v>
       </c>
       <c r="L467" t="s">
-        <v>13115</v>
+        <v>13116</v>
       </c>
       <c r="M467" t="s">
-        <v>13116</v>
+        <v>13117</v>
       </c>
       <c r="N467" t="s">
-        <v>13117</v>
+        <v>13118</v>
       </c>
       <c r="O467" t="s">
-        <v>13118</v>
+        <v>13119</v>
       </c>
       <c r="P467" t="s">
-        <v>13119</v>
+        <v>13120</v>
       </c>
       <c r="Q467" t="s">
-        <v>13120</v>
+        <v>13121</v>
       </c>
       <c r="R467" t="s">
-        <v>13121</v>
+        <v>13122</v>
       </c>
       <c r="S467" t="s">
-        <v>13122</v>
+        <v>13123</v>
       </c>
       <c r="T467" t="s">
-        <v>13123</v>
+        <v>13124</v>
       </c>
       <c r="U467" t="s">
-        <v>13124</v>
+        <v>13125</v>
       </c>
       <c r="V467" t="s">
-        <v>13125</v>
+        <v>13126</v>
       </c>
       <c r="W467" t="s">
-        <v>13125</v>
+        <v>13126</v>
       </c>
       <c r="X467" t="s">
-        <v>13126</v>
+        <v>13127</v>
       </c>
     </row>
     <row r="468">
@@ -99427,70 +99430,70 @@
       <c r="G468" t="s"/>
       <c r="H468" t="s"/>
       <c r="I468" t="s">
-        <v>13127</v>
+        <v>13128</v>
       </c>
       <c r="J468" t="s">
-        <v>13128</v>
+        <v>13129</v>
       </c>
       <c r="K468" t="s">
-        <v>13129</v>
+        <v>13130</v>
       </c>
       <c r="L468" t="s">
-        <v>13130</v>
+        <v>13131</v>
       </c>
       <c r="M468" t="s">
-        <v>13131</v>
+        <v>13132</v>
       </c>
       <c r="N468" t="s">
-        <v>13132</v>
+        <v>13133</v>
       </c>
       <c r="O468" t="s">
-        <v>13133</v>
+        <v>13134</v>
       </c>
       <c r="P468" t="s">
-        <v>13134</v>
+        <v>13135</v>
       </c>
       <c r="Q468" t="s">
-        <v>13135</v>
+        <v>13136</v>
       </c>
       <c r="R468" t="s">
-        <v>13136</v>
+        <v>13137</v>
       </c>
       <c r="S468" t="s">
-        <v>13137</v>
+        <v>13138</v>
       </c>
       <c r="T468" t="s">
-        <v>13138</v>
+        <v>13139</v>
       </c>
       <c r="U468" t="s">
-        <v>13139</v>
+        <v>13140</v>
       </c>
       <c r="V468" t="s">
-        <v>13140</v>
+        <v>13141</v>
       </c>
       <c r="W468" t="s">
-        <v>13141</v>
+        <v>13142</v>
       </c>
       <c r="X468" t="s">
-        <v>13142</v>
+        <v>13143</v>
       </c>
       <c r="Y468" t="s">
-        <v>13143</v>
+        <v>13144</v>
       </c>
       <c r="Z468" t="s">
-        <v>13144</v>
+        <v>13145</v>
       </c>
       <c r="AA468" t="s">
-        <v>13145</v>
+        <v>13146</v>
       </c>
       <c r="AB468" t="s">
-        <v>13146</v>
+        <v>13147</v>
       </c>
       <c r="AC468" t="s">
-        <v>13147</v>
+        <v>13148</v>
       </c>
       <c r="AD468" t="s">
-        <v>13148</v>
+        <v>13149</v>
       </c>
     </row>
     <row r="469">
@@ -99513,52 +99516,52 @@
       <c r="G469" t="s"/>
       <c r="H469" t="s"/>
       <c r="I469" t="s">
-        <v>13149</v>
+        <v>13150</v>
       </c>
       <c r="J469" t="s">
-        <v>13150</v>
+        <v>13151</v>
       </c>
       <c r="K469" t="s">
-        <v>13151</v>
+        <v>13152</v>
       </c>
       <c r="L469" t="s">
-        <v>13152</v>
+        <v>13153</v>
       </c>
       <c r="M469" t="s">
-        <v>13153</v>
+        <v>13154</v>
       </c>
       <c r="N469" t="s">
-        <v>13154</v>
+        <v>13155</v>
       </c>
       <c r="O469" t="s">
-        <v>13155</v>
+        <v>13156</v>
       </c>
       <c r="P469" t="s">
-        <v>13156</v>
+        <v>13157</v>
       </c>
       <c r="Q469" t="s">
-        <v>13157</v>
+        <v>13158</v>
       </c>
       <c r="R469" t="s">
-        <v>13158</v>
+        <v>13159</v>
       </c>
       <c r="S469" t="s">
-        <v>13159</v>
+        <v>13160</v>
       </c>
       <c r="T469" t="s">
-        <v>13160</v>
+        <v>13161</v>
       </c>
       <c r="U469" t="s">
-        <v>13161</v>
+        <v>13162</v>
       </c>
       <c r="V469" t="s">
-        <v>13162</v>
+        <v>13163</v>
       </c>
       <c r="W469" t="s">
-        <v>13163</v>
+        <v>13164</v>
       </c>
       <c r="X469" t="s">
-        <v>13164</v>
+        <v>13165</v>
       </c>
     </row>
     <row r="470">
@@ -99581,55 +99584,55 @@
       <c r="G470" t="s"/>
       <c r="H470" t="s"/>
       <c r="I470" t="s">
-        <v>13165</v>
+        <v>13166</v>
       </c>
       <c r="J470" t="s">
-        <v>13166</v>
+        <v>13167</v>
       </c>
       <c r="K470" t="s">
-        <v>13167</v>
+        <v>13168</v>
       </c>
       <c r="L470" t="s">
-        <v>13168</v>
+        <v>13169</v>
       </c>
       <c r="M470" t="s">
-        <v>13169</v>
+        <v>13170</v>
       </c>
       <c r="N470" t="s">
-        <v>13170</v>
+        <v>13171</v>
       </c>
       <c r="O470" t="s">
-        <v>13171</v>
+        <v>13172</v>
       </c>
       <c r="P470" t="s">
-        <v>13172</v>
+        <v>13173</v>
       </c>
       <c r="Q470" t="s">
-        <v>13173</v>
+        <v>13174</v>
       </c>
       <c r="R470" t="s">
-        <v>13174</v>
+        <v>13175</v>
       </c>
       <c r="S470" t="s">
-        <v>13175</v>
+        <v>13176</v>
       </c>
       <c r="T470" t="s">
-        <v>13176</v>
+        <v>13177</v>
       </c>
       <c r="U470" t="s">
-        <v>13177</v>
+        <v>13178</v>
       </c>
       <c r="V470" t="s">
-        <v>13178</v>
+        <v>13179</v>
       </c>
       <c r="W470" t="s">
-        <v>13179</v>
+        <v>13180</v>
       </c>
       <c r="X470" t="s">
-        <v>13180</v>
+        <v>13181</v>
       </c>
       <c r="Y470" t="s">
-        <v>13181</v>
+        <v>13182</v>
       </c>
     </row>
     <row r="471">
@@ -99652,52 +99655,52 @@
       <c r="G471" t="s"/>
       <c r="H471" t="s"/>
       <c r="I471" t="s">
-        <v>13182</v>
+        <v>13183</v>
       </c>
       <c r="J471" t="s">
-        <v>13183</v>
+        <v>13184</v>
       </c>
       <c r="K471" t="s">
-        <v>13184</v>
+        <v>13185</v>
       </c>
       <c r="L471" t="s">
-        <v>13185</v>
+        <v>13186</v>
       </c>
       <c r="M471" t="s">
-        <v>13186</v>
+        <v>13187</v>
       </c>
       <c r="N471" t="s">
-        <v>13187</v>
+        <v>13188</v>
       </c>
       <c r="O471" t="s">
-        <v>13188</v>
+        <v>13189</v>
       </c>
       <c r="P471" t="s">
-        <v>13189</v>
+        <v>13190</v>
       </c>
       <c r="Q471" t="s">
-        <v>13190</v>
+        <v>13191</v>
       </c>
       <c r="R471" t="s">
-        <v>13191</v>
+        <v>13192</v>
       </c>
       <c r="S471" t="s">
-        <v>13192</v>
+        <v>13193</v>
       </c>
       <c r="T471" t="s">
-        <v>13193</v>
+        <v>13194</v>
       </c>
       <c r="U471" t="s">
-        <v>13194</v>
+        <v>13195</v>
       </c>
       <c r="V471" t="s">
-        <v>13195</v>
+        <v>13196</v>
       </c>
       <c r="W471" t="s">
-        <v>13196</v>
+        <v>13197</v>
       </c>
       <c r="X471" t="s">
-        <v>13197</v>
+        <v>13198</v>
       </c>
     </row>
     <row r="472">
@@ -99720,43 +99723,43 @@
       <c r="G472" t="s"/>
       <c r="H472" t="s"/>
       <c r="I472" t="s">
-        <v>13198</v>
+        <v>13199</v>
       </c>
       <c r="J472" t="s">
-        <v>13199</v>
+        <v>13200</v>
       </c>
       <c r="K472" t="s">
-        <v>13200</v>
+        <v>13201</v>
       </c>
       <c r="L472" t="s">
-        <v>13201</v>
+        <v>13202</v>
       </c>
       <c r="M472" t="s">
-        <v>13202</v>
+        <v>13203</v>
       </c>
       <c r="N472" t="s">
-        <v>13203</v>
+        <v>13204</v>
       </c>
       <c r="O472" t="s">
-        <v>13204</v>
+        <v>13205</v>
       </c>
       <c r="P472" t="s">
-        <v>13205</v>
+        <v>13206</v>
       </c>
       <c r="Q472" t="s">
-        <v>13206</v>
+        <v>13207</v>
       </c>
       <c r="R472" t="s">
-        <v>13207</v>
+        <v>13208</v>
       </c>
       <c r="S472" t="s">
-        <v>13208</v>
+        <v>13209</v>
       </c>
       <c r="T472" t="s">
-        <v>13209</v>
+        <v>13210</v>
       </c>
       <c r="U472" t="s">
-        <v>13210</v>
+        <v>13211</v>
       </c>
     </row>
     <row r="473">
@@ -99779,19 +99782,19 @@
       <c r="G473" t="s"/>
       <c r="H473" t="s"/>
       <c r="I473" t="s">
-        <v>13211</v>
+        <v>13212</v>
       </c>
       <c r="J473" t="s">
-        <v>13212</v>
+        <v>13213</v>
       </c>
       <c r="K473" t="s">
-        <v>13213</v>
+        <v>13214</v>
       </c>
       <c r="L473" t="s">
-        <v>13214</v>
+        <v>13215</v>
       </c>
       <c r="M473" t="s">
-        <v>13215</v>
+        <v>13216</v>
       </c>
     </row>
     <row r="474">
@@ -99814,25 +99817,25 @@
       <c r="G474" t="s"/>
       <c r="H474" t="s"/>
       <c r="I474" t="s">
-        <v>13216</v>
+        <v>13217</v>
       </c>
       <c r="J474" t="s">
-        <v>13217</v>
+        <v>13218</v>
       </c>
       <c r="K474" t="s">
-        <v>13218</v>
+        <v>13219</v>
       </c>
       <c r="L474" t="s">
-        <v>13219</v>
+        <v>13220</v>
       </c>
       <c r="M474" t="s">
-        <v>13220</v>
+        <v>13221</v>
       </c>
       <c r="N474" t="s">
-        <v>13221</v>
+        <v>13222</v>
       </c>
       <c r="O474" t="s">
-        <v>13222</v>
+        <v>13223</v>
       </c>
     </row>
     <row r="475">
@@ -99855,25 +99858,25 @@
       <c r="G475" t="s"/>
       <c r="H475" t="s"/>
       <c r="I475" t="s">
-        <v>13223</v>
+        <v>13224</v>
       </c>
       <c r="J475" t="s">
-        <v>13224</v>
+        <v>13225</v>
       </c>
       <c r="K475" t="s">
-        <v>13225</v>
+        <v>13226</v>
       </c>
       <c r="L475" t="s">
-        <v>13226</v>
+        <v>13227</v>
       </c>
       <c r="M475" t="s">
-        <v>13227</v>
+        <v>13228</v>
       </c>
       <c r="N475" t="s">
-        <v>13228</v>
+        <v>13229</v>
       </c>
       <c r="O475" t="s">
-        <v>13229</v>
+        <v>13230</v>
       </c>
     </row>
     <row r="476">
@@ -99896,22 +99899,22 @@
       <c r="G476" t="s"/>
       <c r="H476" t="s"/>
       <c r="I476" t="s">
-        <v>13230</v>
+        <v>13231</v>
       </c>
       <c r="J476" t="s">
-        <v>13231</v>
+        <v>13232</v>
       </c>
       <c r="K476" t="s">
-        <v>13232</v>
+        <v>13233</v>
       </c>
       <c r="L476" t="s">
-        <v>13233</v>
+        <v>13234</v>
       </c>
       <c r="M476" t="s">
-        <v>13234</v>
+        <v>13235</v>
       </c>
       <c r="N476" t="s">
-        <v>13235</v>
+        <v>13236</v>
       </c>
     </row>
     <row r="477">
@@ -99934,22 +99937,22 @@
       <c r="G477" t="s"/>
       <c r="H477" t="s"/>
       <c r="I477" t="s">
-        <v>13236</v>
+        <v>13237</v>
       </c>
       <c r="J477" t="s">
-        <v>13237</v>
+        <v>13238</v>
       </c>
       <c r="K477" t="s">
-        <v>13238</v>
+        <v>13239</v>
       </c>
       <c r="L477" t="s">
-        <v>13239</v>
+        <v>13240</v>
       </c>
       <c r="M477" t="s">
-        <v>13240</v>
+        <v>13241</v>
       </c>
       <c r="N477" t="s">
-        <v>13241</v>
+        <v>13242</v>
       </c>
     </row>
     <row r="478">
@@ -99972,67 +99975,67 @@
       <c r="G478" t="s"/>
       <c r="H478" t="s"/>
       <c r="I478" t="s">
-        <v>13242</v>
+        <v>13243</v>
       </c>
       <c r="J478" t="s">
-        <v>13243</v>
+        <v>13244</v>
       </c>
       <c r="K478" t="s">
-        <v>13244</v>
+        <v>13245</v>
       </c>
       <c r="L478" t="s">
-        <v>13245</v>
+        <v>13246</v>
       </c>
       <c r="M478" t="s">
-        <v>13246</v>
+        <v>13247</v>
       </c>
       <c r="N478" t="s">
-        <v>13247</v>
+        <v>13248</v>
       </c>
       <c r="O478" t="s">
-        <v>13248</v>
+        <v>13249</v>
       </c>
       <c r="P478" t="s">
-        <v>13249</v>
+        <v>13250</v>
       </c>
       <c r="Q478" t="s">
-        <v>13250</v>
+        <v>13251</v>
       </c>
       <c r="R478" t="s">
-        <v>13251</v>
+        <v>13252</v>
       </c>
       <c r="S478" t="s">
-        <v>13252</v>
+        <v>13253</v>
       </c>
       <c r="T478" t="s">
-        <v>13253</v>
+        <v>13254</v>
       </c>
       <c r="U478" t="s">
-        <v>13254</v>
+        <v>13255</v>
       </c>
       <c r="V478" t="s">
-        <v>13255</v>
+        <v>13256</v>
       </c>
       <c r="W478" t="s">
-        <v>13256</v>
+        <v>13257</v>
       </c>
       <c r="X478" t="s">
-        <v>13257</v>
+        <v>13258</v>
       </c>
       <c r="Y478" t="s">
-        <v>13258</v>
+        <v>13259</v>
       </c>
       <c r="Z478" t="s">
-        <v>13259</v>
+        <v>13260</v>
       </c>
       <c r="AA478" t="s">
-        <v>13260</v>
+        <v>13261</v>
       </c>
       <c r="AB478" t="s">
-        <v>13261</v>
+        <v>13262</v>
       </c>
       <c r="AC478" t="s">
-        <v>13262</v>
+        <v>13263</v>
       </c>
     </row>
     <row r="479">
@@ -100043,7 +100046,7 @@
         <v>1616</v>
       </c>
       <c r="C479" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="D479" t="s">
         <v>1573</v>
@@ -100052,61 +100055,61 @@
       <c r="G479" t="s"/>
       <c r="H479" t="s"/>
       <c r="I479" t="s">
-        <v>13263</v>
+        <v>13264</v>
       </c>
       <c r="J479" t="s">
-        <v>13264</v>
+        <v>13265</v>
       </c>
       <c r="K479" t="s">
-        <v>13265</v>
+        <v>13266</v>
       </c>
       <c r="L479" t="s">
-        <v>13266</v>
+        <v>13267</v>
       </c>
       <c r="M479" t="s">
-        <v>13267</v>
+        <v>13268</v>
       </c>
       <c r="N479" t="s">
-        <v>13268</v>
+        <v>13269</v>
       </c>
       <c r="O479" t="s">
-        <v>13269</v>
+        <v>13270</v>
       </c>
       <c r="P479" t="s">
-        <v>13270</v>
+        <v>13271</v>
       </c>
       <c r="Q479" t="s">
-        <v>13271</v>
+        <v>13272</v>
       </c>
       <c r="R479" t="s">
-        <v>13272</v>
+        <v>13273</v>
       </c>
       <c r="S479" t="s">
-        <v>13273</v>
+        <v>13274</v>
       </c>
       <c r="T479" t="s">
-        <v>13274</v>
+        <v>13275</v>
       </c>
       <c r="U479" t="s">
-        <v>13275</v>
+        <v>13276</v>
       </c>
       <c r="V479" t="s">
-        <v>13276</v>
+        <v>13277</v>
       </c>
       <c r="W479" t="s">
-        <v>13277</v>
+        <v>13278</v>
       </c>
       <c r="X479" t="s">
-        <v>13278</v>
+        <v>13279</v>
       </c>
       <c r="Y479" t="s">
-        <v>13279</v>
+        <v>13280</v>
       </c>
       <c r="Z479" t="s">
-        <v>13280</v>
+        <v>13281</v>
       </c>
       <c r="AA479" t="s">
-        <v>13281</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="480">
@@ -100129,64 +100132,64 @@
       <c r="G480" t="s"/>
       <c r="H480" t="s"/>
       <c r="I480" t="s">
-        <v>13282</v>
+        <v>13283</v>
       </c>
       <c r="J480" t="s">
-        <v>13283</v>
+        <v>13284</v>
       </c>
       <c r="K480" t="s">
-        <v>13284</v>
+        <v>13285</v>
       </c>
       <c r="L480" t="s">
-        <v>13285</v>
+        <v>13286</v>
       </c>
       <c r="M480" t="s">
-        <v>13286</v>
+        <v>13287</v>
       </c>
       <c r="N480" t="s">
-        <v>13287</v>
+        <v>13288</v>
       </c>
       <c r="O480" t="s">
-        <v>13288</v>
+        <v>13289</v>
       </c>
       <c r="P480" t="s">
-        <v>13289</v>
+        <v>13290</v>
       </c>
       <c r="Q480" t="s">
-        <v>13290</v>
+        <v>13291</v>
       </c>
       <c r="R480" t="s">
-        <v>13291</v>
+        <v>13292</v>
       </c>
       <c r="S480" t="s">
-        <v>13292</v>
+        <v>13293</v>
       </c>
       <c r="T480" t="s">
-        <v>13293</v>
+        <v>13294</v>
       </c>
       <c r="U480" t="s">
-        <v>13294</v>
+        <v>13295</v>
       </c>
       <c r="V480" t="s">
-        <v>13295</v>
+        <v>13296</v>
       </c>
       <c r="W480" t="s">
-        <v>13296</v>
+        <v>13297</v>
       </c>
       <c r="X480" t="s">
-        <v>13297</v>
+        <v>13298</v>
       </c>
       <c r="Y480" t="s">
-        <v>13298</v>
+        <v>13299</v>
       </c>
       <c r="Z480" t="s">
-        <v>13299</v>
+        <v>13300</v>
       </c>
       <c r="AA480" t="s">
-        <v>13300</v>
+        <v>13301</v>
       </c>
       <c r="AB480" t="s">
-        <v>13301</v>
+        <v>13302</v>
       </c>
     </row>
     <row r="481">
@@ -100209,82 +100212,82 @@
       <c r="G481" t="s"/>
       <c r="H481" t="s"/>
       <c r="I481" t="s">
-        <v>13302</v>
+        <v>13303</v>
       </c>
       <c r="J481" t="s">
+        <v>13304</v>
+      </c>
+      <c r="K481" t="s">
+        <v>13305</v>
+      </c>
+      <c r="L481" t="s">
+        <v>13306</v>
+      </c>
+      <c r="M481" t="s">
+        <v>13307</v>
+      </c>
+      <c r="N481" t="s">
+        <v>13308</v>
+      </c>
+      <c r="O481" t="s">
+        <v>13309</v>
+      </c>
+      <c r="P481" t="s">
+        <v>13310</v>
+      </c>
+      <c r="Q481" t="s">
+        <v>13311</v>
+      </c>
+      <c r="R481" t="s">
+        <v>13312</v>
+      </c>
+      <c r="S481" t="s">
+        <v>13313</v>
+      </c>
+      <c r="T481" t="s">
+        <v>13314</v>
+      </c>
+      <c r="U481" t="s">
+        <v>13315</v>
+      </c>
+      <c r="V481" t="s">
+        <v>13315</v>
+      </c>
+      <c r="W481" t="s">
+        <v>13316</v>
+      </c>
+      <c r="X481" t="s">
+        <v>13317</v>
+      </c>
+      <c r="Y481" t="s">
+        <v>13318</v>
+      </c>
+      <c r="Z481" t="s">
+        <v>13319</v>
+      </c>
+      <c r="AA481" t="s">
+        <v>13320</v>
+      </c>
+      <c r="AB481" t="s">
+        <v>13321</v>
+      </c>
+      <c r="AC481" t="s">
+        <v>13322</v>
+      </c>
+      <c r="AD481" t="s">
+        <v>13323</v>
+      </c>
+      <c r="AE481" t="s">
+        <v>13324</v>
+      </c>
+      <c r="AF481" t="s">
+        <v>13325</v>
+      </c>
+      <c r="AG481" t="s">
+        <v>13326</v>
+      </c>
+      <c r="AH481" t="s">
         <v>13303</v>
-      </c>
-      <c r="K481" t="s">
-        <v>13304</v>
-      </c>
-      <c r="L481" t="s">
-        <v>13305</v>
-      </c>
-      <c r="M481" t="s">
-        <v>13306</v>
-      </c>
-      <c r="N481" t="s">
-        <v>13307</v>
-      </c>
-      <c r="O481" t="s">
-        <v>13308</v>
-      </c>
-      <c r="P481" t="s">
-        <v>13309</v>
-      </c>
-      <c r="Q481" t="s">
-        <v>13310</v>
-      </c>
-      <c r="R481" t="s">
-        <v>13311</v>
-      </c>
-      <c r="S481" t="s">
-        <v>13312</v>
-      </c>
-      <c r="T481" t="s">
-        <v>13313</v>
-      </c>
-      <c r="U481" t="s">
-        <v>13314</v>
-      </c>
-      <c r="V481" t="s">
-        <v>13314</v>
-      </c>
-      <c r="W481" t="s">
-        <v>13315</v>
-      </c>
-      <c r="X481" t="s">
-        <v>13316</v>
-      </c>
-      <c r="Y481" t="s">
-        <v>13317</v>
-      </c>
-      <c r="Z481" t="s">
-        <v>13318</v>
-      </c>
-      <c r="AA481" t="s">
-        <v>13319</v>
-      </c>
-      <c r="AB481" t="s">
-        <v>13320</v>
-      </c>
-      <c r="AC481" t="s">
-        <v>13321</v>
-      </c>
-      <c r="AD481" t="s">
-        <v>13322</v>
-      </c>
-      <c r="AE481" t="s">
-        <v>13323</v>
-      </c>
-      <c r="AF481" t="s">
-        <v>13324</v>
-      </c>
-      <c r="AG481" t="s">
-        <v>13325</v>
-      </c>
-      <c r="AH481" t="s">
-        <v>13302</v>
       </c>
     </row>
     <row r="482">
@@ -100307,73 +100310,73 @@
       <c r="G482" t="s"/>
       <c r="H482" t="s"/>
       <c r="I482" t="s">
-        <v>13326</v>
+        <v>13327</v>
       </c>
       <c r="J482" t="s">
-        <v>13327</v>
+        <v>13328</v>
       </c>
       <c r="K482" t="s">
-        <v>13328</v>
+        <v>13329</v>
       </c>
       <c r="L482" t="s">
-        <v>13329</v>
+        <v>13330</v>
       </c>
       <c r="M482" t="s">
-        <v>13330</v>
+        <v>13331</v>
       </c>
       <c r="N482" t="s">
-        <v>13331</v>
+        <v>13332</v>
       </c>
       <c r="O482" t="s">
-        <v>13332</v>
+        <v>13333</v>
       </c>
       <c r="P482" t="s">
-        <v>13333</v>
+        <v>13334</v>
       </c>
       <c r="Q482" t="s">
-        <v>13334</v>
+        <v>13335</v>
       </c>
       <c r="R482" t="s">
-        <v>13335</v>
+        <v>13336</v>
       </c>
       <c r="S482" t="s">
-        <v>13336</v>
+        <v>13337</v>
       </c>
       <c r="T482" t="s">
-        <v>13337</v>
+        <v>13338</v>
       </c>
       <c r="U482" t="s">
-        <v>13338</v>
+        <v>13339</v>
       </c>
       <c r="V482" t="s">
-        <v>13339</v>
+        <v>13340</v>
       </c>
       <c r="W482" t="s">
-        <v>13340</v>
+        <v>13341</v>
       </c>
       <c r="X482" t="s">
-        <v>13341</v>
+        <v>13342</v>
       </c>
       <c r="Y482" t="s">
-        <v>13342</v>
+        <v>13343</v>
       </c>
       <c r="Z482" t="s">
-        <v>13343</v>
+        <v>13344</v>
       </c>
       <c r="AA482" t="s">
-        <v>13344</v>
+        <v>13345</v>
       </c>
       <c r="AB482" t="s">
-        <v>13345</v>
+        <v>13346</v>
       </c>
       <c r="AC482" t="s">
-        <v>13346</v>
+        <v>13347</v>
       </c>
       <c r="AD482" t="s">
-        <v>13347</v>
+        <v>13348</v>
       </c>
       <c r="AE482" t="s">
-        <v>13348</v>
+        <v>13349</v>
       </c>
     </row>
     <row r="483">
@@ -100396,124 +100399,124 @@
       <c r="G483" t="s"/>
       <c r="H483" t="s"/>
       <c r="I483" t="s">
-        <v>13349</v>
+        <v>13350</v>
       </c>
       <c r="J483" t="s">
-        <v>13350</v>
+        <v>13351</v>
       </c>
       <c r="K483" t="s">
-        <v>13351</v>
+        <v>13352</v>
       </c>
       <c r="L483" t="s">
-        <v>13352</v>
+        <v>13353</v>
       </c>
       <c r="M483" t="s">
-        <v>13353</v>
+        <v>13354</v>
       </c>
       <c r="N483" t="s">
-        <v>13354</v>
+        <v>13355</v>
       </c>
       <c r="O483" t="s">
-        <v>13355</v>
+        <v>13356</v>
       </c>
       <c r="P483" t="s">
-        <v>13356</v>
+        <v>13357</v>
       </c>
       <c r="Q483" t="s">
-        <v>13357</v>
+        <v>13358</v>
       </c>
       <c r="R483" t="s">
-        <v>13358</v>
+        <v>13359</v>
       </c>
       <c r="S483" t="s">
-        <v>13359</v>
+        <v>13360</v>
       </c>
       <c r="T483" t="s">
-        <v>13360</v>
+        <v>13361</v>
       </c>
       <c r="U483" t="s">
-        <v>13361</v>
+        <v>13362</v>
       </c>
       <c r="V483" t="s">
-        <v>13362</v>
+        <v>13363</v>
       </c>
       <c r="W483" t="s">
-        <v>13363</v>
+        <v>13364</v>
       </c>
       <c r="X483" t="s">
-        <v>13364</v>
+        <v>13365</v>
       </c>
       <c r="Y483" t="s">
-        <v>13365</v>
+        <v>13366</v>
       </c>
       <c r="Z483" t="s">
-        <v>13366</v>
+        <v>13367</v>
       </c>
       <c r="AA483" t="s">
-        <v>13367</v>
+        <v>13368</v>
       </c>
       <c r="AB483" t="s">
-        <v>13368</v>
+        <v>13369</v>
       </c>
       <c r="AC483" t="s">
-        <v>13369</v>
+        <v>13370</v>
       </c>
       <c r="AD483" t="s">
-        <v>13370</v>
+        <v>13371</v>
       </c>
       <c r="AE483" t="s">
-        <v>13371</v>
+        <v>13372</v>
       </c>
       <c r="AF483" t="s">
-        <v>13372</v>
+        <v>13373</v>
       </c>
       <c r="AG483" t="s">
-        <v>13373</v>
+        <v>13374</v>
       </c>
       <c r="AH483" t="s">
-        <v>13374</v>
+        <v>13375</v>
       </c>
       <c r="AI483" t="s">
-        <v>13375</v>
+        <v>13376</v>
       </c>
       <c r="AJ483" t="s">
-        <v>13376</v>
+        <v>13377</v>
       </c>
       <c r="AK483" t="s">
-        <v>13377</v>
+        <v>13378</v>
       </c>
       <c r="AL483" t="s">
-        <v>13378</v>
+        <v>13379</v>
       </c>
       <c r="AM483" t="s">
-        <v>13379</v>
+        <v>13380</v>
       </c>
       <c r="AN483" t="s">
-        <v>13380</v>
+        <v>13381</v>
       </c>
       <c r="AO483" t="s">
-        <v>13381</v>
+        <v>13382</v>
       </c>
       <c r="AP483" t="s">
-        <v>13382</v>
+        <v>13383</v>
       </c>
       <c r="AQ483" t="s">
-        <v>13383</v>
+        <v>13384</v>
       </c>
       <c r="AR483" t="s">
-        <v>13384</v>
+        <v>13385</v>
       </c>
       <c r="AS483" t="s">
-        <v>13385</v>
+        <v>13386</v>
       </c>
       <c r="AT483" t="s">
-        <v>13386</v>
+        <v>13387</v>
       </c>
       <c r="AU483" t="s">
-        <v>13387</v>
+        <v>13388</v>
       </c>
       <c r="AV483" t="s">
-        <v>13388</v>
+        <v>13389</v>
       </c>
     </row>
     <row r="484">
@@ -100536,124 +100539,124 @@
       <c r="G484" t="s"/>
       <c r="H484" t="s"/>
       <c r="I484" t="s">
-        <v>13389</v>
+        <v>13390</v>
       </c>
       <c r="J484" t="s">
-        <v>13390</v>
+        <v>13391</v>
       </c>
       <c r="K484" t="s">
-        <v>13391</v>
+        <v>13392</v>
       </c>
       <c r="L484" t="s">
-        <v>13392</v>
+        <v>13393</v>
       </c>
       <c r="M484" t="s">
-        <v>13393</v>
+        <v>13394</v>
       </c>
       <c r="N484" t="s">
-        <v>13394</v>
+        <v>13395</v>
       </c>
       <c r="O484" t="s">
-        <v>13395</v>
+        <v>13396</v>
       </c>
       <c r="P484" t="s">
-        <v>13396</v>
+        <v>13397</v>
       </c>
       <c r="Q484" t="s">
-        <v>13397</v>
+        <v>13398</v>
       </c>
       <c r="R484" t="s">
-        <v>13398</v>
+        <v>13399</v>
       </c>
       <c r="S484" t="s">
-        <v>13399</v>
+        <v>13400</v>
       </c>
       <c r="T484" t="s">
-        <v>13400</v>
+        <v>13401</v>
       </c>
       <c r="U484" t="s">
-        <v>13401</v>
+        <v>13402</v>
       </c>
       <c r="V484" t="s">
-        <v>13402</v>
+        <v>13403</v>
       </c>
       <c r="W484" t="s">
-        <v>13403</v>
+        <v>13404</v>
       </c>
       <c r="X484" t="s">
-        <v>13404</v>
+        <v>13405</v>
       </c>
       <c r="Y484" t="s">
-        <v>13405</v>
+        <v>13406</v>
       </c>
       <c r="Z484" t="s">
-        <v>13406</v>
+        <v>13407</v>
       </c>
       <c r="AA484" t="s">
-        <v>13407</v>
+        <v>13408</v>
       </c>
       <c r="AB484" t="s">
-        <v>13408</v>
+        <v>13409</v>
       </c>
       <c r="AC484" t="s">
-        <v>13409</v>
+        <v>13410</v>
       </c>
       <c r="AD484" t="s">
-        <v>13410</v>
+        <v>13411</v>
       </c>
       <c r="AE484" t="s">
-        <v>13411</v>
+        <v>13412</v>
       </c>
       <c r="AF484" t="s">
-        <v>13412</v>
+        <v>13413</v>
       </c>
       <c r="AG484" t="s">
-        <v>13413</v>
+        <v>13414</v>
       </c>
       <c r="AH484" t="s">
-        <v>13414</v>
+        <v>13415</v>
       </c>
       <c r="AI484" t="s">
-        <v>13415</v>
+        <v>13416</v>
       </c>
       <c r="AJ484" t="s">
-        <v>13416</v>
+        <v>13417</v>
       </c>
       <c r="AK484" t="s">
-        <v>13417</v>
+        <v>13418</v>
       </c>
       <c r="AL484" t="s">
-        <v>13418</v>
+        <v>13419</v>
       </c>
       <c r="AM484" t="s">
-        <v>13419</v>
+        <v>13420</v>
       </c>
       <c r="AN484" t="s">
-        <v>13420</v>
+        <v>13421</v>
       </c>
       <c r="AO484" t="s">
-        <v>13421</v>
+        <v>13422</v>
       </c>
       <c r="AP484" t="s">
-        <v>13422</v>
+        <v>13423</v>
       </c>
       <c r="AQ484" t="s">
-        <v>13423</v>
+        <v>13424</v>
       </c>
       <c r="AR484" t="s">
-        <v>13424</v>
+        <v>13425</v>
       </c>
       <c r="AS484" t="s">
-        <v>13425</v>
+        <v>13426</v>
       </c>
       <c r="AT484" t="s">
-        <v>13426</v>
+        <v>13427</v>
       </c>
       <c r="AU484" t="s">
-        <v>13427</v>
+        <v>13428</v>
       </c>
       <c r="AV484" t="s">
-        <v>13428</v>
+        <v>13429</v>
       </c>
     </row>
     <row r="485">
@@ -100676,94 +100679,94 @@
       <c r="G485" t="s"/>
       <c r="H485" t="s"/>
       <c r="I485" t="s">
-        <v>13429</v>
+        <v>13430</v>
       </c>
       <c r="J485" t="s">
-        <v>13430</v>
+        <v>13431</v>
       </c>
       <c r="K485" t="s">
-        <v>13431</v>
+        <v>13432</v>
       </c>
       <c r="L485" t="s">
-        <v>13432</v>
+        <v>13433</v>
       </c>
       <c r="M485" t="s">
-        <v>13433</v>
+        <v>13434</v>
       </c>
       <c r="N485" t="s">
-        <v>13434</v>
+        <v>13435</v>
       </c>
       <c r="O485" t="s">
-        <v>13435</v>
+        <v>13436</v>
       </c>
       <c r="P485" t="s">
-        <v>13436</v>
+        <v>13437</v>
       </c>
       <c r="Q485" t="s">
-        <v>13437</v>
+        <v>13438</v>
       </c>
       <c r="R485" t="s">
-        <v>13438</v>
+        <v>13439</v>
       </c>
       <c r="S485" t="s">
-        <v>13439</v>
+        <v>13440</v>
       </c>
       <c r="T485" t="s">
-        <v>13440</v>
+        <v>13441</v>
       </c>
       <c r="U485" t="s">
-        <v>13441</v>
+        <v>13442</v>
       </c>
       <c r="V485" t="s">
-        <v>13442</v>
+        <v>13443</v>
       </c>
       <c r="W485" t="s">
-        <v>13443</v>
+        <v>13444</v>
       </c>
       <c r="X485" t="s">
-        <v>13444</v>
+        <v>13445</v>
       </c>
       <c r="Y485" t="s">
-        <v>13445</v>
+        <v>13446</v>
       </c>
       <c r="Z485" t="s">
-        <v>13446</v>
+        <v>13447</v>
       </c>
       <c r="AA485" t="s">
-        <v>13447</v>
+        <v>13448</v>
       </c>
       <c r="AB485" t="s">
-        <v>13448</v>
+        <v>13449</v>
       </c>
       <c r="AC485" t="s">
-        <v>13449</v>
+        <v>13450</v>
       </c>
       <c r="AD485" t="s">
-        <v>13450</v>
+        <v>13451</v>
       </c>
       <c r="AE485" t="s">
-        <v>13451</v>
+        <v>13452</v>
       </c>
       <c r="AF485" t="s">
-        <v>13452</v>
+        <v>13453</v>
       </c>
       <c r="AG485" t="s">
-        <v>13453</v>
+        <v>13454</v>
       </c>
       <c r="AH485" t="s">
-        <v>13454</v>
+        <v>13455</v>
       </c>
       <c r="AI485" t="s">
-        <v>13455</v>
+        <v>13456</v>
       </c>
       <c r="AJ485" t="s">
-        <v>13456</v>
+        <v>13457</v>
       </c>
       <c r="AK485" t="s">
-        <v>13457</v>
+        <v>13458</v>
       </c>
       <c r="AL485" t="s">
-        <v>13458</v>
+        <v>13459</v>
       </c>
     </row>
     <row r="486">
@@ -100786,82 +100789,82 @@
       <c r="G486" t="s"/>
       <c r="H486" t="s"/>
       <c r="I486" t="s">
-        <v>13459</v>
+        <v>13460</v>
       </c>
       <c r="J486" t="s">
-        <v>13460</v>
+        <v>13461</v>
       </c>
       <c r="K486" t="s">
-        <v>13461</v>
+        <v>13462</v>
       </c>
       <c r="L486" t="s">
-        <v>13462</v>
+        <v>13463</v>
       </c>
       <c r="M486" t="s">
-        <v>13463</v>
+        <v>13464</v>
       </c>
       <c r="N486" t="s">
-        <v>13464</v>
+        <v>13465</v>
       </c>
       <c r="O486" t="s">
-        <v>13465</v>
+        <v>13466</v>
       </c>
       <c r="P486" t="s">
-        <v>13466</v>
+        <v>13467</v>
       </c>
       <c r="Q486" t="s">
-        <v>13467</v>
+        <v>13468</v>
       </c>
       <c r="R486" t="s">
-        <v>13468</v>
+        <v>13469</v>
       </c>
       <c r="S486" t="s">
-        <v>13469</v>
+        <v>13470</v>
       </c>
       <c r="T486" t="s">
-        <v>13470</v>
+        <v>13471</v>
       </c>
       <c r="U486" t="s">
-        <v>13471</v>
+        <v>13472</v>
       </c>
       <c r="V486" t="s">
-        <v>13472</v>
+        <v>13473</v>
       </c>
       <c r="W486" t="s">
-        <v>13473</v>
+        <v>13474</v>
       </c>
       <c r="X486" t="s">
-        <v>13474</v>
+        <v>13475</v>
       </c>
       <c r="Y486" t="s">
-        <v>13475</v>
+        <v>13476</v>
       </c>
       <c r="Z486" t="s">
-        <v>13476</v>
+        <v>13477</v>
       </c>
       <c r="AA486" t="s">
-        <v>13477</v>
+        <v>13478</v>
       </c>
       <c r="AB486" t="s">
-        <v>13478</v>
+        <v>13479</v>
       </c>
       <c r="AC486" t="s">
-        <v>13479</v>
+        <v>13480</v>
       </c>
       <c r="AD486" t="s">
-        <v>13480</v>
+        <v>13481</v>
       </c>
       <c r="AE486" t="s">
-        <v>13481</v>
+        <v>13482</v>
       </c>
       <c r="AF486" t="s">
-        <v>13482</v>
+        <v>13483</v>
       </c>
       <c r="AG486" t="s">
-        <v>13483</v>
+        <v>13484</v>
       </c>
       <c r="AH486" t="s">
-        <v>13484</v>
+        <v>13485</v>
       </c>
     </row>
     <row r="487">
@@ -100884,88 +100887,88 @@
       <c r="G487" t="s"/>
       <c r="H487" t="s"/>
       <c r="I487" t="s">
-        <v>13485</v>
+        <v>13486</v>
       </c>
       <c r="J487" t="s">
-        <v>13486</v>
+        <v>13487</v>
       </c>
       <c r="K487" t="s">
-        <v>13487</v>
+        <v>13488</v>
       </c>
       <c r="L487" t="s">
-        <v>13488</v>
+        <v>13489</v>
       </c>
       <c r="M487" t="s">
-        <v>13489</v>
+        <v>13490</v>
       </c>
       <c r="N487" t="s">
-        <v>13490</v>
+        <v>13491</v>
       </c>
       <c r="O487" t="s">
-        <v>13491</v>
+        <v>13492</v>
       </c>
       <c r="P487" t="s">
-        <v>13492</v>
+        <v>13493</v>
       </c>
       <c r="Q487" t="s">
-        <v>13493</v>
+        <v>13494</v>
       </c>
       <c r="R487" t="s">
-        <v>13494</v>
+        <v>13495</v>
       </c>
       <c r="S487" t="s">
-        <v>13495</v>
+        <v>13496</v>
       </c>
       <c r="T487" t="s">
-        <v>13496</v>
+        <v>13497</v>
       </c>
       <c r="U487" t="s">
-        <v>13497</v>
+        <v>13498</v>
       </c>
       <c r="V487" t="s">
-        <v>13498</v>
+        <v>13499</v>
       </c>
       <c r="W487" t="s">
-        <v>13499</v>
+        <v>13500</v>
       </c>
       <c r="X487" t="s">
-        <v>13500</v>
+        <v>13501</v>
       </c>
       <c r="Y487" t="s">
-        <v>13501</v>
+        <v>13502</v>
       </c>
       <c r="Z487" t="s">
-        <v>13502</v>
+        <v>13503</v>
       </c>
       <c r="AA487" t="s">
-        <v>13503</v>
+        <v>13504</v>
       </c>
       <c r="AB487" t="s">
-        <v>13504</v>
+        <v>13505</v>
       </c>
       <c r="AC487" t="s">
-        <v>13505</v>
+        <v>13506</v>
       </c>
       <c r="AD487" t="s">
-        <v>13506</v>
+        <v>13507</v>
       </c>
       <c r="AE487" t="s">
-        <v>13507</v>
+        <v>13508</v>
       </c>
       <c r="AF487" t="s">
-        <v>13508</v>
+        <v>13509</v>
       </c>
       <c r="AG487" t="s">
-        <v>13509</v>
+        <v>13510</v>
       </c>
       <c r="AH487" t="s">
-        <v>13510</v>
+        <v>13511</v>
       </c>
       <c r="AI487" t="s">
-        <v>13511</v>
+        <v>13512</v>
       </c>
       <c r="AJ487" t="s">
-        <v>13512</v>
+        <v>13513</v>
       </c>
     </row>
     <row r="488">
@@ -100988,25 +100991,25 @@
       <c r="G488" t="s"/>
       <c r="H488" t="s"/>
       <c r="I488" t="s">
-        <v>13513</v>
+        <v>13514</v>
       </c>
       <c r="J488" t="s">
-        <v>13514</v>
+        <v>13515</v>
       </c>
       <c r="K488" t="s">
-        <v>13515</v>
+        <v>13516</v>
       </c>
       <c r="L488" t="s">
-        <v>13516</v>
+        <v>13517</v>
       </c>
       <c r="M488" t="s">
-        <v>13517</v>
+        <v>13518</v>
       </c>
       <c r="N488" t="s">
-        <v>13518</v>
+        <v>13519</v>
       </c>
       <c r="O488" t="s">
-        <v>13519</v>
+        <v>13520</v>
       </c>
     </row>
     <row r="489">
@@ -101029,103 +101032,103 @@
       <c r="G489" t="s"/>
       <c r="H489" t="s"/>
       <c r="I489" t="s">
-        <v>13520</v>
+        <v>13521</v>
       </c>
       <c r="J489" t="s">
-        <v>13521</v>
+        <v>13522</v>
       </c>
       <c r="K489" t="s">
-        <v>13522</v>
+        <v>13523</v>
       </c>
       <c r="L489" t="s">
-        <v>13523</v>
+        <v>13524</v>
       </c>
       <c r="M489" t="s">
-        <v>13524</v>
+        <v>13525</v>
       </c>
       <c r="N489" t="s">
-        <v>13525</v>
+        <v>13526</v>
       </c>
       <c r="O489" t="s">
-        <v>13526</v>
+        <v>13527</v>
       </c>
       <c r="P489" t="s">
-        <v>13527</v>
+        <v>13528</v>
       </c>
       <c r="Q489" t="s">
-        <v>13528</v>
+        <v>13529</v>
       </c>
       <c r="R489" t="s">
-        <v>13529</v>
+        <v>13530</v>
       </c>
       <c r="S489" t="s">
-        <v>13530</v>
+        <v>13531</v>
       </c>
       <c r="T489" t="s">
-        <v>13531</v>
+        <v>13532</v>
       </c>
       <c r="U489" t="s">
-        <v>13532</v>
+        <v>13533</v>
       </c>
       <c r="V489" t="s">
-        <v>13533</v>
+        <v>13534</v>
       </c>
       <c r="W489" t="s">
-        <v>13534</v>
+        <v>13535</v>
       </c>
       <c r="X489" t="s">
-        <v>13535</v>
+        <v>13536</v>
       </c>
       <c r="Y489" t="s">
-        <v>13536</v>
+        <v>13537</v>
       </c>
       <c r="Z489" t="s">
-        <v>13537</v>
+        <v>13538</v>
       </c>
       <c r="AA489" t="s">
-        <v>13538</v>
+        <v>13539</v>
       </c>
       <c r="AB489" t="s">
-        <v>13539</v>
+        <v>13540</v>
       </c>
       <c r="AC489" t="s">
-        <v>13540</v>
+        <v>13541</v>
       </c>
       <c r="AD489" t="s">
-        <v>13541</v>
+        <v>13542</v>
       </c>
       <c r="AE489" t="s">
-        <v>13542</v>
+        <v>13543</v>
       </c>
       <c r="AF489" t="s">
-        <v>13543</v>
+        <v>13544</v>
       </c>
       <c r="AG489" t="s">
-        <v>13544</v>
+        <v>13545</v>
       </c>
       <c r="AH489" t="s">
-        <v>13545</v>
+        <v>13546</v>
       </c>
       <c r="AI489" t="s">
-        <v>13546</v>
+        <v>13547</v>
       </c>
       <c r="AJ489" t="s">
-        <v>13547</v>
+        <v>13548</v>
       </c>
       <c r="AK489" t="s">
-        <v>13548</v>
+        <v>13549</v>
       </c>
       <c r="AL489" t="s">
-        <v>13549</v>
+        <v>13550</v>
       </c>
       <c r="AM489" t="s">
-        <v>13550</v>
+        <v>13551</v>
       </c>
       <c r="AN489" t="s">
-        <v>13551</v>
+        <v>13552</v>
       </c>
       <c r="AO489" t="s">
-        <v>13552</v>
+        <v>13553</v>
       </c>
     </row>
     <row r="490">
@@ -101148,106 +101151,106 @@
       <c r="G490" t="s"/>
       <c r="H490" t="s"/>
       <c r="I490" t="s">
-        <v>13553</v>
+        <v>13554</v>
       </c>
       <c r="J490" t="s">
-        <v>13554</v>
+        <v>13555</v>
       </c>
       <c r="K490" t="s">
-        <v>13555</v>
+        <v>13556</v>
       </c>
       <c r="L490" t="s">
-        <v>13556</v>
+        <v>13557</v>
       </c>
       <c r="M490" t="s">
-        <v>13557</v>
+        <v>13558</v>
       </c>
       <c r="N490" t="s">
-        <v>13558</v>
+        <v>13559</v>
       </c>
       <c r="O490" t="s">
-        <v>13559</v>
+        <v>13560</v>
       </c>
       <c r="P490" t="s">
-        <v>13560</v>
+        <v>13561</v>
       </c>
       <c r="Q490" t="s">
-        <v>13561</v>
+        <v>13562</v>
       </c>
       <c r="R490" t="s">
-        <v>13562</v>
+        <v>13563</v>
       </c>
       <c r="S490" t="s">
-        <v>13563</v>
+        <v>13564</v>
       </c>
       <c r="T490" t="s">
-        <v>13564</v>
+        <v>13565</v>
       </c>
       <c r="U490" t="s">
-        <v>13565</v>
+        <v>13566</v>
       </c>
       <c r="V490" t="s">
-        <v>13566</v>
+        <v>13567</v>
       </c>
       <c r="W490" t="s">
-        <v>13567</v>
+        <v>13568</v>
       </c>
       <c r="X490" t="s">
-        <v>13568</v>
+        <v>13569</v>
       </c>
       <c r="Y490" t="s">
-        <v>13569</v>
+        <v>13570</v>
       </c>
       <c r="Z490" t="s">
-        <v>13570</v>
+        <v>13571</v>
       </c>
       <c r="AA490" t="s">
-        <v>13571</v>
+        <v>13572</v>
       </c>
       <c r="AB490" t="s">
-        <v>13572</v>
+        <v>13573</v>
       </c>
       <c r="AC490" t="s">
-        <v>13573</v>
+        <v>13574</v>
       </c>
       <c r="AD490" t="s">
-        <v>13574</v>
+        <v>13575</v>
       </c>
       <c r="AE490" t="s">
-        <v>13575</v>
+        <v>13576</v>
       </c>
       <c r="AF490" t="s">
-        <v>13576</v>
+        <v>13577</v>
       </c>
       <c r="AG490" t="s">
-        <v>13577</v>
+        <v>13578</v>
       </c>
       <c r="AH490" t="s">
-        <v>13578</v>
+        <v>13579</v>
       </c>
       <c r="AI490" t="s">
-        <v>13579</v>
+        <v>13580</v>
       </c>
       <c r="AJ490" t="s">
-        <v>13580</v>
+        <v>13581</v>
       </c>
       <c r="AK490" t="s">
-        <v>13581</v>
+        <v>13582</v>
       </c>
       <c r="AL490" t="s">
-        <v>13582</v>
+        <v>13583</v>
       </c>
       <c r="AM490" t="s">
-        <v>13583</v>
+        <v>13584</v>
       </c>
       <c r="AN490" t="s">
-        <v>13584</v>
+        <v>13585</v>
       </c>
       <c r="AO490" t="s">
-        <v>13585</v>
+        <v>13586</v>
       </c>
       <c r="AP490" t="s">
-        <v>13586</v>
+        <v>13587</v>
       </c>
     </row>
     <row r="491">
@@ -101270,100 +101273,100 @@
       <c r="G491" t="s"/>
       <c r="H491" t="s"/>
       <c r="I491" t="s">
-        <v>13587</v>
+        <v>13588</v>
       </c>
       <c r="J491" t="s">
-        <v>13588</v>
+        <v>13589</v>
       </c>
       <c r="K491" t="s">
-        <v>13589</v>
+        <v>13590</v>
       </c>
       <c r="L491" t="s">
-        <v>13590</v>
+        <v>13591</v>
       </c>
       <c r="M491" t="s">
-        <v>13591</v>
+        <v>13592</v>
       </c>
       <c r="N491" t="s">
-        <v>13592</v>
+        <v>13593</v>
       </c>
       <c r="O491" t="s">
-        <v>13593</v>
+        <v>13594</v>
       </c>
       <c r="P491" t="s">
-        <v>13594</v>
+        <v>13595</v>
       </c>
       <c r="Q491" t="s">
-        <v>13595</v>
+        <v>13596</v>
       </c>
       <c r="R491" t="s">
-        <v>13596</v>
+        <v>13597</v>
       </c>
       <c r="S491" t="s">
-        <v>13597</v>
+        <v>13598</v>
       </c>
       <c r="T491" t="s">
-        <v>13598</v>
+        <v>13599</v>
       </c>
       <c r="U491" t="s">
-        <v>13599</v>
+        <v>13600</v>
       </c>
       <c r="V491" t="s">
-        <v>13600</v>
+        <v>13601</v>
       </c>
       <c r="W491" t="s">
-        <v>13601</v>
+        <v>13602</v>
       </c>
       <c r="X491" t="s">
-        <v>13602</v>
+        <v>13603</v>
       </c>
       <c r="Y491" t="s">
-        <v>13603</v>
+        <v>13604</v>
       </c>
       <c r="Z491" t="s">
-        <v>13604</v>
+        <v>13605</v>
       </c>
       <c r="AA491" t="s">
-        <v>13605</v>
+        <v>13606</v>
       </c>
       <c r="AB491" t="s">
-        <v>13606</v>
+        <v>13607</v>
       </c>
       <c r="AC491" t="s">
-        <v>13607</v>
+        <v>13608</v>
       </c>
       <c r="AD491" t="s">
-        <v>13608</v>
+        <v>13609</v>
       </c>
       <c r="AE491" t="s">
-        <v>13609</v>
+        <v>13610</v>
       </c>
       <c r="AF491" t="s">
-        <v>13610</v>
+        <v>13611</v>
       </c>
       <c r="AG491" t="s">
-        <v>13611</v>
+        <v>13612</v>
       </c>
       <c r="AH491" t="s">
-        <v>13612</v>
+        <v>13613</v>
       </c>
       <c r="AI491" t="s">
-        <v>13613</v>
+        <v>13614</v>
       </c>
       <c r="AJ491" t="s">
-        <v>13614</v>
+        <v>13615</v>
       </c>
       <c r="AK491" t="s">
-        <v>13615</v>
+        <v>13616</v>
       </c>
       <c r="AL491" t="s">
-        <v>13616</v>
+        <v>13617</v>
       </c>
       <c r="AM491" t="s">
-        <v>13617</v>
+        <v>13618</v>
       </c>
       <c r="AN491" t="s">
-        <v>13618</v>
+        <v>13619</v>
       </c>
     </row>
     <row r="492">
@@ -101386,85 +101389,85 @@
       <c r="G492" t="s"/>
       <c r="H492" t="s"/>
       <c r="I492" t="s">
-        <v>13619</v>
+        <v>13620</v>
       </c>
       <c r="J492" t="s">
-        <v>13620</v>
+        <v>13621</v>
       </c>
       <c r="K492" t="s">
-        <v>13621</v>
+        <v>13622</v>
       </c>
       <c r="L492" t="s">
-        <v>13622</v>
+        <v>13623</v>
       </c>
       <c r="M492" t="s">
-        <v>13623</v>
+        <v>13624</v>
       </c>
       <c r="N492" t="s">
-        <v>13624</v>
+        <v>13625</v>
       </c>
       <c r="O492" t="s">
-        <v>13625</v>
+        <v>13626</v>
       </c>
       <c r="P492" t="s">
-        <v>13626</v>
+        <v>13627</v>
       </c>
       <c r="Q492" t="s">
-        <v>13627</v>
+        <v>13628</v>
       </c>
       <c r="R492" t="s">
-        <v>13628</v>
+        <v>13629</v>
       </c>
       <c r="S492" t="s">
-        <v>13629</v>
+        <v>13630</v>
       </c>
       <c r="T492" t="s">
-        <v>13630</v>
+        <v>13631</v>
       </c>
       <c r="U492" t="s">
-        <v>13631</v>
+        <v>13632</v>
       </c>
       <c r="V492" t="s">
-        <v>13632</v>
+        <v>13633</v>
       </c>
       <c r="W492" t="s">
-        <v>13633</v>
+        <v>13634</v>
       </c>
       <c r="X492" t="s">
-        <v>13634</v>
+        <v>13635</v>
       </c>
       <c r="Y492" t="s">
-        <v>13635</v>
+        <v>13636</v>
       </c>
       <c r="Z492" t="s">
-        <v>13636</v>
+        <v>13637</v>
       </c>
       <c r="AA492" t="s">
-        <v>13637</v>
+        <v>13638</v>
       </c>
       <c r="AB492" t="s">
-        <v>13638</v>
+        <v>13639</v>
       </c>
       <c r="AC492" t="s">
-        <v>13639</v>
+        <v>13640</v>
       </c>
       <c r="AD492" t="s">
-        <v>13640</v>
+        <v>13641</v>
       </c>
       <c r="AE492" t="s">
-        <v>13641</v>
+        <v>13642</v>
       </c>
       <c r="AF492" t="s">
-        <v>13642</v>
+        <v>13643</v>
       </c>
       <c r="AG492" t="s">
-        <v>13643</v>
+        <v>13644</v>
       </c>
       <c r="AH492" t="s">
-        <v>13644</v>
+        <v>13645</v>
       </c>
       <c r="AI492" t="s">
-        <v>13645</v>
+        <v>13646</v>
       </c>
     </row>
     <row r="493">
@@ -101487,22 +101490,22 @@
       <c r="G493" t="s"/>
       <c r="H493" t="s"/>
       <c r="I493" t="s">
-        <v>13646</v>
+        <v>13647</v>
       </c>
       <c r="J493" t="s">
-        <v>13647</v>
+        <v>13648</v>
       </c>
       <c r="K493" t="s">
-        <v>13648</v>
+        <v>13649</v>
       </c>
       <c r="L493" t="s">
-        <v>13649</v>
+        <v>13650</v>
       </c>
       <c r="M493" t="s">
-        <v>13650</v>
+        <v>13651</v>
       </c>
       <c r="N493" t="s">
-        <v>13651</v>
+        <v>13652</v>
       </c>
     </row>
     <row r="494">
@@ -101525,97 +101528,97 @@
       <c r="G494" t="s"/>
       <c r="H494" t="s"/>
       <c r="I494" t="s">
-        <v>13652</v>
+        <v>13653</v>
       </c>
       <c r="J494" t="s">
-        <v>13653</v>
+        <v>13654</v>
       </c>
       <c r="K494" t="s">
-        <v>13654</v>
+        <v>13655</v>
       </c>
       <c r="L494" t="s">
-        <v>13655</v>
+        <v>13656</v>
       </c>
       <c r="M494" t="s">
-        <v>13656</v>
+        <v>13657</v>
       </c>
       <c r="N494" t="s">
-        <v>13657</v>
+        <v>13658</v>
       </c>
       <c r="O494" t="s">
-        <v>13658</v>
+        <v>13659</v>
       </c>
       <c r="P494" t="s">
-        <v>13659</v>
+        <v>13660</v>
       </c>
       <c r="Q494" t="s">
-        <v>13660</v>
+        <v>13661</v>
       </c>
       <c r="R494" t="s">
-        <v>13661</v>
+        <v>13662</v>
       </c>
       <c r="S494" t="s">
-        <v>13662</v>
+        <v>13663</v>
       </c>
       <c r="T494" t="s">
-        <v>13663</v>
+        <v>13664</v>
       </c>
       <c r="U494" t="s">
-        <v>13664</v>
+        <v>13665</v>
       </c>
       <c r="V494" t="s">
-        <v>13665</v>
+        <v>13666</v>
       </c>
       <c r="W494" t="s">
-        <v>13666</v>
+        <v>13667</v>
       </c>
       <c r="X494" t="s">
-        <v>13667</v>
+        <v>13668</v>
       </c>
       <c r="Y494" t="s">
-        <v>13668</v>
+        <v>13669</v>
       </c>
       <c r="Z494" t="s">
-        <v>13669</v>
+        <v>13670</v>
       </c>
       <c r="AA494" t="s">
-        <v>13670</v>
+        <v>13671</v>
       </c>
       <c r="AB494" t="s">
-        <v>13671</v>
+        <v>13672</v>
       </c>
       <c r="AC494" t="s">
-        <v>13672</v>
+        <v>13673</v>
       </c>
       <c r="AD494" t="s">
-        <v>13673</v>
+        <v>13674</v>
       </c>
       <c r="AE494" t="s">
-        <v>13674</v>
+        <v>13675</v>
       </c>
       <c r="AF494" t="s">
-        <v>13675</v>
+        <v>13676</v>
       </c>
       <c r="AG494" t="s">
-        <v>13676</v>
+        <v>13677</v>
       </c>
       <c r="AH494" t="s">
-        <v>13677</v>
+        <v>13678</v>
       </c>
       <c r="AI494" t="s">
-        <v>13678</v>
+        <v>13679</v>
       </c>
       <c r="AJ494" t="s">
-        <v>13679</v>
+        <v>13680</v>
       </c>
       <c r="AK494" t="s">
-        <v>13680</v>
+        <v>13681</v>
       </c>
       <c r="AL494" t="s">
-        <v>13681</v>
+        <v>13682</v>
       </c>
       <c r="AM494" t="s">
-        <v>13682</v>
+        <v>13683</v>
       </c>
     </row>
     <row r="495">
@@ -101635,145 +101638,145 @@
       <c r="G495" t="s"/>
       <c r="H495" t="s"/>
       <c r="I495" t="s">
-        <v>13683</v>
+        <v>13684</v>
       </c>
       <c r="J495" t="s">
-        <v>13684</v>
+        <v>13685</v>
       </c>
       <c r="K495" t="s">
-        <v>13685</v>
+        <v>13686</v>
       </c>
       <c r="L495" t="s">
-        <v>13686</v>
+        <v>13687</v>
       </c>
       <c r="M495" t="s">
-        <v>13687</v>
+        <v>13688</v>
       </c>
       <c r="N495" t="s">
-        <v>13688</v>
+        <v>13689</v>
       </c>
       <c r="O495" t="s">
-        <v>13689</v>
+        <v>13690</v>
       </c>
       <c r="P495" t="s">
+        <v>13691</v>
+      </c>
+      <c r="Q495" t="s">
+        <v>13692</v>
+      </c>
+      <c r="R495" t="s">
+        <v>13693</v>
+      </c>
+      <c r="S495" t="s">
+        <v>13694</v>
+      </c>
+      <c r="T495" t="s">
+        <v>13695</v>
+      </c>
+      <c r="U495" t="s">
+        <v>13696</v>
+      </c>
+      <c r="V495" t="s">
+        <v>13696</v>
+      </c>
+      <c r="W495" t="s">
+        <v>13697</v>
+      </c>
+      <c r="X495" t="s">
+        <v>13697</v>
+      </c>
+      <c r="Y495" t="s">
+        <v>13698</v>
+      </c>
+      <c r="Z495" t="s">
+        <v>13699</v>
+      </c>
+      <c r="AA495" t="s">
+        <v>13700</v>
+      </c>
+      <c r="AB495" t="s">
+        <v>13698</v>
+      </c>
+      <c r="AC495" t="s">
+        <v>13701</v>
+      </c>
+      <c r="AD495" t="s">
+        <v>13702</v>
+      </c>
+      <c r="AE495" t="s">
+        <v>13703</v>
+      </c>
+      <c r="AF495" t="s">
+        <v>13704</v>
+      </c>
+      <c r="AG495" t="s">
+        <v>13705</v>
+      </c>
+      <c r="AH495" t="s">
+        <v>13706</v>
+      </c>
+      <c r="AI495" t="s">
+        <v>13707</v>
+      </c>
+      <c r="AJ495" t="s">
+        <v>13708</v>
+      </c>
+      <c r="AK495" t="s">
+        <v>13709</v>
+      </c>
+      <c r="AL495" t="s">
         <v>13690</v>
       </c>
-      <c r="Q495" t="s">
+      <c r="AM495" t="s">
         <v>13691</v>
       </c>
-      <c r="R495" t="s">
-        <v>13692</v>
-      </c>
-      <c r="S495" t="s">
-        <v>13693</v>
-      </c>
-      <c r="T495" t="s">
+      <c r="AN495" t="s">
+        <v>13710</v>
+      </c>
+      <c r="AO495" t="s">
+        <v>13711</v>
+      </c>
+      <c r="AP495" t="s">
         <v>13694</v>
       </c>
-      <c r="U495" t="s">
+      <c r="AQ495" t="s">
         <v>13695</v>
       </c>
-      <c r="V495" t="s">
-        <v>13695</v>
-      </c>
-      <c r="W495" t="s">
-        <v>13696</v>
-      </c>
-      <c r="X495" t="s">
-        <v>13696</v>
-      </c>
-      <c r="Y495" t="s">
-        <v>13697</v>
-      </c>
-      <c r="Z495" t="s">
-        <v>13698</v>
-      </c>
-      <c r="AA495" t="s">
-        <v>13699</v>
-      </c>
-      <c r="AB495" t="s">
-        <v>13697</v>
-      </c>
-      <c r="AC495" t="s">
-        <v>13700</v>
-      </c>
-      <c r="AD495" t="s">
-        <v>13701</v>
-      </c>
-      <c r="AE495" t="s">
-        <v>13702</v>
-      </c>
-      <c r="AF495" t="s">
-        <v>13703</v>
-      </c>
-      <c r="AG495" t="s">
-        <v>13704</v>
-      </c>
-      <c r="AH495" t="s">
-        <v>13705</v>
-      </c>
-      <c r="AI495" t="s">
+      <c r="AR495" t="s">
         <v>13706</v>
       </c>
-      <c r="AJ495" t="s">
-        <v>13707</v>
-      </c>
-      <c r="AK495" t="s">
+      <c r="AS495" t="s">
+        <v>13712</v>
+      </c>
+      <c r="AT495" t="s">
         <v>13708</v>
       </c>
-      <c r="AL495" t="s">
-        <v>13689</v>
-      </c>
-      <c r="AM495" t="s">
-        <v>13690</v>
-      </c>
-      <c r="AN495" t="s">
-        <v>13709</v>
-      </c>
-      <c r="AO495" t="s">
-        <v>13710</v>
-      </c>
-      <c r="AP495" t="s">
-        <v>13693</v>
-      </c>
-      <c r="AQ495" t="s">
-        <v>13694</v>
-      </c>
-      <c r="AR495" t="s">
-        <v>13705</v>
-      </c>
-      <c r="AS495" t="s">
-        <v>13711</v>
-      </c>
-      <c r="AT495" t="s">
-        <v>13707</v>
-      </c>
       <c r="AU495" t="s">
-        <v>13712</v>
+        <v>13713</v>
       </c>
       <c r="AV495" t="s">
-        <v>13713</v>
+        <v>13714</v>
       </c>
       <c r="AW495" t="s">
-        <v>13714</v>
+        <v>13715</v>
       </c>
       <c r="AX495" t="s">
-        <v>13715</v>
+        <v>13716</v>
       </c>
       <c r="AY495" t="s">
-        <v>13716</v>
+        <v>13717</v>
       </c>
       <c r="AZ495" t="s">
-        <v>13717</v>
+        <v>13718</v>
       </c>
       <c r="BA495" t="s">
-        <v>13718</v>
+        <v>13719</v>
       </c>
       <c r="BB495" t="s">
-        <v>13719</v>
+        <v>13720</v>
       </c>
       <c r="BC495" t="s">
-        <v>13720</v>
+        <v>13721</v>
       </c>
     </row>
     <row r="496">
@@ -101796,94 +101799,94 @@
       <c r="G496" t="s"/>
       <c r="H496" t="s"/>
       <c r="I496" t="s">
-        <v>13721</v>
+        <v>13722</v>
       </c>
       <c r="J496" t="s">
-        <v>13722</v>
+        <v>13723</v>
       </c>
       <c r="K496" t="s">
-        <v>13722</v>
+        <v>13723</v>
       </c>
       <c r="L496" t="s">
-        <v>13723</v>
+        <v>13724</v>
       </c>
       <c r="M496" t="s">
+        <v>13725</v>
+      </c>
+      <c r="N496" t="s">
+        <v>13725</v>
+      </c>
+      <c r="O496" t="s">
+        <v>13726</v>
+      </c>
+      <c r="P496" t="s">
+        <v>13726</v>
+      </c>
+      <c r="Q496" t="s">
+        <v>13727</v>
+      </c>
+      <c r="R496" t="s">
+        <v>13727</v>
+      </c>
+      <c r="S496" t="s">
+        <v>13728</v>
+      </c>
+      <c r="T496" t="s">
+        <v>13728</v>
+      </c>
+      <c r="U496" t="s">
+        <v>13729</v>
+      </c>
+      <c r="V496" t="s">
+        <v>13730</v>
+      </c>
+      <c r="W496" t="s">
+        <v>13730</v>
+      </c>
+      <c r="X496" t="s">
+        <v>13731</v>
+      </c>
+      <c r="Y496" t="s">
+        <v>13732</v>
+      </c>
+      <c r="Z496" t="s">
+        <v>13733</v>
+      </c>
+      <c r="AA496" t="s">
+        <v>13734</v>
+      </c>
+      <c r="AB496" t="s">
+        <v>13729</v>
+      </c>
+      <c r="AC496" t="s">
+        <v>13735</v>
+      </c>
+      <c r="AD496" t="s">
+        <v>13735</v>
+      </c>
+      <c r="AE496" t="s">
         <v>13724</v>
       </c>
-      <c r="N496" t="s">
-        <v>13724</v>
-      </c>
-      <c r="O496" t="s">
-        <v>13725</v>
-      </c>
-      <c r="P496" t="s">
-        <v>13725</v>
-      </c>
-      <c r="Q496" t="s">
-        <v>13726</v>
-      </c>
-      <c r="R496" t="s">
-        <v>13726</v>
-      </c>
-      <c r="S496" t="s">
-        <v>13727</v>
-      </c>
-      <c r="T496" t="s">
-        <v>13727</v>
-      </c>
-      <c r="U496" t="s">
-        <v>13728</v>
-      </c>
-      <c r="V496" t="s">
-        <v>13729</v>
-      </c>
-      <c r="W496" t="s">
-        <v>13729</v>
-      </c>
-      <c r="X496" t="s">
-        <v>13730</v>
-      </c>
-      <c r="Y496" t="s">
-        <v>13731</v>
-      </c>
-      <c r="Z496" t="s">
-        <v>13732</v>
-      </c>
-      <c r="AA496" t="s">
-        <v>13733</v>
-      </c>
-      <c r="AB496" t="s">
-        <v>13728</v>
-      </c>
-      <c r="AC496" t="s">
-        <v>13734</v>
-      </c>
-      <c r="AD496" t="s">
-        <v>13734</v>
-      </c>
-      <c r="AE496" t="s">
-        <v>13723</v>
-      </c>
       <c r="AF496" t="s">
-        <v>13735</v>
+        <v>13736</v>
       </c>
       <c r="AG496" t="s">
-        <v>13736</v>
+        <v>13737</v>
       </c>
       <c r="AH496" t="s">
-        <v>13737</v>
+        <v>13738</v>
       </c>
       <c r="AI496" t="s">
-        <v>13738</v>
+        <v>13739</v>
       </c>
       <c r="AJ496" t="s">
-        <v>13739</v>
+        <v>13740</v>
       </c>
       <c r="AK496" t="s">
-        <v>13740</v>
+        <v>13741</v>
       </c>
       <c r="AL496" t="s">
-        <v>13741</v>
+        <v>13742</v>
       </c>
     </row>
     <row r="497">
@@ -101906,103 +101909,103 @@
       <c r="G497" t="s"/>
       <c r="H497" t="s"/>
       <c r="I497" t="s">
-        <v>13742</v>
+        <v>13743</v>
       </c>
       <c r="J497" t="s">
-        <v>13743</v>
+        <v>13744</v>
       </c>
       <c r="K497" t="s">
-        <v>13744</v>
+        <v>13745</v>
       </c>
       <c r="L497" t="s">
-        <v>13745</v>
+        <v>13746</v>
       </c>
       <c r="M497" t="s">
-        <v>13746</v>
+        <v>13747</v>
       </c>
       <c r="N497" t="s">
+        <v>13748</v>
+      </c>
+      <c r="O497" t="s">
+        <v>13749</v>
+      </c>
+      <c r="P497" t="s">
+        <v>13750</v>
+      </c>
+      <c r="Q497" t="s">
         <v>13747</v>
       </c>
-      <c r="O497" t="s">
+      <c r="R497" t="s">
         <v>13748</v>
       </c>
-      <c r="P497" t="s">
+      <c r="S497" t="s">
         <v>13749</v>
       </c>
-      <c r="Q497" t="s">
-        <v>13746</v>
-      </c>
-      <c r="R497" t="s">
-        <v>13747</v>
-      </c>
-      <c r="S497" t="s">
-        <v>13748</v>
-      </c>
       <c r="T497" t="s">
-        <v>13749</v>
+        <v>13750</v>
       </c>
       <c r="U497" t="s">
-        <v>13750</v>
+        <v>13751</v>
       </c>
       <c r="V497" t="s">
-        <v>13750</v>
+        <v>13751</v>
       </c>
       <c r="W497" t="s">
-        <v>13751</v>
+        <v>13752</v>
       </c>
       <c r="X497" t="s">
+        <v>13753</v>
+      </c>
+      <c r="Y497" t="s">
+        <v>13754</v>
+      </c>
+      <c r="Z497" t="s">
+        <v>13754</v>
+      </c>
+      <c r="AA497" t="s">
+        <v>13755</v>
+      </c>
+      <c r="AB497" t="s">
+        <v>13756</v>
+      </c>
+      <c r="AC497" t="s">
+        <v>13755</v>
+      </c>
+      <c r="AD497" t="s">
+        <v>13756</v>
+      </c>
+      <c r="AE497" t="s">
+        <v>13757</v>
+      </c>
+      <c r="AF497" t="s">
+        <v>13757</v>
+      </c>
+      <c r="AG497" t="s">
+        <v>13758</v>
+      </c>
+      <c r="AH497" t="s">
+        <v>13759</v>
+      </c>
+      <c r="AI497" t="s">
+        <v>13759</v>
+      </c>
+      <c r="AJ497" t="s">
+        <v>13760</v>
+      </c>
+      <c r="AK497" t="s">
+        <v>13760</v>
+      </c>
+      <c r="AL497" t="s">
+        <v>13761</v>
+      </c>
+      <c r="AM497" t="s">
         <v>13752</v>
       </c>
-      <c r="Y497" t="s">
+      <c r="AN497" t="s">
         <v>13753</v>
       </c>
-      <c r="Z497" t="s">
-        <v>13753</v>
-      </c>
-      <c r="AA497" t="s">
-        <v>13754</v>
-      </c>
-      <c r="AB497" t="s">
-        <v>13755</v>
-      </c>
-      <c r="AC497" t="s">
-        <v>13754</v>
-      </c>
-      <c r="AD497" t="s">
-        <v>13755</v>
-      </c>
-      <c r="AE497" t="s">
-        <v>13756</v>
-      </c>
-      <c r="AF497" t="s">
-        <v>13756</v>
-      </c>
-      <c r="AG497" t="s">
-        <v>13757</v>
-      </c>
-      <c r="AH497" t="s">
-        <v>13758</v>
-      </c>
-      <c r="AI497" t="s">
-        <v>13758</v>
-      </c>
-      <c r="AJ497" t="s">
-        <v>13759</v>
-      </c>
-      <c r="AK497" t="s">
-        <v>13759</v>
-      </c>
-      <c r="AL497" t="s">
-        <v>13760</v>
-      </c>
-      <c r="AM497" t="s">
-        <v>13751</v>
-      </c>
-      <c r="AN497" t="s">
-        <v>13752</v>
-      </c>
       <c r="AO497" t="s">
-        <v>13761</v>
+        <v>13762</v>
       </c>
     </row>
     <row r="498">
@@ -102025,100 +102028,100 @@
       <c r="G498" t="s"/>
       <c r="H498" t="s"/>
       <c r="I498" t="s">
-        <v>13762</v>
+        <v>13763</v>
       </c>
       <c r="J498" t="s">
-        <v>13763</v>
+        <v>13764</v>
       </c>
       <c r="K498" t="s">
-        <v>13763</v>
+        <v>13764</v>
       </c>
       <c r="L498" t="s">
-        <v>13764</v>
+        <v>13765</v>
       </c>
       <c r="M498" t="s">
-        <v>13765</v>
+        <v>13766</v>
       </c>
       <c r="N498" t="s">
+        <v>13767</v>
+      </c>
+      <c r="O498" t="s">
+        <v>13768</v>
+      </c>
+      <c r="P498" t="s">
+        <v>13769</v>
+      </c>
+      <c r="Q498" t="s">
+        <v>13770</v>
+      </c>
+      <c r="R498" t="s">
+        <v>13770</v>
+      </c>
+      <c r="S498" t="s">
+        <v>13771</v>
+      </c>
+      <c r="T498" t="s">
+        <v>13771</v>
+      </c>
+      <c r="U498" t="s">
+        <v>13772</v>
+      </c>
+      <c r="V498" t="s">
+        <v>13772</v>
+      </c>
+      <c r="W498" t="s">
+        <v>13773</v>
+      </c>
+      <c r="X498" t="s">
+        <v>13773</v>
+      </c>
+      <c r="Y498" t="s">
+        <v>13774</v>
+      </c>
+      <c r="Z498" t="s">
+        <v>13774</v>
+      </c>
+      <c r="AA498" t="s">
+        <v>13775</v>
+      </c>
+      <c r="AB498" t="s">
+        <v>13775</v>
+      </c>
+      <c r="AC498" t="s">
+        <v>13776</v>
+      </c>
+      <c r="AD498" t="s">
+        <v>13776</v>
+      </c>
+      <c r="AE498" t="s">
+        <v>13777</v>
+      </c>
+      <c r="AF498" t="s">
+        <v>13777</v>
+      </c>
+      <c r="AG498" t="s">
+        <v>13778</v>
+      </c>
+      <c r="AH498" t="s">
+        <v>13778</v>
+      </c>
+      <c r="AI498" t="s">
         <v>13766</v>
       </c>
-      <c r="O498" t="s">
+      <c r="AJ498" t="s">
         <v>13767</v>
       </c>
-      <c r="P498" t="s">
-        <v>13768</v>
-      </c>
-      <c r="Q498" t="s">
+      <c r="AK498" t="s">
+        <v>13779</v>
+      </c>
+      <c r="AL498" t="s">
         <v>13769</v>
       </c>
-      <c r="R498" t="s">
-        <v>13769</v>
-      </c>
-      <c r="S498" t="s">
-        <v>13770</v>
-      </c>
-      <c r="T498" t="s">
-        <v>13770</v>
-      </c>
-      <c r="U498" t="s">
-        <v>13771</v>
-      </c>
-      <c r="V498" t="s">
-        <v>13771</v>
-      </c>
-      <c r="W498" t="s">
-        <v>13772</v>
-      </c>
-      <c r="X498" t="s">
-        <v>13772</v>
-      </c>
-      <c r="Y498" t="s">
-        <v>13773</v>
-      </c>
-      <c r="Z498" t="s">
-        <v>13773</v>
-      </c>
-      <c r="AA498" t="s">
-        <v>13774</v>
-      </c>
-      <c r="AB498" t="s">
-        <v>13774</v>
-      </c>
-      <c r="AC498" t="s">
-        <v>13775</v>
-      </c>
-      <c r="AD498" t="s">
-        <v>13775</v>
-      </c>
-      <c r="AE498" t="s">
-        <v>13776</v>
-      </c>
-      <c r="AF498" t="s">
-        <v>13776</v>
-      </c>
-      <c r="AG498" t="s">
-        <v>13777</v>
-      </c>
-      <c r="AH498" t="s">
-        <v>13777</v>
-      </c>
-      <c r="AI498" t="s">
-        <v>13765</v>
-      </c>
-      <c r="AJ498" t="s">
-        <v>13766</v>
-      </c>
-      <c r="AK498" t="s">
-        <v>13778</v>
-      </c>
-      <c r="AL498" t="s">
-        <v>13768</v>
-      </c>
       <c r="AM498" t="s">
-        <v>13779</v>
+        <v>13780</v>
       </c>
       <c r="AN498" t="s">
-        <v>13780</v>
+        <v>13781</v>
       </c>
     </row>
     <row r="499">
@@ -102141,127 +102144,127 @@
       <c r="G499" t="s"/>
       <c r="H499" t="s"/>
       <c r="I499" t="s">
-        <v>13781</v>
+        <v>13782</v>
       </c>
       <c r="J499" t="s">
-        <v>13782</v>
+        <v>13783</v>
       </c>
       <c r="K499" t="s">
-        <v>13783</v>
+        <v>13784</v>
       </c>
       <c r="L499" t="s">
+        <v>13785</v>
+      </c>
+      <c r="M499" t="s">
+        <v>13786</v>
+      </c>
+      <c r="N499" t="s">
+        <v>13787</v>
+      </c>
+      <c r="O499" t="s">
         <v>13784</v>
       </c>
-      <c r="M499" t="s">
-        <v>13785</v>
-      </c>
-      <c r="N499" t="s">
+      <c r="P499" t="s">
+        <v>13788</v>
+      </c>
+      <c r="Q499" t="s">
+        <v>13789</v>
+      </c>
+      <c r="R499" t="s">
+        <v>13790</v>
+      </c>
+      <c r="S499" t="s">
         <v>13786</v>
       </c>
-      <c r="O499" t="s">
-        <v>13783</v>
-      </c>
-      <c r="P499" t="s">
-        <v>13787</v>
-      </c>
-      <c r="Q499" t="s">
-        <v>13788</v>
-      </c>
-      <c r="R499" t="s">
-        <v>13789</v>
-      </c>
-      <c r="S499" t="s">
-        <v>13785</v>
-      </c>
       <c r="T499" t="s">
-        <v>13790</v>
+        <v>13791</v>
       </c>
       <c r="U499" t="s">
+        <v>13792</v>
+      </c>
+      <c r="V499" t="s">
+        <v>13793</v>
+      </c>
+      <c r="W499" t="s">
+        <v>13794</v>
+      </c>
+      <c r="X499" t="s">
+        <v>13795</v>
+      </c>
+      <c r="Y499" t="s">
+        <v>13796</v>
+      </c>
+      <c r="Z499" t="s">
+        <v>13797</v>
+      </c>
+      <c r="AA499" t="s">
+        <v>13798</v>
+      </c>
+      <c r="AB499" t="s">
+        <v>13799</v>
+      </c>
+      <c r="AC499" t="s">
+        <v>13800</v>
+      </c>
+      <c r="AD499" t="s">
+        <v>13801</v>
+      </c>
+      <c r="AE499" t="s">
+        <v>13802</v>
+      </c>
+      <c r="AF499" t="s">
+        <v>13798</v>
+      </c>
+      <c r="AG499" t="s">
+        <v>13799</v>
+      </c>
+      <c r="AH499" t="s">
+        <v>13801</v>
+      </c>
+      <c r="AI499" t="s">
+        <v>13802</v>
+      </c>
+      <c r="AJ499" t="s">
+        <v>13800</v>
+      </c>
+      <c r="AK499" t="s">
+        <v>13803</v>
+      </c>
+      <c r="AL499" t="s">
+        <v>13804</v>
+      </c>
+      <c r="AM499" t="s">
+        <v>13805</v>
+      </c>
+      <c r="AN499" t="s">
+        <v>13805</v>
+      </c>
+      <c r="AO499" t="s">
         <v>13791</v>
       </c>
-      <c r="V499" t="s">
+      <c r="AP499" t="s">
+        <v>13793</v>
+      </c>
+      <c r="AQ499" t="s">
         <v>13792</v>
       </c>
-      <c r="W499" t="s">
-        <v>13793</v>
-      </c>
-      <c r="X499" t="s">
+      <c r="AR499" t="s">
         <v>13794</v>
       </c>
-      <c r="Y499" t="s">
+      <c r="AS499" t="s">
         <v>13795</v>
       </c>
-      <c r="Z499" t="s">
-        <v>13796</v>
-      </c>
-      <c r="AA499" t="s">
+      <c r="AT499" t="s">
         <v>13797</v>
       </c>
-      <c r="AB499" t="s">
-        <v>13798</v>
-      </c>
-      <c r="AC499" t="s">
-        <v>13799</v>
-      </c>
-      <c r="AD499" t="s">
-        <v>13800</v>
-      </c>
-      <c r="AE499" t="s">
-        <v>13801</v>
-      </c>
-      <c r="AF499" t="s">
-        <v>13797</v>
-      </c>
-      <c r="AG499" t="s">
-        <v>13798</v>
-      </c>
-      <c r="AH499" t="s">
-        <v>13800</v>
-      </c>
-      <c r="AI499" t="s">
-        <v>13801</v>
-      </c>
-      <c r="AJ499" t="s">
-        <v>13799</v>
-      </c>
-      <c r="AK499" t="s">
-        <v>13802</v>
-      </c>
-      <c r="AL499" t="s">
-        <v>13803</v>
-      </c>
-      <c r="AM499" t="s">
-        <v>13804</v>
-      </c>
-      <c r="AN499" t="s">
-        <v>13804</v>
-      </c>
-      <c r="AO499" t="s">
-        <v>13790</v>
-      </c>
-      <c r="AP499" t="s">
-        <v>13792</v>
-      </c>
-      <c r="AQ499" t="s">
-        <v>13791</v>
-      </c>
-      <c r="AR499" t="s">
-        <v>13793</v>
-      </c>
-      <c r="AS499" t="s">
-        <v>13794</v>
-      </c>
-      <c r="AT499" t="s">
-        <v>13796</v>
-      </c>
       <c r="AU499" t="s">
-        <v>13805</v>
+        <v>13806</v>
       </c>
       <c r="AV499" t="s">
-        <v>13806</v>
+        <v>13807</v>
       </c>
       <c r="AW499" t="s">
-        <v>13807</v>
+        <v>13808</v>
       </c>
     </row>
     <row r="500">
@@ -102284,163 +102287,163 @@
       <c r="G500" t="s"/>
       <c r="H500" t="s"/>
       <c r="I500" t="s">
-        <v>13808</v>
+        <v>13809</v>
       </c>
       <c r="J500" t="s">
-        <v>13809</v>
+        <v>13810</v>
       </c>
       <c r="K500" t="s">
-        <v>13809</v>
+        <v>13810</v>
       </c>
       <c r="L500" t="s">
-        <v>13810</v>
+        <v>13811</v>
       </c>
       <c r="M500" t="s">
-        <v>13811</v>
+        <v>13812</v>
       </c>
       <c r="N500" t="s">
+        <v>13813</v>
+      </c>
+      <c r="O500" t="s">
+        <v>13814</v>
+      </c>
+      <c r="P500" t="s">
         <v>13812</v>
       </c>
-      <c r="O500" t="s">
-        <v>13813</v>
-      </c>
-      <c r="P500" t="s">
-        <v>13811</v>
-      </c>
       <c r="Q500" t="s">
-        <v>13814</v>
+        <v>13815</v>
       </c>
       <c r="R500" t="s">
-        <v>13815</v>
+        <v>13816</v>
       </c>
       <c r="S500" t="s">
-        <v>13815</v>
+        <v>13816</v>
       </c>
       <c r="T500" t="s">
-        <v>13816</v>
+        <v>13817</v>
       </c>
       <c r="U500" t="s">
+        <v>13818</v>
+      </c>
+      <c r="V500" t="s">
+        <v>13819</v>
+      </c>
+      <c r="W500" t="s">
+        <v>13820</v>
+      </c>
+      <c r="X500" t="s">
+        <v>13820</v>
+      </c>
+      <c r="Y500" t="s">
+        <v>13821</v>
+      </c>
+      <c r="Z500" t="s">
+        <v>13821</v>
+      </c>
+      <c r="AA500" t="s">
+        <v>13822</v>
+      </c>
+      <c r="AB500" t="s">
+        <v>13823</v>
+      </c>
+      <c r="AC500" t="s">
+        <v>13823</v>
+      </c>
+      <c r="AD500" t="s">
+        <v>13824</v>
+      </c>
+      <c r="AE500" t="s">
+        <v>13824</v>
+      </c>
+      <c r="AF500" t="s">
         <v>13817</v>
       </c>
-      <c r="V500" t="s">
+      <c r="AG500" t="s">
         <v>13818</v>
       </c>
-      <c r="W500" t="s">
+      <c r="AH500" t="s">
         <v>13819</v>
       </c>
-      <c r="X500" t="s">
-        <v>13819</v>
-      </c>
-      <c r="Y500" t="s">
-        <v>13820</v>
-      </c>
-      <c r="Z500" t="s">
-        <v>13820</v>
-      </c>
-      <c r="AA500" t="s">
-        <v>13821</v>
-      </c>
-      <c r="AB500" t="s">
+      <c r="AI500" t="s">
+        <v>13825</v>
+      </c>
+      <c r="AJ500" t="s">
+        <v>13826</v>
+      </c>
+      <c r="AK500" t="s">
+        <v>13827</v>
+      </c>
+      <c r="AL500" t="s">
+        <v>13828</v>
+      </c>
+      <c r="AM500" t="s">
+        <v>13829</v>
+      </c>
+      <c r="AN500" t="s">
+        <v>13830</v>
+      </c>
+      <c r="AO500" t="s">
+        <v>13831</v>
+      </c>
+      <c r="AP500" t="s">
+        <v>13832</v>
+      </c>
+      <c r="AQ500" t="s">
+        <v>13833</v>
+      </c>
+      <c r="AR500" t="s">
+        <v>13834</v>
+      </c>
+      <c r="AS500" t="s">
+        <v>13835</v>
+      </c>
+      <c r="AT500" t="s">
+        <v>13836</v>
+      </c>
+      <c r="AU500" t="s">
+        <v>13837</v>
+      </c>
+      <c r="AV500" t="s">
+        <v>13838</v>
+      </c>
+      <c r="AW500" t="s">
+        <v>13839</v>
+      </c>
+      <c r="AX500" t="s">
+        <v>13840</v>
+      </c>
+      <c r="AY500" t="s">
         <v>13822</v>
       </c>
-      <c r="AC500" t="s">
-        <v>13822</v>
-      </c>
-      <c r="AD500" t="s">
-        <v>13823</v>
-      </c>
-      <c r="AE500" t="s">
-        <v>13823</v>
-      </c>
-      <c r="AF500" t="s">
-        <v>13816</v>
-      </c>
-      <c r="AG500" t="s">
-        <v>13817</v>
-      </c>
-      <c r="AH500" t="s">
-        <v>13818</v>
-      </c>
-      <c r="AI500" t="s">
-        <v>13824</v>
-      </c>
-      <c r="AJ500" t="s">
-        <v>13825</v>
-      </c>
-      <c r="AK500" t="s">
-        <v>13826</v>
-      </c>
-      <c r="AL500" t="s">
-        <v>13827</v>
-      </c>
-      <c r="AM500" t="s">
-        <v>13828</v>
-      </c>
-      <c r="AN500" t="s">
-        <v>13829</v>
-      </c>
-      <c r="AO500" t="s">
-        <v>13830</v>
-      </c>
-      <c r="AP500" t="s">
-        <v>13831</v>
-      </c>
-      <c r="AQ500" t="s">
-        <v>13832</v>
-      </c>
-      <c r="AR500" t="s">
+      <c r="AZ500" t="s">
         <v>13833</v>
       </c>
-      <c r="AS500" t="s">
+      <c r="BA500" t="s">
         <v>13834</v>
       </c>
-      <c r="AT500" t="s">
+      <c r="BB500" t="s">
         <v>13835</v>
       </c>
-      <c r="AU500" t="s">
+      <c r="BC500" t="s">
         <v>13836</v>
       </c>
-      <c r="AV500" t="s">
+      <c r="BD500" t="s">
         <v>13837</v>
       </c>
-      <c r="AW500" t="s">
+      <c r="BE500" t="s">
         <v>13838</v>
       </c>
-      <c r="AX500" t="s">
+      <c r="BF500" t="s">
         <v>13839</v>
       </c>
-      <c r="AY500" t="s">
-        <v>13821</v>
-      </c>
-      <c r="AZ500" t="s">
-        <v>13832</v>
-      </c>
-      <c r="BA500" t="s">
-        <v>13833</v>
-      </c>
-      <c r="BB500" t="s">
-        <v>13834</v>
-      </c>
-      <c r="BC500" t="s">
-        <v>13835</v>
-      </c>
-      <c r="BD500" t="s">
-        <v>13836</v>
-      </c>
-      <c r="BE500" t="s">
-        <v>13837</v>
-      </c>
-      <c r="BF500" t="s">
-        <v>13838</v>
-      </c>
       <c r="BG500" t="s">
-        <v>13839</v>
+        <v>13840</v>
       </c>
       <c r="BH500" t="s">
-        <v>13840</v>
+        <v>13841</v>
       </c>
       <c r="BI500" t="s">
-        <v>13841</v>
+        <v>13842</v>
       </c>
     </row>
     <row r="501">
@@ -102463,286 +102466,286 @@
       <c r="G501" t="s"/>
       <c r="H501" t="s"/>
       <c r="I501" t="s">
-        <v>13842</v>
+        <v>13843</v>
       </c>
       <c r="J501" t="s">
-        <v>13843</v>
+        <v>13844</v>
       </c>
       <c r="K501" t="s">
-        <v>13844</v>
+        <v>13845</v>
       </c>
       <c r="L501" t="s">
-        <v>13845</v>
+        <v>13846</v>
       </c>
       <c r="M501" t="s">
-        <v>13846</v>
+        <v>13847</v>
       </c>
       <c r="N501" t="s">
-        <v>13847</v>
+        <v>13848</v>
       </c>
       <c r="O501" t="s">
-        <v>13848</v>
+        <v>13849</v>
       </c>
       <c r="P501" t="s">
-        <v>13849</v>
+        <v>13850</v>
       </c>
       <c r="Q501" t="s">
-        <v>13850</v>
+        <v>13851</v>
       </c>
       <c r="R501" t="s">
-        <v>13851</v>
+        <v>13852</v>
       </c>
       <c r="S501" t="s">
-        <v>13852</v>
+        <v>13853</v>
       </c>
       <c r="T501" t="s">
-        <v>13853</v>
+        <v>13854</v>
       </c>
       <c r="U501" t="s">
-        <v>13854</v>
+        <v>13855</v>
       </c>
       <c r="V501" t="s">
-        <v>13855</v>
+        <v>13856</v>
       </c>
       <c r="W501" t="s">
-        <v>13856</v>
+        <v>13857</v>
       </c>
       <c r="X501" t="s">
-        <v>13857</v>
+        <v>13858</v>
       </c>
       <c r="Y501" t="s">
-        <v>13858</v>
+        <v>13859</v>
       </c>
       <c r="Z501" t="s">
+        <v>13860</v>
+      </c>
+      <c r="AA501" t="s">
         <v>13859</v>
       </c>
-      <c r="AA501" t="s">
-        <v>13858</v>
-      </c>
       <c r="AB501" t="s">
-        <v>13860</v>
+        <v>13861</v>
       </c>
       <c r="AC501" t="s">
-        <v>13861</v>
+        <v>13862</v>
       </c>
       <c r="AD501" t="s">
-        <v>13862</v>
+        <v>13863</v>
       </c>
       <c r="AE501" t="s">
+        <v>13864</v>
+      </c>
+      <c r="AF501" t="s">
+        <v>13865</v>
+      </c>
+      <c r="AG501" t="s">
+        <v>13866</v>
+      </c>
+      <c r="AH501" t="s">
+        <v>13867</v>
+      </c>
+      <c r="AI501" t="s">
+        <v>13868</v>
+      </c>
+      <c r="AJ501" t="s">
+        <v>13869</v>
+      </c>
+      <c r="AK501" t="s">
+        <v>13870</v>
+      </c>
+      <c r="AL501" t="s">
+        <v>13871</v>
+      </c>
+      <c r="AM501" t="s">
+        <v>13872</v>
+      </c>
+      <c r="AN501" t="s">
+        <v>13873</v>
+      </c>
+      <c r="AO501" t="s">
+        <v>13874</v>
+      </c>
+      <c r="AP501" t="s">
+        <v>13875</v>
+      </c>
+      <c r="AQ501" t="s">
+        <v>13876</v>
+      </c>
+      <c r="AR501" t="s">
+        <v>13877</v>
+      </c>
+      <c r="AS501" t="s">
+        <v>13878</v>
+      </c>
+      <c r="AT501" t="s">
+        <v>13877</v>
+      </c>
+      <c r="AU501" t="s">
+        <v>13879</v>
+      </c>
+      <c r="AV501" t="s">
+        <v>13878</v>
+      </c>
+      <c r="AW501" t="s">
+        <v>13880</v>
+      </c>
+      <c r="AX501" t="s">
+        <v>13881</v>
+      </c>
+      <c r="AY501" t="s">
+        <v>13882</v>
+      </c>
+      <c r="AZ501" t="s">
+        <v>13883</v>
+      </c>
+      <c r="BA501" t="s">
+        <v>13884</v>
+      </c>
+      <c r="BB501" t="s">
+        <v>13885</v>
+      </c>
+      <c r="BC501" t="s">
+        <v>13886</v>
+      </c>
+      <c r="BD501" t="s">
+        <v>13886</v>
+      </c>
+      <c r="BE501" t="s">
+        <v>13887</v>
+      </c>
+      <c r="BF501" t="s">
+        <v>13888</v>
+      </c>
+      <c r="BG501" t="s">
+        <v>13889</v>
+      </c>
+      <c r="BH501" t="s">
+        <v>13890</v>
+      </c>
+      <c r="BI501" t="s">
+        <v>13891</v>
+      </c>
+      <c r="BJ501" t="s">
+        <v>13892</v>
+      </c>
+      <c r="BK501" t="s">
+        <v>13893</v>
+      </c>
+      <c r="BL501" t="s">
+        <v>13894</v>
+      </c>
+      <c r="BM501" t="s">
+        <v>13895</v>
+      </c>
+      <c r="BN501" t="s">
+        <v>13896</v>
+      </c>
+      <c r="BO501" t="s">
+        <v>13897</v>
+      </c>
+      <c r="BP501" t="s">
+        <v>13898</v>
+      </c>
+      <c r="BQ501" t="s">
         <v>13863</v>
       </c>
-      <c r="AF501" t="s">
-        <v>13864</v>
-      </c>
-      <c r="AG501" t="s">
-        <v>13865</v>
-      </c>
-      <c r="AH501" t="s">
-        <v>13866</v>
-      </c>
-      <c r="AI501" t="s">
-        <v>13867</v>
-      </c>
-      <c r="AJ501" t="s">
-        <v>13868</v>
-      </c>
-      <c r="AK501" t="s">
-        <v>13869</v>
-      </c>
-      <c r="AL501" t="s">
-        <v>13870</v>
-      </c>
-      <c r="AM501" t="s">
-        <v>13871</v>
-      </c>
-      <c r="AN501" t="s">
-        <v>13872</v>
-      </c>
-      <c r="AO501" t="s">
-        <v>13873</v>
-      </c>
-      <c r="AP501" t="s">
-        <v>13874</v>
-      </c>
-      <c r="AQ501" t="s">
-        <v>13875</v>
-      </c>
-      <c r="AR501" t="s">
-        <v>13876</v>
-      </c>
-      <c r="AS501" t="s">
-        <v>13877</v>
-      </c>
-      <c r="AT501" t="s">
-        <v>13876</v>
-      </c>
-      <c r="AU501" t="s">
-        <v>13878</v>
-      </c>
-      <c r="AV501" t="s">
-        <v>13877</v>
-      </c>
-      <c r="AW501" t="s">
-        <v>13879</v>
-      </c>
-      <c r="AX501" t="s">
-        <v>13880</v>
-      </c>
-      <c r="AY501" t="s">
+      <c r="BR501" t="s">
+        <v>13899</v>
+      </c>
+      <c r="BS501" t="s">
+        <v>13900</v>
+      </c>
+      <c r="BT501" t="s">
+        <v>13901</v>
+      </c>
+      <c r="BU501" t="s">
+        <v>13902</v>
+      </c>
+      <c r="BV501" t="s">
+        <v>13903</v>
+      </c>
+      <c r="BW501" t="s">
+        <v>13904</v>
+      </c>
+      <c r="BX501" t="s">
+        <v>13905</v>
+      </c>
+      <c r="BY501" t="s">
+        <v>13906</v>
+      </c>
+      <c r="BZ501" t="s">
+        <v>13907</v>
+      </c>
+      <c r="CA501" t="s">
+        <v>13908</v>
+      </c>
+      <c r="CB501" t="s">
+        <v>13909</v>
+      </c>
+      <c r="CC501" t="s">
+        <v>13910</v>
+      </c>
+      <c r="CD501" t="s">
+        <v>13911</v>
+      </c>
+      <c r="CE501" t="s">
+        <v>13912</v>
+      </c>
+      <c r="CF501" t="s">
+        <v>13913</v>
+      </c>
+      <c r="CG501" t="s">
+        <v>13914</v>
+      </c>
+      <c r="CH501" t="s">
+        <v>13915</v>
+      </c>
+      <c r="CI501" t="s">
+        <v>13916</v>
+      </c>
+      <c r="CJ501" t="s">
+        <v>13917</v>
+      </c>
+      <c r="CK501" t="s">
+        <v>13918</v>
+      </c>
+      <c r="CL501" t="s">
+        <v>13919</v>
+      </c>
+      <c r="CM501" t="s">
         <v>13881</v>
       </c>
-      <c r="AZ501" t="s">
+      <c r="CN501" t="s">
         <v>13882</v>
       </c>
-      <c r="BA501" t="s">
-        <v>13883</v>
-      </c>
-      <c r="BB501" t="s">
-        <v>13884</v>
-      </c>
-      <c r="BC501" t="s">
-        <v>13885</v>
-      </c>
-      <c r="BD501" t="s">
-        <v>13885</v>
-      </c>
-      <c r="BE501" t="s">
-        <v>13886</v>
-      </c>
-      <c r="BF501" t="s">
-        <v>13887</v>
-      </c>
-      <c r="BG501" t="s">
-        <v>13888</v>
-      </c>
-      <c r="BH501" t="s">
-        <v>13889</v>
-      </c>
-      <c r="BI501" t="s">
-        <v>13890</v>
-      </c>
-      <c r="BJ501" t="s">
-        <v>13891</v>
-      </c>
-      <c r="BK501" t="s">
-        <v>13892</v>
-      </c>
-      <c r="BL501" t="s">
-        <v>13893</v>
-      </c>
-      <c r="BM501" t="s">
-        <v>13894</v>
-      </c>
-      <c r="BN501" t="s">
-        <v>13895</v>
-      </c>
-      <c r="BO501" t="s">
-        <v>13896</v>
-      </c>
-      <c r="BP501" t="s">
-        <v>13897</v>
-      </c>
-      <c r="BQ501" t="s">
-        <v>13862</v>
-      </c>
-      <c r="BR501" t="s">
-        <v>13898</v>
-      </c>
-      <c r="BS501" t="s">
-        <v>13899</v>
-      </c>
-      <c r="BT501" t="s">
-        <v>13900</v>
-      </c>
-      <c r="BU501" t="s">
-        <v>13901</v>
-      </c>
-      <c r="BV501" t="s">
-        <v>13902</v>
-      </c>
-      <c r="BW501" t="s">
-        <v>13903</v>
-      </c>
-      <c r="BX501" t="s">
-        <v>13904</v>
-      </c>
-      <c r="BY501" t="s">
-        <v>13905</v>
-      </c>
-      <c r="BZ501" t="s">
-        <v>13906</v>
-      </c>
-      <c r="CA501" t="s">
-        <v>13907</v>
-      </c>
-      <c r="CB501" t="s">
-        <v>13908</v>
-      </c>
-      <c r="CC501" t="s">
-        <v>13909</v>
-      </c>
-      <c r="CD501" t="s">
+      <c r="CO501" t="s">
+        <v>13920</v>
+      </c>
+      <c r="CP501" t="s">
+        <v>13917</v>
+      </c>
+      <c r="CQ501" t="s">
+        <v>13921</v>
+      </c>
+      <c r="CR501" t="s">
+        <v>13922</v>
+      </c>
+      <c r="CS501" t="s">
         <v>13910</v>
       </c>
-      <c r="CE501" t="s">
-        <v>13911</v>
-      </c>
-      <c r="CF501" t="s">
+      <c r="CT501" t="s">
         <v>13912</v>
       </c>
-      <c r="CG501" t="s">
-        <v>13913</v>
-      </c>
-      <c r="CH501" t="s">
-        <v>13914</v>
-      </c>
-      <c r="CI501" t="s">
+      <c r="CU501" t="s">
         <v>13915</v>
       </c>
-      <c r="CJ501" t="s">
-        <v>13916</v>
-      </c>
-      <c r="CK501" t="s">
-        <v>13917</v>
-      </c>
-      <c r="CL501" t="s">
-        <v>13918</v>
-      </c>
-      <c r="CM501" t="s">
-        <v>13880</v>
-      </c>
-      <c r="CN501" t="s">
-        <v>13881</v>
-      </c>
-      <c r="CO501" t="s">
-        <v>13919</v>
-      </c>
-      <c r="CP501" t="s">
-        <v>13916</v>
-      </c>
-      <c r="CQ501" t="s">
-        <v>13920</v>
-      </c>
-      <c r="CR501" t="s">
-        <v>13921</v>
-      </c>
-      <c r="CS501" t="s">
-        <v>13909</v>
-      </c>
-      <c r="CT501" t="s">
-        <v>13911</v>
-      </c>
-      <c r="CU501" t="s">
-        <v>13914</v>
-      </c>
       <c r="CV501" t="s">
-        <v>13922</v>
+        <v>13923</v>
       </c>
       <c r="CW501" t="s">
-        <v>13923</v>
+        <v>13924</v>
       </c>
       <c r="CX501" t="s">
-        <v>13924</v>
+        <v>13925</v>
       </c>
     </row>
     <row r="502">
@@ -102765,100 +102768,100 @@
       <c r="G502" t="s"/>
       <c r="H502" t="s"/>
       <c r="I502" t="s">
-        <v>13925</v>
+        <v>13926</v>
       </c>
       <c r="J502" t="s">
+        <v>13927</v>
+      </c>
+      <c r="K502" t="s">
+        <v>13928</v>
+      </c>
+      <c r="L502" t="s">
+        <v>13929</v>
+      </c>
+      <c r="M502" t="s">
+        <v>13930</v>
+      </c>
+      <c r="N502" t="s">
+        <v>13931</v>
+      </c>
+      <c r="O502" t="s">
+        <v>13932</v>
+      </c>
+      <c r="P502" t="s">
+        <v>13933</v>
+      </c>
+      <c r="Q502" t="s">
         <v>13926</v>
       </c>
-      <c r="K502" t="s">
-        <v>13927</v>
-      </c>
-      <c r="L502" t="s">
-        <v>13928</v>
-      </c>
-      <c r="M502" t="s">
-        <v>13929</v>
-      </c>
-      <c r="N502" t="s">
-        <v>13930</v>
-      </c>
-      <c r="O502" t="s">
-        <v>13931</v>
-      </c>
-      <c r="P502" t="s">
-        <v>13932</v>
-      </c>
-      <c r="Q502" t="s">
-        <v>13925</v>
-      </c>
       <c r="R502" t="s">
-        <v>13933</v>
+        <v>13934</v>
       </c>
       <c r="S502" t="s">
-        <v>13934</v>
+        <v>13935</v>
       </c>
       <c r="T502" t="s">
-        <v>13935</v>
+        <v>13936</v>
       </c>
       <c r="U502" t="s">
-        <v>13936</v>
+        <v>13937</v>
       </c>
       <c r="V502" t="s">
-        <v>13937</v>
+        <v>13938</v>
       </c>
       <c r="W502" t="s">
-        <v>13938</v>
+        <v>13939</v>
       </c>
       <c r="X502" t="s">
-        <v>13939</v>
+        <v>13940</v>
       </c>
       <c r="Y502" t="s">
-        <v>13940</v>
+        <v>13941</v>
       </c>
       <c r="Z502" t="s">
-        <v>13941</v>
+        <v>13942</v>
       </c>
       <c r="AA502" t="s">
-        <v>13942</v>
+        <v>13943</v>
       </c>
       <c r="AB502" t="s">
-        <v>13943</v>
+        <v>13944</v>
       </c>
       <c r="AC502" t="s">
-        <v>13944</v>
+        <v>13945</v>
       </c>
       <c r="AD502" t="s">
-        <v>13945</v>
+        <v>13946</v>
       </c>
       <c r="AE502" t="s">
-        <v>13946</v>
+        <v>13947</v>
       </c>
       <c r="AF502" t="s">
-        <v>13947</v>
+        <v>13948</v>
       </c>
       <c r="AG502" t="s">
-        <v>13948</v>
+        <v>13949</v>
       </c>
       <c r="AH502" t="s">
-        <v>13949</v>
+        <v>13950</v>
       </c>
       <c r="AI502" t="s">
-        <v>13950</v>
+        <v>13951</v>
       </c>
       <c r="AJ502" t="s">
-        <v>13951</v>
+        <v>13952</v>
       </c>
       <c r="AK502" t="s">
-        <v>13952</v>
+        <v>13953</v>
       </c>
       <c r="AL502" t="s">
-        <v>13953</v>
+        <v>13954</v>
       </c>
       <c r="AM502" t="s">
-        <v>13954</v>
+        <v>13955</v>
       </c>
       <c r="AN502" t="s">
-        <v>13925</v>
+        <v>13926</v>
       </c>
     </row>
     <row r="503">
@@ -102881,208 +102884,208 @@
       <c r="G503" t="s"/>
       <c r="H503" t="s"/>
       <c r="I503" t="s">
-        <v>13955</v>
+        <v>13956</v>
       </c>
       <c r="J503" t="s">
-        <v>13956</v>
+        <v>13957</v>
       </c>
       <c r="K503" t="s">
-        <v>13957</v>
+        <v>13958</v>
       </c>
       <c r="L503" t="s">
-        <v>13957</v>
+        <v>13958</v>
       </c>
       <c r="M503" t="s">
-        <v>13958</v>
+        <v>13959</v>
       </c>
       <c r="N503" t="s">
-        <v>13959</v>
+        <v>13960</v>
       </c>
       <c r="O503" t="s">
-        <v>13960</v>
+        <v>13961</v>
       </c>
       <c r="P503" t="s">
-        <v>13961</v>
+        <v>13962</v>
       </c>
       <c r="Q503" t="s">
-        <v>13962</v>
+        <v>13963</v>
       </c>
       <c r="R503" t="s">
-        <v>13963</v>
+        <v>13964</v>
       </c>
       <c r="S503" t="s">
+        <v>13965</v>
+      </c>
+      <c r="T503" t="s">
+        <v>13966</v>
+      </c>
+      <c r="U503" t="s">
+        <v>13967</v>
+      </c>
+      <c r="V503" t="s">
+        <v>13968</v>
+      </c>
+      <c r="W503" t="s">
+        <v>13969</v>
+      </c>
+      <c r="X503" t="s">
+        <v>13970</v>
+      </c>
+      <c r="Y503" t="s">
+        <v>13971</v>
+      </c>
+      <c r="Z503" t="s">
+        <v>13972</v>
+      </c>
+      <c r="AA503" t="s">
+        <v>13973</v>
+      </c>
+      <c r="AB503" t="s">
+        <v>13974</v>
+      </c>
+      <c r="AC503" t="s">
+        <v>13975</v>
+      </c>
+      <c r="AD503" t="s">
+        <v>13976</v>
+      </c>
+      <c r="AE503" t="s">
+        <v>13977</v>
+      </c>
+      <c r="AF503" t="s">
+        <v>13978</v>
+      </c>
+      <c r="AG503" t="s">
+        <v>13975</v>
+      </c>
+      <c r="AH503" t="s">
+        <v>13979</v>
+      </c>
+      <c r="AI503" t="s">
+        <v>13980</v>
+      </c>
+      <c r="AJ503" t="s">
+        <v>13981</v>
+      </c>
+      <c r="AK503" t="s">
+        <v>13982</v>
+      </c>
+      <c r="AL503" t="s">
+        <v>13983</v>
+      </c>
+      <c r="AM503" t="s">
+        <v>13984</v>
+      </c>
+      <c r="AN503" t="s">
+        <v>13985</v>
+      </c>
+      <c r="AO503" t="s">
+        <v>13986</v>
+      </c>
+      <c r="AP503" t="s">
+        <v>13987</v>
+      </c>
+      <c r="AQ503" t="s">
+        <v>13988</v>
+      </c>
+      <c r="AR503" t="s">
+        <v>13989</v>
+      </c>
+      <c r="AS503" t="s">
+        <v>13990</v>
+      </c>
+      <c r="AT503" t="s">
+        <v>13991</v>
+      </c>
+      <c r="AU503" t="s">
+        <v>13985</v>
+      </c>
+      <c r="AV503" t="s">
+        <v>13986</v>
+      </c>
+      <c r="AW503" t="s">
+        <v>13992</v>
+      </c>
+      <c r="AX503" t="s">
+        <v>13993</v>
+      </c>
+      <c r="AY503" t="s">
+        <v>13993</v>
+      </c>
+      <c r="AZ503" t="s">
+        <v>13994</v>
+      </c>
+      <c r="BA503" t="s">
+        <v>13995</v>
+      </c>
+      <c r="BB503" t="s">
+        <v>13996</v>
+      </c>
+      <c r="BC503" t="s">
+        <v>13994</v>
+      </c>
+      <c r="BD503" t="s">
+        <v>13997</v>
+      </c>
+      <c r="BE503" t="s">
+        <v>13998</v>
+      </c>
+      <c r="BF503" t="s">
+        <v>13999</v>
+      </c>
+      <c r="BG503" t="s">
+        <v>14000</v>
+      </c>
+      <c r="BH503" t="s">
+        <v>14001</v>
+      </c>
+      <c r="BI503" t="s">
+        <v>14001</v>
+      </c>
+      <c r="BJ503" t="s">
+        <v>14002</v>
+      </c>
+      <c r="BK503" t="s">
+        <v>14003</v>
+      </c>
+      <c r="BL503" t="s">
+        <v>14004</v>
+      </c>
+      <c r="BM503" t="s">
+        <v>14005</v>
+      </c>
+      <c r="BN503" t="s">
         <v>13964</v>
       </c>
-      <c r="T503" t="s">
+      <c r="BO503" t="s">
         <v>13965</v>
       </c>
-      <c r="U503" t="s">
-        <v>13966</v>
-      </c>
-      <c r="V503" t="s">
+      <c r="BP503" t="s">
+        <v>14006</v>
+      </c>
+      <c r="BQ503" t="s">
+        <v>14007</v>
+      </c>
+      <c r="BR503" t="s">
         <v>13967</v>
       </c>
-      <c r="W503" t="s">
-        <v>13968</v>
-      </c>
-      <c r="X503" t="s">
-        <v>13969</v>
-      </c>
-      <c r="Y503" t="s">
-        <v>13970</v>
-      </c>
-      <c r="Z503" t="s">
-        <v>13971</v>
-      </c>
-      <c r="AA503" t="s">
-        <v>13972</v>
-      </c>
-      <c r="AB503" t="s">
-        <v>13973</v>
-      </c>
-      <c r="AC503" t="s">
-        <v>13974</v>
-      </c>
-      <c r="AD503" t="s">
-        <v>13975</v>
-      </c>
-      <c r="AE503" t="s">
-        <v>13976</v>
-      </c>
-      <c r="AF503" t="s">
-        <v>13977</v>
-      </c>
-      <c r="AG503" t="s">
-        <v>13974</v>
-      </c>
-      <c r="AH503" t="s">
-        <v>13978</v>
-      </c>
-      <c r="AI503" t="s">
-        <v>13979</v>
-      </c>
-      <c r="AJ503" t="s">
-        <v>13980</v>
-      </c>
-      <c r="AK503" t="s">
-        <v>13981</v>
-      </c>
-      <c r="AL503" t="s">
-        <v>13982</v>
-      </c>
-      <c r="AM503" t="s">
-        <v>13983</v>
-      </c>
-      <c r="AN503" t="s">
-        <v>13984</v>
-      </c>
-      <c r="AO503" t="s">
-        <v>13985</v>
-      </c>
-      <c r="AP503" t="s">
-        <v>13986</v>
-      </c>
-      <c r="AQ503" t="s">
-        <v>13987</v>
-      </c>
-      <c r="AR503" t="s">
-        <v>13988</v>
-      </c>
-      <c r="AS503" t="s">
-        <v>13989</v>
-      </c>
-      <c r="AT503" t="s">
-        <v>13990</v>
-      </c>
-      <c r="AU503" t="s">
-        <v>13984</v>
-      </c>
-      <c r="AV503" t="s">
-        <v>13985</v>
-      </c>
-      <c r="AW503" t="s">
-        <v>13991</v>
-      </c>
-      <c r="AX503" t="s">
-        <v>13992</v>
-      </c>
-      <c r="AY503" t="s">
-        <v>13992</v>
-      </c>
-      <c r="AZ503" t="s">
-        <v>13993</v>
-      </c>
-      <c r="BA503" t="s">
-        <v>13994</v>
-      </c>
-      <c r="BB503" t="s">
-        <v>13995</v>
-      </c>
-      <c r="BC503" t="s">
-        <v>13993</v>
-      </c>
-      <c r="BD503" t="s">
-        <v>13996</v>
-      </c>
-      <c r="BE503" t="s">
-        <v>13997</v>
-      </c>
-      <c r="BF503" t="s">
-        <v>13998</v>
-      </c>
-      <c r="BG503" t="s">
-        <v>13999</v>
-      </c>
-      <c r="BH503" t="s">
-        <v>14000</v>
-      </c>
-      <c r="BI503" t="s">
-        <v>14000</v>
-      </c>
-      <c r="BJ503" t="s">
-        <v>14001</v>
-      </c>
-      <c r="BK503" t="s">
-        <v>14002</v>
-      </c>
-      <c r="BL503" t="s">
-        <v>14003</v>
-      </c>
-      <c r="BM503" t="s">
-        <v>14004</v>
-      </c>
-      <c r="BN503" t="s">
-        <v>13963</v>
-      </c>
-      <c r="BO503" t="s">
-        <v>13964</v>
-      </c>
-      <c r="BP503" t="s">
-        <v>14005</v>
-      </c>
-      <c r="BQ503" t="s">
-        <v>14006</v>
-      </c>
-      <c r="BR503" t="s">
-        <v>13966</v>
-      </c>
       <c r="BS503" t="s">
-        <v>14007</v>
+        <v>14008</v>
       </c>
       <c r="BT503" t="s">
-        <v>14008</v>
+        <v>14009</v>
       </c>
       <c r="BU503" t="s">
-        <v>14009</v>
+        <v>14010</v>
       </c>
       <c r="BV503" t="s">
-        <v>14010</v>
+        <v>14011</v>
       </c>
       <c r="BW503" t="s">
-        <v>14011</v>
+        <v>14012</v>
       </c>
       <c r="BX503" t="s">
-        <v>14012</v>
+        <v>14013</v>
       </c>
     </row>
     <row r="504">
@@ -103105,292 +103108,292 @@
       <c r="G504" t="s"/>
       <c r="H504" t="s"/>
       <c r="I504" t="s">
-        <v>14013</v>
+        <v>14014</v>
       </c>
       <c r="J504" t="s">
-        <v>14014</v>
+        <v>14015</v>
       </c>
       <c r="K504" t="s">
-        <v>14015</v>
+        <v>14016</v>
       </c>
       <c r="L504" t="s">
-        <v>14016</v>
+        <v>14017</v>
       </c>
       <c r="M504" t="s">
+        <v>14018</v>
+      </c>
+      <c r="N504" t="s">
         <v>14017</v>
       </c>
-      <c r="N504" t="s">
-        <v>14016</v>
-      </c>
       <c r="O504" t="s">
-        <v>14018</v>
+        <v>14019</v>
       </c>
       <c r="P504" t="s">
-        <v>14019</v>
+        <v>14020</v>
       </c>
       <c r="Q504" t="s">
+        <v>14021</v>
+      </c>
+      <c r="R504" t="s">
+        <v>14022</v>
+      </c>
+      <c r="S504" t="s">
+        <v>14023</v>
+      </c>
+      <c r="T504" t="s">
+        <v>14024</v>
+      </c>
+      <c r="U504" t="s">
+        <v>14025</v>
+      </c>
+      <c r="V504" t="s">
+        <v>14026</v>
+      </c>
+      <c r="W504" t="s">
         <v>14020</v>
       </c>
-      <c r="R504" t="s">
+      <c r="X504" t="s">
         <v>14021</v>
       </c>
-      <c r="S504" t="s">
+      <c r="Y504" t="s">
         <v>14022</v>
       </c>
-      <c r="T504" t="s">
+      <c r="Z504" t="s">
         <v>14023</v>
       </c>
-      <c r="U504" t="s">
-        <v>14024</v>
-      </c>
-      <c r="V504" t="s">
-        <v>14025</v>
-      </c>
-      <c r="W504" t="s">
-        <v>14019</v>
-      </c>
-      <c r="X504" t="s">
-        <v>14020</v>
-      </c>
-      <c r="Y504" t="s">
-        <v>14021</v>
-      </c>
-      <c r="Z504" t="s">
-        <v>14022</v>
-      </c>
       <c r="AA504" t="s">
-        <v>14025</v>
+        <v>14026</v>
       </c>
       <c r="AB504" t="s">
-        <v>14026</v>
+        <v>14027</v>
       </c>
       <c r="AC504" t="s">
+        <v>14028</v>
+      </c>
+      <c r="AD504" t="s">
+        <v>14029</v>
+      </c>
+      <c r="AE504" t="s">
+        <v>14030</v>
+      </c>
+      <c r="AF504" t="s">
+        <v>14031</v>
+      </c>
+      <c r="AG504" t="s">
+        <v>14032</v>
+      </c>
+      <c r="AH504" t="s">
+        <v>14033</v>
+      </c>
+      <c r="AI504" t="s">
+        <v>14034</v>
+      </c>
+      <c r="AJ504" t="s">
+        <v>14035</v>
+      </c>
+      <c r="AK504" t="s">
+        <v>14036</v>
+      </c>
+      <c r="AL504" t="s">
+        <v>14037</v>
+      </c>
+      <c r="AM504" t="s">
+        <v>14038</v>
+      </c>
+      <c r="AN504" t="s">
+        <v>14039</v>
+      </c>
+      <c r="AO504" t="s">
+        <v>14040</v>
+      </c>
+      <c r="AP504" t="s">
+        <v>14041</v>
+      </c>
+      <c r="AQ504" t="s">
+        <v>14042</v>
+      </c>
+      <c r="AR504" t="s">
+        <v>14043</v>
+      </c>
+      <c r="AS504" t="s">
+        <v>14044</v>
+      </c>
+      <c r="AT504" t="s">
+        <v>14045</v>
+      </c>
+      <c r="AU504" t="s">
+        <v>14046</v>
+      </c>
+      <c r="AV504" t="s">
+        <v>14047</v>
+      </c>
+      <c r="AW504" t="s">
+        <v>14047</v>
+      </c>
+      <c r="AX504" t="s">
+        <v>14048</v>
+      </c>
+      <c r="AY504" t="s">
+        <v>14049</v>
+      </c>
+      <c r="AZ504" t="s">
+        <v>14050</v>
+      </c>
+      <c r="BA504" t="s">
+        <v>14051</v>
+      </c>
+      <c r="BB504" t="s">
+        <v>14052</v>
+      </c>
+      <c r="BC504" t="s">
+        <v>14052</v>
+      </c>
+      <c r="BD504" t="s">
+        <v>14053</v>
+      </c>
+      <c r="BE504" t="s">
+        <v>14054</v>
+      </c>
+      <c r="BF504" t="s">
+        <v>14055</v>
+      </c>
+      <c r="BG504" t="s">
+        <v>14056</v>
+      </c>
+      <c r="BH504" t="s">
+        <v>14057</v>
+      </c>
+      <c r="BI504" t="s">
+        <v>14058</v>
+      </c>
+      <c r="BJ504" t="s">
+        <v>14059</v>
+      </c>
+      <c r="BK504" t="s">
+        <v>14060</v>
+      </c>
+      <c r="BL504" t="s">
+        <v>14061</v>
+      </c>
+      <c r="BM504" t="s">
+        <v>14062</v>
+      </c>
+      <c r="BN504" t="s">
+        <v>14058</v>
+      </c>
+      <c r="BO504" t="s">
+        <v>14059</v>
+      </c>
+      <c r="BP504" t="s">
+        <v>14061</v>
+      </c>
+      <c r="BQ504" t="s">
+        <v>14063</v>
+      </c>
+      <c r="BR504" t="s">
+        <v>14064</v>
+      </c>
+      <c r="BS504" t="s">
+        <v>14064</v>
+      </c>
+      <c r="BT504" t="s">
+        <v>14065</v>
+      </c>
+      <c r="BU504" t="s">
+        <v>14065</v>
+      </c>
+      <c r="BV504" t="s">
+        <v>14066</v>
+      </c>
+      <c r="BW504" t="s">
+        <v>14067</v>
+      </c>
+      <c r="BX504" t="s">
+        <v>14068</v>
+      </c>
+      <c r="BY504" t="s">
+        <v>14069</v>
+      </c>
+      <c r="BZ504" t="s">
+        <v>14070</v>
+      </c>
+      <c r="CA504" t="s">
+        <v>14071</v>
+      </c>
+      <c r="CB504" t="s">
+        <v>14028</v>
+      </c>
+      <c r="CC504" t="s">
+        <v>14029</v>
+      </c>
+      <c r="CD504" t="s">
+        <v>14030</v>
+      </c>
+      <c r="CE504" t="s">
+        <v>14072</v>
+      </c>
+      <c r="CF504" t="s">
+        <v>14032</v>
+      </c>
+      <c r="CG504" t="s">
+        <v>14033</v>
+      </c>
+      <c r="CH504" t="s">
+        <v>14073</v>
+      </c>
+      <c r="CI504" t="s">
+        <v>14035</v>
+      </c>
+      <c r="CJ504" t="s">
+        <v>14036</v>
+      </c>
+      <c r="CK504" t="s">
+        <v>14074</v>
+      </c>
+      <c r="CL504" t="s">
+        <v>14075</v>
+      </c>
+      <c r="CM504" t="s">
+        <v>14076</v>
+      </c>
+      <c r="CN504" t="s">
+        <v>14077</v>
+      </c>
+      <c r="CO504" t="s">
+        <v>14078</v>
+      </c>
+      <c r="CP504" t="s">
+        <v>14079</v>
+      </c>
+      <c r="CQ504" t="s">
+        <v>14080</v>
+      </c>
+      <c r="CR504" t="s">
+        <v>14081</v>
+      </c>
+      <c r="CS504" t="s">
+        <v>14082</v>
+      </c>
+      <c r="CT504" t="s">
         <v>14027</v>
       </c>
-      <c r="AD504" t="s">
-        <v>14028</v>
-      </c>
-      <c r="AE504" t="s">
-        <v>14029</v>
-      </c>
-      <c r="AF504" t="s">
-        <v>14030</v>
-      </c>
-      <c r="AG504" t="s">
-        <v>14031</v>
-      </c>
-      <c r="AH504" t="s">
-        <v>14032</v>
-      </c>
-      <c r="AI504" t="s">
-        <v>14033</v>
-      </c>
-      <c r="AJ504" t="s">
-        <v>14034</v>
-      </c>
-      <c r="AK504" t="s">
-        <v>14035</v>
-      </c>
-      <c r="AL504" t="s">
-        <v>14036</v>
-      </c>
-      <c r="AM504" t="s">
-        <v>14037</v>
-      </c>
-      <c r="AN504" t="s">
-        <v>14038</v>
-      </c>
-      <c r="AO504" t="s">
-        <v>14039</v>
-      </c>
-      <c r="AP504" t="s">
-        <v>14040</v>
-      </c>
-      <c r="AQ504" t="s">
-        <v>14041</v>
-      </c>
-      <c r="AR504" t="s">
-        <v>14042</v>
-      </c>
-      <c r="AS504" t="s">
-        <v>14043</v>
-      </c>
-      <c r="AT504" t="s">
-        <v>14044</v>
-      </c>
-      <c r="AU504" t="s">
-        <v>14045</v>
-      </c>
-      <c r="AV504" t="s">
-        <v>14046</v>
-      </c>
-      <c r="AW504" t="s">
-        <v>14046</v>
-      </c>
-      <c r="AX504" t="s">
-        <v>14047</v>
-      </c>
-      <c r="AY504" t="s">
-        <v>14048</v>
-      </c>
-      <c r="AZ504" t="s">
-        <v>14049</v>
-      </c>
-      <c r="BA504" t="s">
-        <v>14050</v>
-      </c>
-      <c r="BB504" t="s">
-        <v>14051</v>
-      </c>
-      <c r="BC504" t="s">
-        <v>14051</v>
-      </c>
-      <c r="BD504" t="s">
-        <v>14052</v>
-      </c>
-      <c r="BE504" t="s">
-        <v>14053</v>
-      </c>
-      <c r="BF504" t="s">
-        <v>14054</v>
-      </c>
-      <c r="BG504" t="s">
-        <v>14055</v>
-      </c>
-      <c r="BH504" t="s">
-        <v>14056</v>
-      </c>
-      <c r="BI504" t="s">
-        <v>14057</v>
-      </c>
-      <c r="BJ504" t="s">
-        <v>14058</v>
-      </c>
-      <c r="BK504" t="s">
-        <v>14059</v>
-      </c>
-      <c r="BL504" t="s">
-        <v>14060</v>
-      </c>
-      <c r="BM504" t="s">
-        <v>14061</v>
-      </c>
-      <c r="BN504" t="s">
-        <v>14057</v>
-      </c>
-      <c r="BO504" t="s">
-        <v>14058</v>
-      </c>
-      <c r="BP504" t="s">
-        <v>14060</v>
-      </c>
-      <c r="BQ504" t="s">
-        <v>14062</v>
-      </c>
-      <c r="BR504" t="s">
-        <v>14063</v>
-      </c>
-      <c r="BS504" t="s">
-        <v>14063</v>
-      </c>
-      <c r="BT504" t="s">
-        <v>14064</v>
-      </c>
-      <c r="BU504" t="s">
-        <v>14064</v>
-      </c>
-      <c r="BV504" t="s">
-        <v>14065</v>
-      </c>
-      <c r="BW504" t="s">
-        <v>14066</v>
-      </c>
-      <c r="BX504" t="s">
-        <v>14067</v>
-      </c>
-      <c r="BY504" t="s">
-        <v>14068</v>
-      </c>
-      <c r="BZ504" t="s">
-        <v>14069</v>
-      </c>
-      <c r="CA504" t="s">
-        <v>14070</v>
-      </c>
-      <c r="CB504" t="s">
-        <v>14027</v>
-      </c>
-      <c r="CC504" t="s">
-        <v>14028</v>
-      </c>
-      <c r="CD504" t="s">
-        <v>14029</v>
-      </c>
-      <c r="CE504" t="s">
-        <v>14071</v>
-      </c>
-      <c r="CF504" t="s">
-        <v>14031</v>
-      </c>
-      <c r="CG504" t="s">
-        <v>14032</v>
-      </c>
-      <c r="CH504" t="s">
-        <v>14072</v>
-      </c>
-      <c r="CI504" t="s">
-        <v>14034</v>
-      </c>
-      <c r="CJ504" t="s">
-        <v>14035</v>
-      </c>
-      <c r="CK504" t="s">
-        <v>14073</v>
-      </c>
-      <c r="CL504" t="s">
-        <v>14074</v>
-      </c>
-      <c r="CM504" t="s">
-        <v>14075</v>
-      </c>
-      <c r="CN504" t="s">
-        <v>14076</v>
-      </c>
-      <c r="CO504" t="s">
-        <v>14077</v>
-      </c>
-      <c r="CP504" t="s">
-        <v>14078</v>
-      </c>
-      <c r="CQ504" t="s">
-        <v>14079</v>
-      </c>
-      <c r="CR504" t="s">
+      <c r="CU504" t="s">
+        <v>14083</v>
+      </c>
+      <c r="CV504" t="s">
         <v>14080</v>
       </c>
-      <c r="CS504" t="s">
+      <c r="CW504" t="s">
         <v>14081</v>
       </c>
-      <c r="CT504" t="s">
-        <v>14026</v>
-      </c>
-      <c r="CU504" t="s">
+      <c r="CX504" t="s">
         <v>14082</v>
       </c>
-      <c r="CV504" t="s">
-        <v>14079</v>
-      </c>
-      <c r="CW504" t="s">
-        <v>14080</v>
-      </c>
-      <c r="CX504" t="s">
-        <v>14081</v>
-      </c>
       <c r="CY504" t="s">
-        <v>14083</v>
+        <v>14084</v>
       </c>
       <c r="CZ504" t="s">
-        <v>14084</v>
+        <v>14085</v>
       </c>
     </row>
     <row r="505">
@@ -103401,7 +103404,7 @@
         <v>1675</v>
       </c>
       <c r="C505" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="D505" t="s">
         <v>1573</v>
@@ -103410,181 +103413,181 @@
       <c r="G505" t="s"/>
       <c r="H505" t="s"/>
       <c r="I505" t="s">
-        <v>14085</v>
+        <v>14086</v>
       </c>
       <c r="J505" t="s">
-        <v>14086</v>
+        <v>14087</v>
       </c>
       <c r="K505" t="s">
-        <v>14087</v>
+        <v>14088</v>
       </c>
       <c r="L505" t="s">
-        <v>14088</v>
+        <v>14089</v>
       </c>
       <c r="M505" t="s">
-        <v>14089</v>
+        <v>14090</v>
       </c>
       <c r="N505" t="s">
-        <v>14090</v>
+        <v>14091</v>
       </c>
       <c r="O505" t="s">
-        <v>14091</v>
+        <v>14092</v>
       </c>
       <c r="P505" t="s">
-        <v>14092</v>
+        <v>14093</v>
       </c>
       <c r="Q505" t="s">
-        <v>14093</v>
+        <v>14094</v>
       </c>
       <c r="R505" t="s">
-        <v>14094</v>
+        <v>14095</v>
       </c>
       <c r="S505" t="s">
+        <v>14096</v>
+      </c>
+      <c r="T505" t="s">
+        <v>14097</v>
+      </c>
+      <c r="U505" t="s">
+        <v>14098</v>
+      </c>
+      <c r="V505" t="s">
+        <v>14099</v>
+      </c>
+      <c r="W505" t="s">
+        <v>14100</v>
+      </c>
+      <c r="X505" t="s">
+        <v>14101</v>
+      </c>
+      <c r="Y505" t="s">
+        <v>14102</v>
+      </c>
+      <c r="Z505" t="s">
+        <v>14103</v>
+      </c>
+      <c r="AA505" t="s">
+        <v>14104</v>
+      </c>
+      <c r="AB505" t="s">
+        <v>14105</v>
+      </c>
+      <c r="AC505" t="s">
+        <v>14105</v>
+      </c>
+      <c r="AD505" t="s">
+        <v>14106</v>
+      </c>
+      <c r="AE505" t="s">
+        <v>14107</v>
+      </c>
+      <c r="AF505" t="s">
+        <v>14108</v>
+      </c>
+      <c r="AG505" t="s">
+        <v>14106</v>
+      </c>
+      <c r="AH505" t="s">
+        <v>14109</v>
+      </c>
+      <c r="AI505" t="s">
+        <v>14110</v>
+      </c>
+      <c r="AJ505" t="s">
+        <v>14110</v>
+      </c>
+      <c r="AK505" t="s">
+        <v>14111</v>
+      </c>
+      <c r="AL505" t="s">
+        <v>14112</v>
+      </c>
+      <c r="AM505" t="s">
+        <v>14113</v>
+      </c>
+      <c r="AN505" t="s">
+        <v>14113</v>
+      </c>
+      <c r="AO505" t="s">
+        <v>14114</v>
+      </c>
+      <c r="AP505" t="s">
+        <v>14115</v>
+      </c>
+      <c r="AQ505" t="s">
+        <v>14116</v>
+      </c>
+      <c r="AR505" t="s">
+        <v>14117</v>
+      </c>
+      <c r="AS505" t="s">
+        <v>14118</v>
+      </c>
+      <c r="AT505" t="s">
+        <v>14119</v>
+      </c>
+      <c r="AU505" t="s">
+        <v>14120</v>
+      </c>
+      <c r="AV505" t="s">
+        <v>14121</v>
+      </c>
+      <c r="AW505" t="s">
+        <v>14096</v>
+      </c>
+      <c r="AX505" t="s">
         <v>14095</v>
       </c>
-      <c r="T505" t="s">
-        <v>14096</v>
-      </c>
-      <c r="U505" t="s">
-        <v>14097</v>
-      </c>
-      <c r="V505" t="s">
-        <v>14098</v>
-      </c>
-      <c r="W505" t="s">
-        <v>14099</v>
-      </c>
-      <c r="X505" t="s">
-        <v>14100</v>
-      </c>
-      <c r="Y505" t="s">
-        <v>14101</v>
-      </c>
-      <c r="Z505" t="s">
-        <v>14102</v>
-      </c>
-      <c r="AA505" t="s">
-        <v>14103</v>
-      </c>
-      <c r="AB505" t="s">
-        <v>14104</v>
-      </c>
-      <c r="AC505" t="s">
-        <v>14104</v>
-      </c>
-      <c r="AD505" t="s">
-        <v>14105</v>
-      </c>
-      <c r="AE505" t="s">
-        <v>14106</v>
-      </c>
-      <c r="AF505" t="s">
-        <v>14107</v>
-      </c>
-      <c r="AG505" t="s">
-        <v>14105</v>
-      </c>
-      <c r="AH505" t="s">
-        <v>14108</v>
-      </c>
-      <c r="AI505" t="s">
-        <v>14109</v>
-      </c>
-      <c r="AJ505" t="s">
-        <v>14109</v>
-      </c>
-      <c r="AK505" t="s">
-        <v>14110</v>
-      </c>
-      <c r="AL505" t="s">
-        <v>14111</v>
-      </c>
-      <c r="AM505" t="s">
-        <v>14112</v>
-      </c>
-      <c r="AN505" t="s">
-        <v>14112</v>
-      </c>
-      <c r="AO505" t="s">
-        <v>14113</v>
-      </c>
-      <c r="AP505" t="s">
-        <v>14114</v>
-      </c>
-      <c r="AQ505" t="s">
-        <v>14115</v>
-      </c>
-      <c r="AR505" t="s">
-        <v>14116</v>
-      </c>
-      <c r="AS505" t="s">
-        <v>14117</v>
-      </c>
-      <c r="AT505" t="s">
-        <v>14118</v>
-      </c>
-      <c r="AU505" t="s">
-        <v>14119</v>
-      </c>
-      <c r="AV505" t="s">
-        <v>14120</v>
-      </c>
-      <c r="AW505" t="s">
-        <v>14095</v>
-      </c>
-      <c r="AX505" t="s">
-        <v>14094</v>
-      </c>
       <c r="AY505" t="s">
-        <v>14121</v>
+        <v>14122</v>
       </c>
       <c r="AZ505" t="s">
-        <v>14122</v>
+        <v>14123</v>
       </c>
       <c r="BA505" t="s">
-        <v>14123</v>
+        <v>14124</v>
       </c>
       <c r="BB505" t="s">
+        <v>14125</v>
+      </c>
+      <c r="BC505" t="s">
+        <v>14126</v>
+      </c>
+      <c r="BD505" t="s">
+        <v>14127</v>
+      </c>
+      <c r="BE505" t="s">
         <v>14124</v>
       </c>
-      <c r="BC505" t="s">
-        <v>14125</v>
-      </c>
-      <c r="BD505" t="s">
-        <v>14126</v>
-      </c>
-      <c r="BE505" t="s">
-        <v>14123</v>
-      </c>
       <c r="BF505" t="s">
-        <v>14127</v>
+        <v>14128</v>
       </c>
       <c r="BG505" t="s">
-        <v>14128</v>
+        <v>14129</v>
       </c>
       <c r="BH505" t="s">
-        <v>14129</v>
+        <v>14130</v>
       </c>
       <c r="BI505" t="s">
-        <v>14130</v>
+        <v>14131</v>
       </c>
       <c r="BJ505" t="s">
-        <v>14131</v>
+        <v>14132</v>
       </c>
       <c r="BK505" t="s">
-        <v>14132</v>
+        <v>14133</v>
       </c>
       <c r="BL505" t="s">
-        <v>14133</v>
+        <v>14134</v>
       </c>
       <c r="BM505" t="s">
-        <v>14134</v>
+        <v>14135</v>
       </c>
       <c r="BN505" t="s">
-        <v>14135</v>
+        <v>14136</v>
       </c>
       <c r="BO505" t="s">
-        <v>14136</v>
+        <v>14137</v>
       </c>
     </row>
     <row r="506">
@@ -103607,115 +103610,115 @@
       <c r="G506" t="s"/>
       <c r="H506" t="s"/>
       <c r="I506" t="s">
-        <v>14137</v>
+        <v>14138</v>
       </c>
       <c r="J506" t="s">
-        <v>14138</v>
+        <v>14139</v>
       </c>
       <c r="K506" t="s">
-        <v>14138</v>
+        <v>14139</v>
       </c>
       <c r="L506" t="s">
-        <v>14139</v>
+        <v>14140</v>
       </c>
       <c r="M506" t="s">
-        <v>14140</v>
+        <v>14141</v>
       </c>
       <c r="N506" t="s">
-        <v>14141</v>
+        <v>14142</v>
       </c>
       <c r="O506" t="s">
-        <v>14142</v>
+        <v>14143</v>
       </c>
       <c r="P506" t="s">
-        <v>14143</v>
+        <v>14144</v>
       </c>
       <c r="Q506" t="s">
-        <v>14144</v>
+        <v>14145</v>
       </c>
       <c r="R506" t="s">
-        <v>14144</v>
+        <v>14145</v>
       </c>
       <c r="S506" t="s">
-        <v>14145</v>
+        <v>14146</v>
       </c>
       <c r="T506" t="s">
+        <v>14147</v>
+      </c>
+      <c r="U506" t="s">
+        <v>14148</v>
+      </c>
+      <c r="V506" t="s">
+        <v>14149</v>
+      </c>
+      <c r="W506" t="s">
+        <v>14150</v>
+      </c>
+      <c r="X506" t="s">
+        <v>14151</v>
+      </c>
+      <c r="Y506" t="s">
+        <v>14151</v>
+      </c>
+      <c r="Z506" t="s">
+        <v>14152</v>
+      </c>
+      <c r="AA506" t="s">
+        <v>14152</v>
+      </c>
+      <c r="AB506" t="s">
+        <v>14153</v>
+      </c>
+      <c r="AC506" t="s">
+        <v>14153</v>
+      </c>
+      <c r="AD506" t="s">
+        <v>14154</v>
+      </c>
+      <c r="AE506" t="s">
+        <v>14155</v>
+      </c>
+      <c r="AF506" t="s">
+        <v>14155</v>
+      </c>
+      <c r="AG506" t="s">
+        <v>14156</v>
+      </c>
+      <c r="AH506" t="s">
+        <v>14157</v>
+      </c>
+      <c r="AI506" t="s">
+        <v>14158</v>
+      </c>
+      <c r="AJ506" t="s">
+        <v>14159</v>
+      </c>
+      <c r="AK506" t="s">
+        <v>14160</v>
+      </c>
+      <c r="AL506" t="s">
+        <v>14161</v>
+      </c>
+      <c r="AM506" t="s">
+        <v>14147</v>
+      </c>
+      <c r="AN506" t="s">
         <v>14146</v>
       </c>
-      <c r="U506" t="s">
-        <v>14147</v>
-      </c>
-      <c r="V506" t="s">
-        <v>14148</v>
-      </c>
-      <c r="W506" t="s">
-        <v>14149</v>
-      </c>
-      <c r="X506" t="s">
-        <v>14150</v>
-      </c>
-      <c r="Y506" t="s">
-        <v>14150</v>
-      </c>
-      <c r="Z506" t="s">
-        <v>14151</v>
-      </c>
-      <c r="AA506" t="s">
-        <v>14151</v>
-      </c>
-      <c r="AB506" t="s">
-        <v>14152</v>
-      </c>
-      <c r="AC506" t="s">
-        <v>14152</v>
-      </c>
-      <c r="AD506" t="s">
-        <v>14153</v>
-      </c>
-      <c r="AE506" t="s">
-        <v>14154</v>
-      </c>
-      <c r="AF506" t="s">
-        <v>14154</v>
-      </c>
-      <c r="AG506" t="s">
-        <v>14155</v>
-      </c>
-      <c r="AH506" t="s">
-        <v>14156</v>
-      </c>
-      <c r="AI506" t="s">
-        <v>14157</v>
-      </c>
-      <c r="AJ506" t="s">
-        <v>14158</v>
-      </c>
-      <c r="AK506" t="s">
-        <v>14159</v>
-      </c>
-      <c r="AL506" t="s">
+      <c r="AO506" t="s">
         <v>14160</v>
       </c>
-      <c r="AM506" t="s">
-        <v>14146</v>
-      </c>
-      <c r="AN506" t="s">
-        <v>14145</v>
-      </c>
-      <c r="AO506" t="s">
-        <v>14159</v>
-      </c>
       <c r="AP506" t="s">
-        <v>14161</v>
+        <v>14162</v>
       </c>
       <c r="AQ506" t="s">
-        <v>14162</v>
+        <v>14163</v>
       </c>
       <c r="AR506" t="s">
-        <v>14163</v>
+        <v>14164</v>
       </c>
       <c r="AS506" t="s">
-        <v>14164</v>
+        <v>14165</v>
       </c>
     </row>
     <row r="507">
@@ -103738,163 +103741,163 @@
       <c r="G507" t="s"/>
       <c r="H507" t="s"/>
       <c r="I507" t="s">
-        <v>14165</v>
+        <v>14166</v>
       </c>
       <c r="J507" t="s">
-        <v>14166</v>
+        <v>14167</v>
       </c>
       <c r="K507" t="s">
-        <v>14167</v>
+        <v>14168</v>
       </c>
       <c r="L507" t="s">
-        <v>14168</v>
+        <v>14169</v>
       </c>
       <c r="M507" t="s">
-        <v>14169</v>
+        <v>14170</v>
       </c>
       <c r="N507" t="s">
+        <v>14171</v>
+      </c>
+      <c r="O507" t="s">
+        <v>14172</v>
+      </c>
+      <c r="P507" t="s">
+        <v>14173</v>
+      </c>
+      <c r="Q507" t="s">
+        <v>14174</v>
+      </c>
+      <c r="R507" t="s">
+        <v>14175</v>
+      </c>
+      <c r="S507" t="s">
+        <v>14176</v>
+      </c>
+      <c r="T507" t="s">
+        <v>14177</v>
+      </c>
+      <c r="U507" t="s">
+        <v>14178</v>
+      </c>
+      <c r="V507" t="s">
+        <v>14179</v>
+      </c>
+      <c r="W507" t="s">
+        <v>14180</v>
+      </c>
+      <c r="X507" t="s">
+        <v>14181</v>
+      </c>
+      <c r="Y507" t="s">
+        <v>14182</v>
+      </c>
+      <c r="Z507" t="s">
+        <v>14183</v>
+      </c>
+      <c r="AA507" t="s">
+        <v>14184</v>
+      </c>
+      <c r="AB507" t="s">
+        <v>14185</v>
+      </c>
+      <c r="AC507" t="s">
+        <v>14185</v>
+      </c>
+      <c r="AD507" t="s">
+        <v>14186</v>
+      </c>
+      <c r="AE507" t="s">
+        <v>14186</v>
+      </c>
+      <c r="AF507" t="s">
+        <v>14187</v>
+      </c>
+      <c r="AG507" t="s">
+        <v>14187</v>
+      </c>
+      <c r="AH507" t="s">
+        <v>14188</v>
+      </c>
+      <c r="AI507" t="s">
+        <v>14189</v>
+      </c>
+      <c r="AJ507" t="s">
+        <v>14190</v>
+      </c>
+      <c r="AK507" t="s">
+        <v>14189</v>
+      </c>
+      <c r="AL507" t="s">
+        <v>14190</v>
+      </c>
+      <c r="AM507" t="s">
+        <v>14191</v>
+      </c>
+      <c r="AN507" t="s">
+        <v>14192</v>
+      </c>
+      <c r="AO507" t="s">
+        <v>14193</v>
+      </c>
+      <c r="AP507" t="s">
         <v>14170</v>
       </c>
-      <c r="O507" t="s">
+      <c r="AQ507" t="s">
         <v>14171</v>
       </c>
-      <c r="P507" t="s">
+      <c r="AR507" t="s">
         <v>14172</v>
       </c>
-      <c r="Q507" t="s">
+      <c r="AS507" t="s">
+        <v>14178</v>
+      </c>
+      <c r="AT507" t="s">
+        <v>14194</v>
+      </c>
+      <c r="AU507" t="s">
         <v>14173</v>
       </c>
-      <c r="R507" t="s">
+      <c r="AV507" t="s">
         <v>14174</v>
       </c>
-      <c r="S507" t="s">
+      <c r="AW507" t="s">
         <v>14175</v>
       </c>
-      <c r="T507" t="s">
+      <c r="AX507" t="s">
         <v>14176</v>
       </c>
-      <c r="U507" t="s">
-        <v>14177</v>
-      </c>
-      <c r="V507" t="s">
-        <v>14178</v>
-      </c>
-      <c r="W507" t="s">
-        <v>14179</v>
-      </c>
-      <c r="X507" t="s">
-        <v>14180</v>
-      </c>
-      <c r="Y507" t="s">
-        <v>14181</v>
-      </c>
-      <c r="Z507" t="s">
-        <v>14182</v>
-      </c>
-      <c r="AA507" t="s">
-        <v>14183</v>
-      </c>
-      <c r="AB507" t="s">
-        <v>14184</v>
-      </c>
-      <c r="AC507" t="s">
-        <v>14184</v>
-      </c>
-      <c r="AD507" t="s">
-        <v>14185</v>
-      </c>
-      <c r="AE507" t="s">
-        <v>14185</v>
-      </c>
-      <c r="AF507" t="s">
-        <v>14186</v>
-      </c>
-      <c r="AG507" t="s">
-        <v>14186</v>
-      </c>
-      <c r="AH507" t="s">
-        <v>14187</v>
-      </c>
-      <c r="AI507" t="s">
+      <c r="AY507" t="s">
+        <v>14195</v>
+      </c>
+      <c r="AZ507" t="s">
+        <v>14196</v>
+      </c>
+      <c r="BA507" t="s">
+        <v>14197</v>
+      </c>
+      <c r="BB507" t="s">
         <v>14188</v>
       </c>
-      <c r="AJ507" t="s">
-        <v>14189</v>
-      </c>
-      <c r="AK507" t="s">
-        <v>14188</v>
-      </c>
-      <c r="AL507" t="s">
-        <v>14189</v>
-      </c>
-      <c r="AM507" t="s">
-        <v>14190</v>
-      </c>
-      <c r="AN507" t="s">
-        <v>14191</v>
-      </c>
-      <c r="AO507" t="s">
-        <v>14192</v>
-      </c>
-      <c r="AP507" t="s">
-        <v>14169</v>
-      </c>
-      <c r="AQ507" t="s">
-        <v>14170</v>
-      </c>
-      <c r="AR507" t="s">
-        <v>14171</v>
-      </c>
-      <c r="AS507" t="s">
-        <v>14177</v>
-      </c>
-      <c r="AT507" t="s">
-        <v>14193</v>
-      </c>
-      <c r="AU507" t="s">
-        <v>14172</v>
-      </c>
-      <c r="AV507" t="s">
-        <v>14173</v>
-      </c>
-      <c r="AW507" t="s">
-        <v>14174</v>
-      </c>
-      <c r="AX507" t="s">
-        <v>14175</v>
-      </c>
-      <c r="AY507" t="s">
-        <v>14194</v>
-      </c>
-      <c r="AZ507" t="s">
+      <c r="BC507" t="s">
         <v>14195</v>
       </c>
-      <c r="BA507" t="s">
-        <v>14196</v>
-      </c>
-      <c r="BB507" t="s">
-        <v>14187</v>
-      </c>
-      <c r="BC507" t="s">
-        <v>14194</v>
-      </c>
       <c r="BD507" t="s">
-        <v>14197</v>
+        <v>14198</v>
       </c>
       <c r="BE507" t="s">
-        <v>14198</v>
+        <v>14199</v>
       </c>
       <c r="BF507" t="s">
-        <v>14199</v>
+        <v>14200</v>
       </c>
       <c r="BG507" t="s">
-        <v>14200</v>
+        <v>14201</v>
       </c>
       <c r="BH507" t="s">
-        <v>14084</v>
+        <v>14085</v>
       </c>
       <c r="BI507" t="s">
-        <v>14201</v>
+        <v>14202</v>
       </c>
     </row>
     <row r="508">
@@ -103914,265 +103917,265 @@
       <c r="G508" t="s"/>
       <c r="H508" t="s"/>
       <c r="I508" t="s">
-        <v>14202</v>
+        <v>14203</v>
       </c>
       <c r="J508" t="s">
-        <v>14203</v>
+        <v>14204</v>
       </c>
       <c r="K508" t="s">
-        <v>14203</v>
+        <v>14204</v>
       </c>
       <c r="L508" t="s">
-        <v>14204</v>
+        <v>14205</v>
       </c>
       <c r="M508" t="s">
-        <v>14205</v>
+        <v>14206</v>
       </c>
       <c r="N508" t="s">
-        <v>14206</v>
+        <v>14207</v>
       </c>
       <c r="O508" t="s">
-        <v>14207</v>
+        <v>14208</v>
       </c>
       <c r="P508" t="s">
-        <v>14208</v>
+        <v>14209</v>
       </c>
       <c r="Q508" t="s">
-        <v>14209</v>
+        <v>14210</v>
       </c>
       <c r="R508" t="s">
-        <v>14210</v>
+        <v>14211</v>
       </c>
       <c r="S508" t="s">
+        <v>14212</v>
+      </c>
+      <c r="T508" t="s">
+        <v>14213</v>
+      </c>
+      <c r="U508" t="s">
+        <v>14214</v>
+      </c>
+      <c r="V508" t="s">
+        <v>14215</v>
+      </c>
+      <c r="W508" t="s">
+        <v>14216</v>
+      </c>
+      <c r="X508" t="s">
+        <v>14217</v>
+      </c>
+      <c r="Y508" t="s">
         <v>14211</v>
       </c>
-      <c r="T508" t="s">
+      <c r="Z508" t="s">
         <v>14212</v>
       </c>
-      <c r="U508" t="s">
+      <c r="AA508" t="s">
         <v>14213</v>
       </c>
-      <c r="V508" t="s">
+      <c r="AB508" t="s">
+        <v>14216</v>
+      </c>
+      <c r="AC508" t="s">
         <v>14214</v>
       </c>
-      <c r="W508" t="s">
+      <c r="AD508" t="s">
         <v>14215</v>
       </c>
-      <c r="X508" t="s">
-        <v>14216</v>
-      </c>
-      <c r="Y508" t="s">
-        <v>14210</v>
-      </c>
-      <c r="Z508" t="s">
-        <v>14211</v>
-      </c>
-      <c r="AA508" t="s">
-        <v>14212</v>
-      </c>
-      <c r="AB508" t="s">
-        <v>14215</v>
-      </c>
-      <c r="AC508" t="s">
-        <v>14213</v>
-      </c>
-      <c r="AD508" t="s">
-        <v>14214</v>
-      </c>
       <c r="AE508" t="s">
-        <v>14216</v>
+        <v>14217</v>
       </c>
       <c r="AF508" t="s">
-        <v>14217</v>
+        <v>14218</v>
       </c>
       <c r="AG508" t="s">
-        <v>14218</v>
+        <v>14219</v>
       </c>
       <c r="AH508" t="s">
-        <v>14219</v>
+        <v>14220</v>
       </c>
       <c r="AI508" t="s">
-        <v>14220</v>
+        <v>14221</v>
       </c>
       <c r="AJ508" t="s">
-        <v>14221</v>
+        <v>14222</v>
       </c>
       <c r="AK508" t="s">
+        <v>14223</v>
+      </c>
+      <c r="AL508" t="s">
         <v>14222</v>
       </c>
-      <c r="AL508" t="s">
-        <v>14221</v>
-      </c>
       <c r="AM508" t="s">
+        <v>14224</v>
+      </c>
+      <c r="AN508" t="s">
+        <v>14225</v>
+      </c>
+      <c r="AO508" t="s">
+        <v>14226</v>
+      </c>
+      <c r="AP508" t="s">
+        <v>14227</v>
+      </c>
+      <c r="AQ508" t="s">
+        <v>14228</v>
+      </c>
+      <c r="AR508" t="s">
+        <v>14229</v>
+      </c>
+      <c r="AS508" t="s">
+        <v>14230</v>
+      </c>
+      <c r="AT508" t="s">
+        <v>14231</v>
+      </c>
+      <c r="AU508" t="s">
+        <v>14232</v>
+      </c>
+      <c r="AV508" t="s">
+        <v>14233</v>
+      </c>
+      <c r="AW508" t="s">
+        <v>14234</v>
+      </c>
+      <c r="AX508" t="s">
+        <v>14235</v>
+      </c>
+      <c r="AY508" t="s">
+        <v>14236</v>
+      </c>
+      <c r="AZ508" t="s">
+        <v>14237</v>
+      </c>
+      <c r="BA508" t="s">
+        <v>14238</v>
+      </c>
+      <c r="BB508" t="s">
+        <v>14239</v>
+      </c>
+      <c r="BC508" t="s">
+        <v>14239</v>
+      </c>
+      <c r="BD508" t="s">
+        <v>14240</v>
+      </c>
+      <c r="BE508" t="s">
+        <v>14241</v>
+      </c>
+      <c r="BF508" t="s">
+        <v>14242</v>
+      </c>
+      <c r="BG508" t="s">
+        <v>14242</v>
+      </c>
+      <c r="BH508" t="s">
+        <v>14243</v>
+      </c>
+      <c r="BI508" t="s">
+        <v>14244</v>
+      </c>
+      <c r="BJ508" t="s">
+        <v>14245</v>
+      </c>
+      <c r="BK508" t="s">
+        <v>14246</v>
+      </c>
+      <c r="BL508" t="s">
+        <v>14247</v>
+      </c>
+      <c r="BM508" t="s">
+        <v>14248</v>
+      </c>
+      <c r="BN508" t="s">
+        <v>14249</v>
+      </c>
+      <c r="BO508" t="s">
+        <v>14250</v>
+      </c>
+      <c r="BP508" t="s">
+        <v>14251</v>
+      </c>
+      <c r="BQ508" t="s">
+        <v>14251</v>
+      </c>
+      <c r="BR508" t="s">
+        <v>14252</v>
+      </c>
+      <c r="BS508" t="s">
         <v>14223</v>
       </c>
-      <c r="AN508" t="s">
+      <c r="BT508" t="s">
         <v>14224</v>
       </c>
-      <c r="AO508" t="s">
+      <c r="BU508" t="s">
         <v>14225</v>
       </c>
-      <c r="AP508" t="s">
+      <c r="BV508" t="s">
         <v>14226</v>
       </c>
-      <c r="AQ508" t="s">
+      <c r="BW508" t="s">
         <v>14227</v>
       </c>
-      <c r="AR508" t="s">
+      <c r="BX508" t="s">
         <v>14228</v>
       </c>
-      <c r="AS508" t="s">
+      <c r="BY508" t="s">
         <v>14229</v>
       </c>
-      <c r="AT508" t="s">
-        <v>14230</v>
-      </c>
-      <c r="AU508" t="s">
-        <v>14231</v>
-      </c>
-      <c r="AV508" t="s">
-        <v>14232</v>
-      </c>
-      <c r="AW508" t="s">
-        <v>14233</v>
-      </c>
-      <c r="AX508" t="s">
-        <v>14234</v>
-      </c>
-      <c r="AY508" t="s">
-        <v>14235</v>
-      </c>
-      <c r="AZ508" t="s">
-        <v>14236</v>
-      </c>
-      <c r="BA508" t="s">
-        <v>14237</v>
-      </c>
-      <c r="BB508" t="s">
-        <v>14238</v>
-      </c>
-      <c r="BC508" t="s">
-        <v>14238</v>
-      </c>
-      <c r="BD508" t="s">
-        <v>14239</v>
-      </c>
-      <c r="BE508" t="s">
-        <v>14240</v>
-      </c>
-      <c r="BF508" t="s">
-        <v>14241</v>
-      </c>
-      <c r="BG508" t="s">
-        <v>14241</v>
-      </c>
-      <c r="BH508" t="s">
-        <v>14242</v>
-      </c>
-      <c r="BI508" t="s">
-        <v>14243</v>
-      </c>
-      <c r="BJ508" t="s">
-        <v>14244</v>
-      </c>
-      <c r="BK508" t="s">
-        <v>14245</v>
-      </c>
-      <c r="BL508" t="s">
-        <v>14246</v>
-      </c>
-      <c r="BM508" t="s">
-        <v>14247</v>
-      </c>
-      <c r="BN508" t="s">
-        <v>14248</v>
-      </c>
-      <c r="BO508" t="s">
-        <v>14249</v>
-      </c>
-      <c r="BP508" t="s">
-        <v>14250</v>
-      </c>
-      <c r="BQ508" t="s">
-        <v>14250</v>
-      </c>
-      <c r="BR508" t="s">
-        <v>14251</v>
-      </c>
-      <c r="BS508" t="s">
-        <v>14222</v>
-      </c>
-      <c r="BT508" t="s">
-        <v>14223</v>
-      </c>
-      <c r="BU508" t="s">
-        <v>14224</v>
-      </c>
-      <c r="BV508" t="s">
-        <v>14225</v>
-      </c>
-      <c r="BW508" t="s">
-        <v>14226</v>
-      </c>
-      <c r="BX508" t="s">
-        <v>14227</v>
-      </c>
-      <c r="BY508" t="s">
-        <v>14228</v>
-      </c>
       <c r="BZ508" t="s">
-        <v>14252</v>
+        <v>14253</v>
       </c>
       <c r="CA508" t="s">
-        <v>14253</v>
+        <v>14254</v>
       </c>
       <c r="CB508" t="s">
-        <v>14254</v>
+        <v>14255</v>
       </c>
       <c r="CC508" t="s">
-        <v>14255</v>
+        <v>14256</v>
       </c>
       <c r="CD508" t="s">
+        <v>14257</v>
+      </c>
+      <c r="CE508" t="s">
+        <v>14258</v>
+      </c>
+      <c r="CF508" t="s">
+        <v>14259</v>
+      </c>
+      <c r="CG508" t="s">
+        <v>14260</v>
+      </c>
+      <c r="CH508" t="s">
         <v>14256</v>
       </c>
-      <c r="CE508" t="s">
-        <v>14257</v>
-      </c>
-      <c r="CF508" t="s">
-        <v>14258</v>
-      </c>
-      <c r="CG508" t="s">
-        <v>14259</v>
-      </c>
-      <c r="CH508" t="s">
-        <v>14255</v>
-      </c>
       <c r="CI508" t="s">
-        <v>14260</v>
+        <v>14261</v>
       </c>
       <c r="CJ508" t="s">
-        <v>14261</v>
+        <v>14262</v>
       </c>
       <c r="CK508" t="s">
-        <v>14262</v>
+        <v>14263</v>
       </c>
       <c r="CL508" t="s">
-        <v>14263</v>
+        <v>14264</v>
       </c>
       <c r="CM508" t="s">
-        <v>14264</v>
+        <v>14265</v>
       </c>
       <c r="CN508" t="s">
-        <v>14265</v>
+        <v>14266</v>
       </c>
       <c r="CO508" t="s">
-        <v>14266</v>
+        <v>14267</v>
       </c>
       <c r="CP508" t="s">
-        <v>14267</v>
+        <v>14268</v>
       </c>
       <c r="CQ508" t="s">
-        <v>14268</v>
+        <v>14269</v>
       </c>
     </row>
     <row r="509">
@@ -104183,7 +104186,7 @@
         <v>1616</v>
       </c>
       <c r="C509" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="D509" t="s">
         <v>1573</v>
@@ -104192,85 +104195,85 @@
       <c r="G509" t="s"/>
       <c r="H509" t="s"/>
       <c r="I509" t="s">
-        <v>14269</v>
+        <v>14270</v>
       </c>
       <c r="J509" t="s">
-        <v>14270</v>
+        <v>14271</v>
       </c>
       <c r="K509" t="s">
-        <v>14271</v>
+        <v>14272</v>
       </c>
       <c r="L509" t="s">
-        <v>14272</v>
+        <v>14273</v>
       </c>
       <c r="M509" t="s">
-        <v>14273</v>
+        <v>14274</v>
       </c>
       <c r="N509" t="s">
+        <v>14275</v>
+      </c>
+      <c r="O509" t="s">
         <v>14274</v>
       </c>
-      <c r="O509" t="s">
-        <v>14273</v>
-      </c>
       <c r="P509" t="s">
-        <v>14274</v>
+        <v>14275</v>
       </c>
       <c r="Q509" t="s">
-        <v>14275</v>
+        <v>14276</v>
       </c>
       <c r="R509" t="s">
-        <v>14276</v>
+        <v>14277</v>
       </c>
       <c r="S509" t="s">
-        <v>14277</v>
+        <v>14278</v>
       </c>
       <c r="T509" t="s">
-        <v>14278</v>
+        <v>14279</v>
       </c>
       <c r="U509" t="s">
-        <v>14279</v>
+        <v>14280</v>
       </c>
       <c r="V509" t="s">
-        <v>14279</v>
+        <v>14280</v>
       </c>
       <c r="W509" t="s">
-        <v>14280</v>
+        <v>14281</v>
       </c>
       <c r="X509" t="s">
-        <v>14280</v>
+        <v>14281</v>
       </c>
       <c r="Y509" t="s">
-        <v>14281</v>
+        <v>14282</v>
       </c>
       <c r="Z509" t="s">
-        <v>14281</v>
+        <v>14282</v>
       </c>
       <c r="AA509" t="s">
-        <v>14282</v>
+        <v>14283</v>
       </c>
       <c r="AB509" t="s">
-        <v>14283</v>
+        <v>14284</v>
       </c>
       <c r="AC509" t="s">
-        <v>14284</v>
+        <v>14285</v>
       </c>
       <c r="AD509" t="s">
-        <v>14285</v>
+        <v>14286</v>
       </c>
       <c r="AE509" t="s">
-        <v>14285</v>
+        <v>14286</v>
       </c>
       <c r="AF509" t="s">
-        <v>14286</v>
+        <v>14287</v>
       </c>
       <c r="AG509" t="s">
-        <v>14287</v>
+        <v>14288</v>
       </c>
       <c r="AH509" t="s">
-        <v>14288</v>
+        <v>14289</v>
       </c>
       <c r="AI509" t="s">
-        <v>14289</v>
+        <v>14290</v>
       </c>
     </row>
     <row r="510">
@@ -104293,304 +104296,304 @@
       <c r="G510" t="s"/>
       <c r="H510" t="s"/>
       <c r="I510" t="s">
-        <v>14290</v>
+        <v>14291</v>
       </c>
       <c r="J510" t="s">
-        <v>14291</v>
+        <v>14292</v>
       </c>
       <c r="K510" t="s">
-        <v>14292</v>
+        <v>14293</v>
       </c>
       <c r="L510" t="s">
-        <v>14293</v>
+        <v>14294</v>
       </c>
       <c r="M510" t="s">
-        <v>14294</v>
+        <v>14295</v>
       </c>
       <c r="N510" t="s">
-        <v>14295</v>
+        <v>14296</v>
       </c>
       <c r="O510" t="s">
-        <v>14295</v>
+        <v>14296</v>
       </c>
       <c r="P510" t="s">
-        <v>14296</v>
+        <v>14297</v>
       </c>
       <c r="Q510" t="s">
-        <v>14297</v>
+        <v>14298</v>
       </c>
       <c r="R510" t="s">
+        <v>14299</v>
+      </c>
+      <c r="S510" t="s">
+        <v>14300</v>
+      </c>
+      <c r="T510" t="s">
+        <v>14301</v>
+      </c>
+      <c r="U510" t="s">
+        <v>14302</v>
+      </c>
+      <c r="V510" t="s">
+        <v>14303</v>
+      </c>
+      <c r="W510" t="s">
+        <v>14304</v>
+      </c>
+      <c r="X510" t="s">
+        <v>14305</v>
+      </c>
+      <c r="Y510" t="s">
+        <v>14306</v>
+      </c>
+      <c r="Z510" t="s">
         <v>14298</v>
       </c>
-      <c r="S510" t="s">
+      <c r="AA510" t="s">
         <v>14299</v>
       </c>
-      <c r="T510" t="s">
+      <c r="AB510" t="s">
         <v>14300</v>
       </c>
-      <c r="U510" t="s">
+      <c r="AC510" t="s">
         <v>14301</v>
       </c>
-      <c r="V510" t="s">
+      <c r="AD510" t="s">
         <v>14302</v>
       </c>
-      <c r="W510" t="s">
+      <c r="AE510" t="s">
         <v>14303</v>
       </c>
-      <c r="X510" t="s">
+      <c r="AF510" t="s">
         <v>14304</v>
       </c>
-      <c r="Y510" t="s">
+      <c r="AG510" t="s">
         <v>14305</v>
       </c>
-      <c r="Z510" t="s">
-        <v>14297</v>
-      </c>
-      <c r="AA510" t="s">
-        <v>14298</v>
-      </c>
-      <c r="AB510" t="s">
-        <v>14299</v>
-      </c>
-      <c r="AC510" t="s">
-        <v>14300</v>
-      </c>
-      <c r="AD510" t="s">
-        <v>14301</v>
-      </c>
-      <c r="AE510" t="s">
-        <v>14302</v>
-      </c>
-      <c r="AF510" t="s">
-        <v>14303</v>
-      </c>
-      <c r="AG510" t="s">
-        <v>14304</v>
-      </c>
       <c r="AH510" t="s">
-        <v>14305</v>
+        <v>14306</v>
       </c>
       <c r="AI510" t="s">
-        <v>14306</v>
+        <v>14307</v>
       </c>
       <c r="AJ510" t="s">
-        <v>14307</v>
+        <v>14308</v>
       </c>
       <c r="AK510" t="s">
-        <v>14308</v>
+        <v>14309</v>
       </c>
       <c r="AL510" t="s">
-        <v>14309</v>
+        <v>14310</v>
       </c>
       <c r="AM510" t="s">
+        <v>14311</v>
+      </c>
+      <c r="AN510" t="s">
+        <v>14312</v>
+      </c>
+      <c r="AO510" t="s">
+        <v>14313</v>
+      </c>
+      <c r="AP510" t="s">
+        <v>14314</v>
+      </c>
+      <c r="AQ510" t="s">
+        <v>14315</v>
+      </c>
+      <c r="AR510" t="s">
+        <v>14316</v>
+      </c>
+      <c r="AS510" t="s">
+        <v>14317</v>
+      </c>
+      <c r="AT510" t="s">
+        <v>14318</v>
+      </c>
+      <c r="AU510" t="s">
+        <v>14319</v>
+      </c>
+      <c r="AV510" t="s">
+        <v>14320</v>
+      </c>
+      <c r="AW510" t="s">
+        <v>14321</v>
+      </c>
+      <c r="AX510" t="s">
+        <v>14322</v>
+      </c>
+      <c r="AY510" t="s">
+        <v>14323</v>
+      </c>
+      <c r="AZ510" t="s">
+        <v>14323</v>
+      </c>
+      <c r="BA510" t="s">
+        <v>14324</v>
+      </c>
+      <c r="BB510" t="s">
+        <v>14325</v>
+      </c>
+      <c r="BC510" t="s">
+        <v>14326</v>
+      </c>
+      <c r="BD510" t="s">
+        <v>14327</v>
+      </c>
+      <c r="BE510" t="s">
+        <v>14328</v>
+      </c>
+      <c r="BF510" t="s">
+        <v>14329</v>
+      </c>
+      <c r="BG510" t="s">
+        <v>14330</v>
+      </c>
+      <c r="BH510" t="s">
+        <v>14331</v>
+      </c>
+      <c r="BI510" t="s">
+        <v>14331</v>
+      </c>
+      <c r="BJ510" t="s">
+        <v>14332</v>
+      </c>
+      <c r="BK510" t="s">
+        <v>14332</v>
+      </c>
+      <c r="BL510" t="s">
+        <v>14333</v>
+      </c>
+      <c r="BM510" t="s">
+        <v>14334</v>
+      </c>
+      <c r="BN510" t="s">
+        <v>14335</v>
+      </c>
+      <c r="BO510" t="s">
+        <v>14336</v>
+      </c>
+      <c r="BP510" t="s">
+        <v>14337</v>
+      </c>
+      <c r="BQ510" t="s">
+        <v>14338</v>
+      </c>
+      <c r="BR510" t="s">
+        <v>14339</v>
+      </c>
+      <c r="BS510" t="s">
+        <v>14340</v>
+      </c>
+      <c r="BT510" t="s">
+        <v>14341</v>
+      </c>
+      <c r="BU510" t="s">
+        <v>14311</v>
+      </c>
+      <c r="BV510" t="s">
         <v>14310</v>
       </c>
-      <c r="AN510" t="s">
-        <v>14311</v>
-      </c>
-      <c r="AO510" t="s">
+      <c r="BW510" t="s">
         <v>14312</v>
       </c>
-      <c r="AP510" t="s">
+      <c r="BX510" t="s">
+        <v>14314</v>
+      </c>
+      <c r="BY510" t="s">
         <v>14313</v>
       </c>
-      <c r="AQ510" t="s">
-        <v>14314</v>
-      </c>
-      <c r="AR510" t="s">
+      <c r="BZ510" t="s">
         <v>14315</v>
       </c>
-      <c r="AS510" t="s">
+      <c r="CA510" t="s">
         <v>14316</v>
       </c>
-      <c r="AT510" t="s">
-        <v>14317</v>
-      </c>
-      <c r="AU510" t="s">
-        <v>14318</v>
-      </c>
-      <c r="AV510" t="s">
-        <v>14319</v>
-      </c>
-      <c r="AW510" t="s">
-        <v>14320</v>
-      </c>
-      <c r="AX510" t="s">
-        <v>14321</v>
-      </c>
-      <c r="AY510" t="s">
-        <v>14322</v>
-      </c>
-      <c r="AZ510" t="s">
-        <v>14322</v>
-      </c>
-      <c r="BA510" t="s">
-        <v>14323</v>
-      </c>
-      <c r="BB510" t="s">
-        <v>14324</v>
-      </c>
-      <c r="BC510" t="s">
-        <v>14325</v>
-      </c>
-      <c r="BD510" t="s">
-        <v>14326</v>
-      </c>
-      <c r="BE510" t="s">
-        <v>14327</v>
-      </c>
-      <c r="BF510" t="s">
-        <v>14328</v>
-      </c>
-      <c r="BG510" t="s">
-        <v>14329</v>
-      </c>
-      <c r="BH510" t="s">
-        <v>14330</v>
-      </c>
-      <c r="BI510" t="s">
-        <v>14330</v>
-      </c>
-      <c r="BJ510" t="s">
-        <v>14331</v>
-      </c>
-      <c r="BK510" t="s">
-        <v>14331</v>
-      </c>
-      <c r="BL510" t="s">
-        <v>14332</v>
-      </c>
-      <c r="BM510" t="s">
-        <v>14333</v>
-      </c>
-      <c r="BN510" t="s">
+      <c r="CB510" t="s">
+        <v>14342</v>
+      </c>
+      <c r="CC510" t="s">
+        <v>14343</v>
+      </c>
+      <c r="CD510" t="s">
+        <v>14344</v>
+      </c>
+      <c r="CE510" t="s">
+        <v>14345</v>
+      </c>
+      <c r="CF510" t="s">
+        <v>14346</v>
+      </c>
+      <c r="CG510" t="s">
+        <v>14347</v>
+      </c>
+      <c r="CH510" t="s">
+        <v>14348</v>
+      </c>
+      <c r="CI510" t="s">
+        <v>14349</v>
+      </c>
+      <c r="CJ510" t="s">
+        <v>14350</v>
+      </c>
+      <c r="CK510" t="s">
+        <v>14351</v>
+      </c>
+      <c r="CL510" t="s">
+        <v>14352</v>
+      </c>
+      <c r="CM510" t="s">
+        <v>14353</v>
+      </c>
+      <c r="CN510" t="s">
+        <v>14354</v>
+      </c>
+      <c r="CO510" t="s">
+        <v>14355</v>
+      </c>
+      <c r="CP510" t="s">
+        <v>14356</v>
+      </c>
+      <c r="CQ510" t="s">
+        <v>14357</v>
+      </c>
+      <c r="CR510" t="s">
         <v>14334</v>
       </c>
-      <c r="BO510" t="s">
-        <v>14335</v>
-      </c>
-      <c r="BP510" t="s">
-        <v>14336</v>
-      </c>
-      <c r="BQ510" t="s">
-        <v>14337</v>
-      </c>
-      <c r="BR510" t="s">
-        <v>14338</v>
-      </c>
-      <c r="BS510" t="s">
-        <v>14339</v>
-      </c>
-      <c r="BT510" t="s">
-        <v>14340</v>
-      </c>
-      <c r="BU510" t="s">
-        <v>14310</v>
-      </c>
-      <c r="BV510" t="s">
-        <v>14309</v>
-      </c>
-      <c r="BW510" t="s">
-        <v>14311</v>
-      </c>
-      <c r="BX510" t="s">
-        <v>14313</v>
-      </c>
-      <c r="BY510" t="s">
-        <v>14312</v>
-      </c>
-      <c r="BZ510" t="s">
-        <v>14314</v>
-      </c>
-      <c r="CA510" t="s">
-        <v>14315</v>
-      </c>
-      <c r="CB510" t="s">
-        <v>14341</v>
-      </c>
-      <c r="CC510" t="s">
-        <v>14342</v>
-      </c>
-      <c r="CD510" t="s">
-        <v>14343</v>
-      </c>
-      <c r="CE510" t="s">
-        <v>14344</v>
-      </c>
-      <c r="CF510" t="s">
-        <v>14345</v>
-      </c>
-      <c r="CG510" t="s">
-        <v>14346</v>
-      </c>
-      <c r="CH510" t="s">
-        <v>14347</v>
-      </c>
-      <c r="CI510" t="s">
-        <v>14348</v>
-      </c>
-      <c r="CJ510" t="s">
-        <v>14349</v>
-      </c>
-      <c r="CK510" t="s">
-        <v>14350</v>
-      </c>
-      <c r="CL510" t="s">
-        <v>14351</v>
-      </c>
-      <c r="CM510" t="s">
+      <c r="CS510" t="s">
+        <v>14358</v>
+      </c>
+      <c r="CT510" t="s">
+        <v>14359</v>
+      </c>
+      <c r="CU510" t="s">
+        <v>14354</v>
+      </c>
+      <c r="CV510" t="s">
+        <v>14355</v>
+      </c>
+      <c r="CW510" t="s">
         <v>14352</v>
       </c>
-      <c r="CN510" t="s">
+      <c r="CX510" t="s">
         <v>14353</v>
       </c>
-      <c r="CO510" t="s">
-        <v>14354</v>
-      </c>
-      <c r="CP510" t="s">
-        <v>14355</v>
-      </c>
-      <c r="CQ510" t="s">
-        <v>14356</v>
-      </c>
-      <c r="CR510" t="s">
-        <v>14333</v>
-      </c>
-      <c r="CS510" t="s">
-        <v>14357</v>
-      </c>
-      <c r="CT510" t="s">
-        <v>14358</v>
-      </c>
-      <c r="CU510" t="s">
-        <v>14353</v>
-      </c>
-      <c r="CV510" t="s">
-        <v>14354</v>
-      </c>
-      <c r="CW510" t="s">
-        <v>14351</v>
-      </c>
-      <c r="CX510" t="s">
-        <v>14352</v>
-      </c>
       <c r="CY510" t="s">
-        <v>14359</v>
+        <v>14360</v>
       </c>
       <c r="CZ510" t="s">
-        <v>14360</v>
+        <v>14361</v>
       </c>
       <c r="DA510" t="s">
-        <v>14361</v>
+        <v>14362</v>
       </c>
       <c r="DB510" t="s">
-        <v>14362</v>
+        <v>14363</v>
       </c>
       <c r="DC510" t="s">
-        <v>14363</v>
+        <v>14364</v>
       </c>
       <c r="DD510" t="s">
-        <v>14364</v>
+        <v>14365</v>
       </c>
     </row>
     <row r="511">
@@ -104613,94 +104616,94 @@
       <c r="G511" t="s"/>
       <c r="H511" t="s"/>
       <c r="I511" t="s">
-        <v>14365</v>
+        <v>14366</v>
       </c>
       <c r="J511" t="s">
-        <v>14366</v>
+        <v>14367</v>
       </c>
       <c r="K511" t="s">
+        <v>14368</v>
+      </c>
+      <c r="L511" t="s">
         <v>14367</v>
       </c>
-      <c r="L511" t="s">
-        <v>14366</v>
-      </c>
       <c r="M511" t="s">
-        <v>14368</v>
+        <v>14369</v>
       </c>
       <c r="N511" t="s">
-        <v>14369</v>
+        <v>14370</v>
       </c>
       <c r="O511" t="s">
+        <v>14371</v>
+      </c>
+      <c r="P511" t="s">
+        <v>14372</v>
+      </c>
+      <c r="Q511" t="s">
+        <v>14373</v>
+      </c>
+      <c r="R511" t="s">
+        <v>14374</v>
+      </c>
+      <c r="S511" t="s">
+        <v>14374</v>
+      </c>
+      <c r="T511" t="s">
+        <v>14375</v>
+      </c>
+      <c r="U511" t="s">
+        <v>14375</v>
+      </c>
+      <c r="V511" t="s">
+        <v>14376</v>
+      </c>
+      <c r="W511" t="s">
+        <v>14376</v>
+      </c>
+      <c r="X511" t="s">
+        <v>14377</v>
+      </c>
+      <c r="Y511" t="s">
+        <v>14377</v>
+      </c>
+      <c r="Z511" t="s">
+        <v>14378</v>
+      </c>
+      <c r="AA511" t="s">
+        <v>14379</v>
+      </c>
+      <c r="AB511" t="s">
+        <v>14379</v>
+      </c>
+      <c r="AC511" t="s">
+        <v>14380</v>
+      </c>
+      <c r="AD511" t="s">
+        <v>14380</v>
+      </c>
+      <c r="AE511" t="s">
+        <v>14381</v>
+      </c>
+      <c r="AF511" t="s">
+        <v>14381</v>
+      </c>
+      <c r="AG511" t="s">
         <v>14370</v>
       </c>
-      <c r="P511" t="s">
+      <c r="AH511" t="s">
         <v>14371</v>
       </c>
-      <c r="Q511" t="s">
+      <c r="AI511" t="s">
         <v>14372</v>
       </c>
-      <c r="R511" t="s">
-        <v>14373</v>
-      </c>
-      <c r="S511" t="s">
-        <v>14373</v>
-      </c>
-      <c r="T511" t="s">
-        <v>14374</v>
-      </c>
-      <c r="U511" t="s">
-        <v>14374</v>
-      </c>
-      <c r="V511" t="s">
-        <v>14375</v>
-      </c>
-      <c r="W511" t="s">
-        <v>14375</v>
-      </c>
-      <c r="X511" t="s">
-        <v>14376</v>
-      </c>
-      <c r="Y511" t="s">
-        <v>14376</v>
-      </c>
-      <c r="Z511" t="s">
-        <v>14377</v>
-      </c>
-      <c r="AA511" t="s">
-        <v>14378</v>
-      </c>
-      <c r="AB511" t="s">
-        <v>14378</v>
-      </c>
-      <c r="AC511" t="s">
-        <v>14379</v>
-      </c>
-      <c r="AD511" t="s">
-        <v>14379</v>
-      </c>
-      <c r="AE511" t="s">
-        <v>14380</v>
-      </c>
-      <c r="AF511" t="s">
-        <v>14380</v>
-      </c>
-      <c r="AG511" t="s">
-        <v>14369</v>
-      </c>
-      <c r="AH511" t="s">
-        <v>14370</v>
-      </c>
-      <c r="AI511" t="s">
-        <v>14371</v>
-      </c>
       <c r="AJ511" t="s">
-        <v>14381</v>
+        <v>14382</v>
       </c>
       <c r="AK511" t="s">
-        <v>14382</v>
+        <v>14383</v>
       </c>
       <c r="AL511" t="s">
-        <v>14383</v>
+        <v>14384</v>
       </c>
     </row>
     <row r="512">
@@ -104723,106 +104726,106 @@
       <c r="G512" t="s"/>
       <c r="H512" t="s"/>
       <c r="I512" t="s">
-        <v>14384</v>
+        <v>14385</v>
       </c>
       <c r="J512" t="s">
-        <v>14385</v>
+        <v>14386</v>
       </c>
       <c r="K512" t="s">
-        <v>14386</v>
+        <v>14387</v>
       </c>
       <c r="L512" t="s">
-        <v>14387</v>
+        <v>14388</v>
       </c>
       <c r="M512" t="s">
-        <v>14388</v>
+        <v>14389</v>
       </c>
       <c r="N512" t="s">
-        <v>14389</v>
+        <v>14390</v>
       </c>
       <c r="O512" t="s">
-        <v>14390</v>
+        <v>14391</v>
       </c>
       <c r="P512" t="s">
-        <v>14391</v>
+        <v>14392</v>
       </c>
       <c r="Q512" t="s">
-        <v>14392</v>
+        <v>14393</v>
       </c>
       <c r="R512" t="s">
-        <v>14393</v>
+        <v>14394</v>
       </c>
       <c r="S512" t="s">
-        <v>14394</v>
+        <v>14395</v>
       </c>
       <c r="T512" t="s">
-        <v>14395</v>
+        <v>14396</v>
       </c>
       <c r="U512" t="s">
-        <v>14396</v>
+        <v>14397</v>
       </c>
       <c r="V512" t="s">
-        <v>14397</v>
+        <v>14398</v>
       </c>
       <c r="W512" t="s">
-        <v>14398</v>
+        <v>14399</v>
       </c>
       <c r="X512" t="s">
-        <v>14399</v>
+        <v>14400</v>
       </c>
       <c r="Y512" t="s">
-        <v>14400</v>
+        <v>14401</v>
       </c>
       <c r="Z512" t="s">
-        <v>14401</v>
+        <v>14402</v>
       </c>
       <c r="AA512" t="s">
-        <v>14402</v>
+        <v>14403</v>
       </c>
       <c r="AB512" t="s">
-        <v>14403</v>
+        <v>14404</v>
       </c>
       <c r="AC512" t="s">
-        <v>14404</v>
+        <v>14405</v>
       </c>
       <c r="AD512" t="s">
-        <v>14405</v>
+        <v>14406</v>
       </c>
       <c r="AE512" t="s">
-        <v>14406</v>
+        <v>14407</v>
       </c>
       <c r="AF512" t="s">
-        <v>14407</v>
+        <v>14408</v>
       </c>
       <c r="AG512" t="s">
-        <v>14408</v>
+        <v>14409</v>
       </c>
       <c r="AH512" t="s">
-        <v>14409</v>
+        <v>14410</v>
       </c>
       <c r="AI512" t="s">
-        <v>14410</v>
+        <v>14411</v>
       </c>
       <c r="AJ512" t="s">
-        <v>14411</v>
+        <v>14412</v>
       </c>
       <c r="AK512" t="s">
-        <v>14412</v>
+        <v>14413</v>
       </c>
       <c r="AL512" t="s">
-        <v>14413</v>
+        <v>14414</v>
       </c>
       <c r="AM512" t="s">
-        <v>14414</v>
+        <v>14415</v>
       </c>
       <c r="AN512" t="s">
-        <v>14415</v>
+        <v>14416</v>
       </c>
       <c r="AO512" t="s">
-        <v>14416</v>
+        <v>14417</v>
       </c>
       <c r="AP512" t="s">
-        <v>14417</v>
+        <v>14418</v>
       </c>
     </row>
     <row r="513">
@@ -104836,7 +104839,7 @@
         <v>7187</v>
       </c>
       <c r="D513" t="s">
-        <v>14418</v>
+        <v>14419</v>
       </c>
       <c r="E513" t="s">
         <v>1573</v>
@@ -104845,133 +104848,133 @@
       <c r="G513" t="s"/>
       <c r="H513" t="s"/>
       <c r="I513" t="s">
-        <v>14419</v>
+        <v>14420</v>
       </c>
       <c r="J513" t="s">
-        <v>14420</v>
+        <v>14421</v>
       </c>
       <c r="K513" t="s">
-        <v>14421</v>
+        <v>14422</v>
       </c>
       <c r="L513" t="s">
-        <v>14422</v>
+        <v>14423</v>
       </c>
       <c r="M513" t="s">
-        <v>14423</v>
+        <v>14424</v>
       </c>
       <c r="N513" t="s">
-        <v>14424</v>
+        <v>14425</v>
       </c>
       <c r="O513" t="s">
-        <v>14425</v>
+        <v>14426</v>
       </c>
       <c r="P513" t="s">
-        <v>14426</v>
+        <v>14427</v>
       </c>
       <c r="Q513" t="s">
-        <v>14427</v>
+        <v>14428</v>
       </c>
       <c r="R513" t="s">
-        <v>14428</v>
+        <v>14429</v>
       </c>
       <c r="S513" t="s">
-        <v>14429</v>
+        <v>14430</v>
       </c>
       <c r="T513" t="s">
-        <v>14430</v>
+        <v>14431</v>
       </c>
       <c r="U513" t="s">
-        <v>14431</v>
+        <v>14432</v>
       </c>
       <c r="V513" t="s">
-        <v>14432</v>
+        <v>14433</v>
       </c>
       <c r="W513" t="s">
-        <v>14433</v>
+        <v>14434</v>
       </c>
       <c r="X513" t="s">
-        <v>14434</v>
+        <v>14435</v>
       </c>
       <c r="Y513" t="s">
-        <v>14435</v>
+        <v>14436</v>
       </c>
       <c r="Z513" t="s">
-        <v>14436</v>
+        <v>14437</v>
       </c>
       <c r="AA513" t="s">
-        <v>14437</v>
+        <v>14438</v>
       </c>
       <c r="AB513" t="s">
-        <v>14438</v>
+        <v>14439</v>
       </c>
       <c r="AC513" t="s">
-        <v>14439</v>
+        <v>14440</v>
       </c>
       <c r="AD513" t="s">
-        <v>14440</v>
+        <v>14441</v>
       </c>
       <c r="AE513" t="s">
-        <v>14441</v>
+        <v>14442</v>
       </c>
       <c r="AF513" t="s">
-        <v>14442</v>
+        <v>14443</v>
       </c>
       <c r="AG513" t="s">
-        <v>14443</v>
+        <v>14444</v>
       </c>
       <c r="AH513" t="s">
-        <v>14444</v>
+        <v>14445</v>
       </c>
       <c r="AI513" t="s">
-        <v>14445</v>
+        <v>14446</v>
       </c>
       <c r="AJ513" t="s">
-        <v>14446</v>
+        <v>14447</v>
       </c>
       <c r="AK513" t="s">
-        <v>14447</v>
+        <v>14448</v>
       </c>
       <c r="AL513" t="s">
-        <v>14448</v>
+        <v>14449</v>
       </c>
       <c r="AM513" t="s">
-        <v>14449</v>
+        <v>14450</v>
       </c>
       <c r="AN513" t="s">
-        <v>14450</v>
+        <v>14451</v>
       </c>
       <c r="AO513" t="s">
-        <v>14451</v>
+        <v>14452</v>
       </c>
       <c r="AP513" t="s">
-        <v>14452</v>
+        <v>14453</v>
       </c>
       <c r="AQ513" t="s">
-        <v>14453</v>
+        <v>14454</v>
       </c>
       <c r="AR513" t="s">
-        <v>14454</v>
+        <v>14455</v>
       </c>
       <c r="AS513" t="s">
-        <v>14455</v>
+        <v>14456</v>
       </c>
       <c r="AT513" t="s">
-        <v>14456</v>
+        <v>14457</v>
       </c>
       <c r="AU513" t="s">
-        <v>14457</v>
+        <v>14458</v>
       </c>
       <c r="AV513" t="s">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="AW513" t="s">
-        <v>14459</v>
+        <v>14460</v>
       </c>
       <c r="AX513" t="s">
-        <v>14460</v>
+        <v>14461</v>
       </c>
       <c r="AY513" t="s">
-        <v>14461</v>
+        <v>14462</v>
       </c>
     </row>
     <row r="514">
@@ -104985,7 +104988,7 @@
         <v>7187</v>
       </c>
       <c r="D514" t="s">
-        <v>14418</v>
+        <v>14419</v>
       </c>
       <c r="E514" t="s">
         <v>1573</v>
@@ -104994,103 +104997,103 @@
       <c r="G514" t="s"/>
       <c r="H514" t="s"/>
       <c r="I514" t="s">
-        <v>14462</v>
+        <v>14463</v>
       </c>
       <c r="J514" t="s">
-        <v>14463</v>
+        <v>14464</v>
       </c>
       <c r="K514" t="s">
-        <v>14464</v>
+        <v>14465</v>
       </c>
       <c r="L514" t="s">
-        <v>14465</v>
+        <v>14466</v>
       </c>
       <c r="M514" t="s">
-        <v>14466</v>
+        <v>14467</v>
       </c>
       <c r="N514" t="s">
-        <v>14467</v>
+        <v>14468</v>
       </c>
       <c r="O514" t="s">
-        <v>14468</v>
+        <v>14469</v>
       </c>
       <c r="P514" t="s">
-        <v>14469</v>
+        <v>14470</v>
       </c>
       <c r="Q514" t="s">
-        <v>14470</v>
+        <v>14471</v>
       </c>
       <c r="R514" t="s">
-        <v>14471</v>
+        <v>14472</v>
       </c>
       <c r="S514" t="s">
-        <v>14472</v>
+        <v>14473</v>
       </c>
       <c r="T514" t="s">
-        <v>14473</v>
+        <v>14474</v>
       </c>
       <c r="U514" t="s">
-        <v>14474</v>
+        <v>14475</v>
       </c>
       <c r="V514" t="s">
-        <v>14474</v>
+        <v>14475</v>
       </c>
       <c r="W514" t="s">
-        <v>14475</v>
+        <v>14476</v>
       </c>
       <c r="X514" t="s">
-        <v>14476</v>
+        <v>14477</v>
       </c>
       <c r="Y514" t="s">
-        <v>14477</v>
+        <v>14478</v>
       </c>
       <c r="Z514" t="s">
-        <v>14478</v>
+        <v>14479</v>
       </c>
       <c r="AA514" t="s">
-        <v>14479</v>
+        <v>14480</v>
       </c>
       <c r="AB514" t="s">
-        <v>14480</v>
+        <v>14481</v>
       </c>
       <c r="AC514" t="s">
-        <v>14481</v>
+        <v>14482</v>
       </c>
       <c r="AD514" t="s">
-        <v>14482</v>
+        <v>14483</v>
       </c>
       <c r="AE514" t="s">
-        <v>14483</v>
+        <v>14484</v>
       </c>
       <c r="AF514" t="s">
-        <v>14484</v>
+        <v>14485</v>
       </c>
       <c r="AG514" t="s">
-        <v>14485</v>
+        <v>14486</v>
       </c>
       <c r="AH514" t="s">
-        <v>14486</v>
+        <v>14487</v>
       </c>
       <c r="AI514" t="s">
-        <v>14487</v>
+        <v>14488</v>
       </c>
       <c r="AJ514" t="s">
-        <v>14488</v>
+        <v>14489</v>
       </c>
       <c r="AK514" t="s">
-        <v>14489</v>
+        <v>14490</v>
       </c>
       <c r="AL514" t="s">
-        <v>14490</v>
+        <v>14491</v>
       </c>
       <c r="AM514" t="s">
-        <v>14491</v>
+        <v>14492</v>
       </c>
       <c r="AN514" t="s">
-        <v>14492</v>
+        <v>14493</v>
       </c>
       <c r="AO514" t="s">
-        <v>14493</v>
+        <v>14494</v>
       </c>
     </row>
     <row r="515">
@@ -105104,7 +105107,7 @@
         <v>7187</v>
       </c>
       <c r="D515" t="s">
-        <v>14418</v>
+        <v>14419</v>
       </c>
       <c r="E515" t="s">
         <v>1573</v>
@@ -105113,100 +105116,100 @@
       <c r="G515" t="s"/>
       <c r="H515" t="s"/>
       <c r="I515" t="s">
-        <v>14494</v>
+        <v>14495</v>
       </c>
       <c r="J515" t="s">
-        <v>14495</v>
+        <v>14496</v>
       </c>
       <c r="K515" t="s">
-        <v>14496</v>
+        <v>14497</v>
       </c>
       <c r="L515" t="s">
-        <v>14497</v>
+        <v>14498</v>
       </c>
       <c r="M515" t="s">
-        <v>14498</v>
+        <v>14499</v>
       </c>
       <c r="N515" t="s">
-        <v>14499</v>
+        <v>14500</v>
       </c>
       <c r="O515" t="s">
-        <v>14500</v>
+        <v>14501</v>
       </c>
       <c r="P515" t="s">
-        <v>14501</v>
+        <v>14502</v>
       </c>
       <c r="Q515" t="s">
-        <v>14502</v>
+        <v>14503</v>
       </c>
       <c r="R515" t="s">
-        <v>14503</v>
+        <v>14504</v>
       </c>
       <c r="S515" t="s">
-        <v>14504</v>
+        <v>14505</v>
       </c>
       <c r="T515" t="s">
-        <v>14505</v>
+        <v>14506</v>
       </c>
       <c r="U515" t="s">
-        <v>14506</v>
+        <v>14507</v>
       </c>
       <c r="V515" t="s">
-        <v>14507</v>
+        <v>14508</v>
       </c>
       <c r="W515" t="s">
-        <v>14508</v>
+        <v>14509</v>
       </c>
       <c r="X515" t="s">
-        <v>14509</v>
+        <v>14510</v>
       </c>
       <c r="Y515" t="s">
-        <v>14510</v>
+        <v>14511</v>
       </c>
       <c r="Z515" t="s">
-        <v>14511</v>
+        <v>14512</v>
       </c>
       <c r="AA515" t="s">
-        <v>14512</v>
+        <v>14513</v>
       </c>
       <c r="AB515" t="s">
-        <v>14513</v>
+        <v>14514</v>
       </c>
       <c r="AC515" t="s">
-        <v>14514</v>
+        <v>14515</v>
       </c>
       <c r="AD515" t="s">
-        <v>14515</v>
+        <v>14516</v>
       </c>
       <c r="AE515" t="s">
-        <v>14516</v>
+        <v>14517</v>
       </c>
       <c r="AF515" t="s">
-        <v>14517</v>
+        <v>14518</v>
       </c>
       <c r="AG515" t="s">
-        <v>14518</v>
+        <v>14519</v>
       </c>
       <c r="AH515" t="s">
-        <v>14519</v>
+        <v>14520</v>
       </c>
       <c r="AI515" t="s">
-        <v>14520</v>
+        <v>14521</v>
       </c>
       <c r="AJ515" t="s">
-        <v>14521</v>
+        <v>14522</v>
       </c>
       <c r="AK515" t="s">
-        <v>14522</v>
+        <v>14523</v>
       </c>
       <c r="AL515" t="s">
-        <v>14523</v>
+        <v>14524</v>
       </c>
       <c r="AM515" t="s">
-        <v>14524</v>
+        <v>14525</v>
       </c>
       <c r="AN515" t="s">
-        <v>14525</v>
+        <v>14526</v>
       </c>
     </row>
     <row r="516">
@@ -105220,7 +105223,7 @@
         <v>7187</v>
       </c>
       <c r="D516" t="s">
-        <v>14418</v>
+        <v>14419</v>
       </c>
       <c r="E516" t="s">
         <v>1573</v>
@@ -105229,106 +105232,106 @@
       <c r="G516" t="s"/>
       <c r="H516" t="s"/>
       <c r="I516" t="s">
-        <v>14526</v>
+        <v>14527</v>
       </c>
       <c r="J516" t="s">
-        <v>14527</v>
+        <v>14528</v>
       </c>
       <c r="K516" t="s">
-        <v>14528</v>
+        <v>14529</v>
       </c>
       <c r="L516" t="s">
-        <v>14529</v>
+        <v>14530</v>
       </c>
       <c r="M516" t="s">
-        <v>14530</v>
+        <v>14531</v>
       </c>
       <c r="N516" t="s">
-        <v>14531</v>
+        <v>14532</v>
       </c>
       <c r="O516" t="s">
-        <v>14532</v>
+        <v>14533</v>
       </c>
       <c r="P516" t="s">
-        <v>14533</v>
+        <v>14534</v>
       </c>
       <c r="Q516" t="s">
-        <v>14534</v>
+        <v>14535</v>
       </c>
       <c r="R516" t="s">
-        <v>14535</v>
+        <v>14536</v>
       </c>
       <c r="S516" t="s">
-        <v>14536</v>
+        <v>14537</v>
       </c>
       <c r="T516" t="s">
-        <v>14537</v>
+        <v>14538</v>
       </c>
       <c r="U516" t="s">
-        <v>14538</v>
+        <v>14539</v>
       </c>
       <c r="V516" t="s">
-        <v>14539</v>
+        <v>14540</v>
       </c>
       <c r="W516" t="s">
-        <v>14540</v>
+        <v>14541</v>
       </c>
       <c r="X516" t="s">
-        <v>14541</v>
+        <v>14542</v>
       </c>
       <c r="Y516" t="s">
-        <v>14542</v>
+        <v>14543</v>
       </c>
       <c r="Z516" t="s">
-        <v>14543</v>
+        <v>14544</v>
       </c>
       <c r="AA516" t="s">
-        <v>14544</v>
+        <v>14545</v>
       </c>
       <c r="AB516" t="s">
-        <v>14545</v>
+        <v>14546</v>
       </c>
       <c r="AC516" t="s">
-        <v>14546</v>
+        <v>14547</v>
       </c>
       <c r="AD516" t="s">
-        <v>14547</v>
+        <v>14548</v>
       </c>
       <c r="AE516" t="s">
-        <v>14548</v>
+        <v>14549</v>
       </c>
       <c r="AF516" t="s">
-        <v>14549</v>
+        <v>14550</v>
       </c>
       <c r="AG516" t="s">
-        <v>14550</v>
+        <v>14551</v>
       </c>
       <c r="AH516" t="s">
-        <v>14551</v>
+        <v>14552</v>
       </c>
       <c r="AI516" t="s">
-        <v>14552</v>
+        <v>14553</v>
       </c>
       <c r="AJ516" t="s">
-        <v>14553</v>
+        <v>14554</v>
       </c>
       <c r="AK516" t="s">
-        <v>14554</v>
+        <v>14555</v>
       </c>
       <c r="AL516" t="s">
-        <v>14555</v>
+        <v>14556</v>
       </c>
       <c r="AM516" t="s">
-        <v>14556</v>
+        <v>14557</v>
       </c>
       <c r="AN516" t="s">
-        <v>14557</v>
+        <v>14558</v>
       </c>
       <c r="AO516" t="s">
-        <v>14558</v>
+        <v>14559</v>
       </c>
       <c r="AP516" t="s">
-        <v>14559</v>
+        <v>14560</v>
       </c>
     </row>
     <row r="517">
@@ -105342,7 +105345,7 @@
         <v>7187</v>
       </c>
       <c r="D517" t="s">
-        <v>14418</v>
+        <v>14419</v>
       </c>
       <c r="E517" t="s">
         <v>1573</v>
@@ -105351,94 +105354,94 @@
       <c r="G517" t="s"/>
       <c r="H517" t="s"/>
       <c r="I517" t="s">
-        <v>14560</v>
+        <v>14561</v>
       </c>
       <c r="J517" t="s">
-        <v>14561</v>
+        <v>14562</v>
       </c>
       <c r="K517" t="s">
-        <v>14562</v>
+        <v>14563</v>
       </c>
       <c r="L517" t="s">
-        <v>14563</v>
+        <v>14564</v>
       </c>
       <c r="M517" t="s">
-        <v>14564</v>
+        <v>14565</v>
       </c>
       <c r="N517" t="s">
-        <v>14565</v>
+        <v>14566</v>
       </c>
       <c r="O517" t="s">
-        <v>14566</v>
+        <v>14567</v>
       </c>
       <c r="P517" t="s">
-        <v>14567</v>
+        <v>14568</v>
       </c>
       <c r="Q517" t="s">
-        <v>14568</v>
+        <v>14569</v>
       </c>
       <c r="R517" t="s">
-        <v>14569</v>
+        <v>14570</v>
       </c>
       <c r="S517" t="s">
-        <v>14570</v>
+        <v>14571</v>
       </c>
       <c r="T517" t="s">
-        <v>14571</v>
+        <v>14572</v>
       </c>
       <c r="U517" t="s">
-        <v>14572</v>
+        <v>14573</v>
       </c>
       <c r="V517" t="s">
-        <v>14573</v>
+        <v>14574</v>
       </c>
       <c r="W517" t="s">
-        <v>14574</v>
+        <v>14575</v>
       </c>
       <c r="X517" t="s">
-        <v>14575</v>
+        <v>14576</v>
       </c>
       <c r="Y517" t="s">
-        <v>14576</v>
+        <v>14577</v>
       </c>
       <c r="Z517" t="s">
-        <v>14577</v>
+        <v>14578</v>
       </c>
       <c r="AA517" t="s">
-        <v>14578</v>
+        <v>14579</v>
       </c>
       <c r="AB517" t="s">
-        <v>14579</v>
+        <v>14580</v>
       </c>
       <c r="AC517" t="s">
-        <v>14580</v>
+        <v>14581</v>
       </c>
       <c r="AD517" t="s">
-        <v>14581</v>
+        <v>14582</v>
       </c>
       <c r="AE517" t="s">
-        <v>14582</v>
+        <v>14583</v>
       </c>
       <c r="AF517" t="s">
-        <v>14583</v>
+        <v>14584</v>
       </c>
       <c r="AG517" t="s">
-        <v>14584</v>
+        <v>14585</v>
       </c>
       <c r="AH517" t="s">
-        <v>14585</v>
+        <v>14586</v>
       </c>
       <c r="AI517" t="s">
-        <v>14586</v>
+        <v>14587</v>
       </c>
       <c r="AJ517" t="s">
-        <v>14587</v>
+        <v>14588</v>
       </c>
       <c r="AK517" t="s">
-        <v>14588</v>
+        <v>14589</v>
       </c>
       <c r="AL517" t="s">
-        <v>14589</v>
+        <v>14590</v>
       </c>
     </row>
     <row r="518">
@@ -105461,70 +105464,70 @@
       <c r="G518" t="s"/>
       <c r="H518" t="s"/>
       <c r="I518" t="s">
-        <v>14590</v>
+        <v>14591</v>
       </c>
       <c r="J518" t="s">
-        <v>14591</v>
+        <v>14592</v>
       </c>
       <c r="K518" t="s">
-        <v>14592</v>
+        <v>14593</v>
       </c>
       <c r="L518" t="s">
-        <v>14593</v>
+        <v>14594</v>
       </c>
       <c r="M518" t="s">
-        <v>14594</v>
+        <v>14595</v>
       </c>
       <c r="N518" t="s">
-        <v>14595</v>
+        <v>14596</v>
       </c>
       <c r="O518" t="s">
-        <v>14596</v>
+        <v>14597</v>
       </c>
       <c r="P518" t="s">
-        <v>14597</v>
+        <v>14598</v>
       </c>
       <c r="Q518" t="s">
-        <v>14598</v>
+        <v>14599</v>
       </c>
       <c r="R518" t="s">
-        <v>14599</v>
+        <v>14600</v>
       </c>
       <c r="S518" t="s">
-        <v>14600</v>
+        <v>14601</v>
       </c>
       <c r="T518" t="s">
-        <v>14601</v>
+        <v>14602</v>
       </c>
       <c r="U518" t="s">
-        <v>14602</v>
+        <v>14603</v>
       </c>
       <c r="V518" t="s">
-        <v>14603</v>
+        <v>14604</v>
       </c>
       <c r="W518" t="s">
-        <v>14604</v>
+        <v>14605</v>
       </c>
       <c r="X518" t="s">
-        <v>14605</v>
+        <v>14606</v>
       </c>
       <c r="Y518" t="s">
-        <v>14606</v>
+        <v>14607</v>
       </c>
       <c r="Z518" t="s">
-        <v>14607</v>
+        <v>14608</v>
       </c>
       <c r="AA518" t="s">
-        <v>14608</v>
+        <v>14609</v>
       </c>
       <c r="AB518" t="s">
-        <v>14609</v>
+        <v>14610</v>
       </c>
       <c r="AC518" t="s">
-        <v>14610</v>
+        <v>14611</v>
       </c>
       <c r="AD518" t="s">
-        <v>14611</v>
+        <v>14612</v>
       </c>
     </row>
     <row r="519">
@@ -105547,58 +105550,58 @@
       <c r="G519" t="s"/>
       <c r="H519" t="s"/>
       <c r="I519" t="s">
-        <v>14612</v>
+        <v>14613</v>
       </c>
       <c r="J519" t="s">
-        <v>14613</v>
+        <v>14614</v>
       </c>
       <c r="K519" t="s">
-        <v>14614</v>
+        <v>14615</v>
       </c>
       <c r="L519" t="s">
-        <v>14615</v>
+        <v>14616</v>
       </c>
       <c r="M519" t="s">
-        <v>14616</v>
+        <v>14617</v>
       </c>
       <c r="N519" t="s">
-        <v>14617</v>
+        <v>14618</v>
       </c>
       <c r="O519" t="s">
-        <v>14618</v>
+        <v>14619</v>
       </c>
       <c r="P519" t="s">
-        <v>14619</v>
+        <v>14620</v>
       </c>
       <c r="Q519" t="s">
-        <v>14620</v>
+        <v>14621</v>
       </c>
       <c r="R519" t="s">
-        <v>14621</v>
+        <v>14622</v>
       </c>
       <c r="S519" t="s">
-        <v>14622</v>
+        <v>14623</v>
       </c>
       <c r="T519" t="s">
-        <v>14623</v>
+        <v>14624</v>
       </c>
       <c r="U519" t="s">
-        <v>14624</v>
+        <v>14625</v>
       </c>
       <c r="V519" t="s">
-        <v>14625</v>
+        <v>14626</v>
       </c>
       <c r="W519" t="s">
-        <v>14626</v>
+        <v>14627</v>
       </c>
       <c r="X519" t="s">
-        <v>14627</v>
+        <v>14628</v>
       </c>
       <c r="Y519" t="s">
-        <v>14628</v>
+        <v>14629</v>
       </c>
       <c r="Z519" t="s">
-        <v>14629</v>
+        <v>14630</v>
       </c>
     </row>
     <row r="520">
@@ -105621,118 +105624,118 @@
       <c r="G520" t="s"/>
       <c r="H520" t="s"/>
       <c r="I520" t="s">
-        <v>14630</v>
+        <v>14631</v>
       </c>
       <c r="J520" t="s">
-        <v>14631</v>
+        <v>14632</v>
       </c>
       <c r="K520" t="s">
-        <v>14632</v>
+        <v>14633</v>
       </c>
       <c r="L520" t="s">
-        <v>14633</v>
+        <v>14634</v>
       </c>
       <c r="M520" t="s">
-        <v>14634</v>
+        <v>14635</v>
       </c>
       <c r="N520" t="s">
-        <v>14635</v>
+        <v>14636</v>
       </c>
       <c r="O520" t="s">
-        <v>14636</v>
+        <v>14637</v>
       </c>
       <c r="P520" t="s">
-        <v>14637</v>
+        <v>14638</v>
       </c>
       <c r="Q520" t="s">
-        <v>14638</v>
+        <v>14639</v>
       </c>
       <c r="R520" t="s">
-        <v>14639</v>
+        <v>14640</v>
       </c>
       <c r="S520" t="s">
-        <v>14640</v>
+        <v>14641</v>
       </c>
       <c r="T520" t="s">
-        <v>14641</v>
+        <v>14642</v>
       </c>
       <c r="U520" t="s">
-        <v>14642</v>
+        <v>14643</v>
       </c>
       <c r="V520" t="s">
-        <v>14643</v>
+        <v>14644</v>
       </c>
       <c r="W520" t="s">
-        <v>14644</v>
+        <v>14645</v>
       </c>
       <c r="X520" t="s">
-        <v>14645</v>
+        <v>14646</v>
       </c>
       <c r="Y520" t="s">
-        <v>14646</v>
+        <v>14647</v>
       </c>
       <c r="Z520" t="s">
-        <v>14647</v>
+        <v>14648</v>
       </c>
       <c r="AA520" t="s">
-        <v>14648</v>
+        <v>14649</v>
       </c>
       <c r="AB520" t="s">
-        <v>14649</v>
+        <v>14650</v>
       </c>
       <c r="AC520" t="s">
-        <v>14650</v>
+        <v>14651</v>
       </c>
       <c r="AD520" t="s">
-        <v>14651</v>
+        <v>14652</v>
       </c>
       <c r="AE520" t="s">
-        <v>14652</v>
+        <v>14653</v>
       </c>
       <c r="AF520" t="s">
-        <v>14653</v>
+        <v>14654</v>
       </c>
       <c r="AG520" t="s">
-        <v>14654</v>
+        <v>14655</v>
       </c>
       <c r="AH520" t="s">
-        <v>14655</v>
+        <v>14656</v>
       </c>
       <c r="AI520" t="s">
-        <v>14656</v>
+        <v>14657</v>
       </c>
       <c r="AJ520" t="s">
-        <v>14657</v>
+        <v>14658</v>
       </c>
       <c r="AK520" t="s">
-        <v>14658</v>
+        <v>14659</v>
       </c>
       <c r="AL520" t="s">
-        <v>14659</v>
+        <v>14660</v>
       </c>
       <c r="AM520" t="s">
-        <v>14660</v>
+        <v>14661</v>
       </c>
       <c r="AN520" t="s">
-        <v>14661</v>
+        <v>14662</v>
       </c>
       <c r="AO520" t="s">
-        <v>14662</v>
+        <v>14663</v>
       </c>
       <c r="AP520" t="s">
-        <v>14663</v>
+        <v>14664</v>
       </c>
       <c r="AQ520" t="s">
-        <v>14664</v>
+        <v>14665</v>
       </c>
       <c r="AR520" t="s">
-        <v>14665</v>
+        <v>14666</v>
       </c>
       <c r="AS520" t="s">
-        <v>14666</v>
+        <v>14667</v>
       </c>
       <c r="AT520" t="s">
-        <v>14667</v>
+        <v>14668</v>
       </c>
     </row>
     <row r="521">
@@ -105755,25 +105758,25 @@
       <c r="G521" t="s"/>
       <c r="H521" t="s"/>
       <c r="I521" t="s">
-        <v>14668</v>
+        <v>14669</v>
       </c>
       <c r="J521" t="s">
-        <v>14669</v>
+        <v>14670</v>
       </c>
       <c r="K521" t="s">
-        <v>14670</v>
+        <v>14671</v>
       </c>
       <c r="L521" t="s">
-        <v>14671</v>
+        <v>14672</v>
       </c>
       <c r="M521" t="s">
-        <v>14672</v>
+        <v>14673</v>
       </c>
       <c r="N521" t="s">
-        <v>14673</v>
+        <v>14674</v>
       </c>
       <c r="O521" t="s">
-        <v>14674</v>
+        <v>14675</v>
       </c>
     </row>
     <row r="522">
@@ -105800,22 +105803,22 @@
         <v>5257</v>
       </c>
       <c r="J522" t="s">
-        <v>14675</v>
+        <v>14676</v>
       </c>
       <c r="K522" t="s">
-        <v>14676</v>
+        <v>14677</v>
       </c>
       <c r="L522" t="s">
-        <v>14677</v>
+        <v>14678</v>
       </c>
       <c r="M522" t="s">
         <v>12958</v>
       </c>
       <c r="N522" t="s">
-        <v>14678</v>
+        <v>14679</v>
       </c>
       <c r="O522" t="s">
-        <v>14679</v>
+        <v>12962</v>
       </c>
       <c r="P522" t="s">
         <v>14680</v>
@@ -113636,7 +113639,7 @@
         <v>1616</v>
       </c>
       <c r="C661" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="D661" t="s">
         <v>1573</v>
@@ -113676,7 +113679,7 @@
         <v>1616</v>
       </c>
       <c r="C662" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="D662" t="s">
         <v>1573</v>
@@ -113713,7 +113716,7 @@
         <v>1616</v>
       </c>
       <c r="C663" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="D663" t="s">
         <v>1573</v>
@@ -113976,7 +113979,7 @@
         <v>1675</v>
       </c>
       <c r="C667" t="s">
-        <v>13881</v>
+        <v>13882</v>
       </c>
       <c r="D667" t="s">
         <v>1573</v>
@@ -114155,7 +114158,7 @@
         <v>1616</v>
       </c>
       <c r="C672" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="D672" t="s">
         <v>1573</v>
@@ -114183,7 +114186,7 @@
         <v>1616</v>
       </c>
       <c r="C673" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="D673" t="s">
         <v>1573</v>
@@ -114282,7 +114285,7 @@
         <v>1616</v>
       </c>
       <c r="C676" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="D676" t="s">
         <v>1573</v>
@@ -114347,7 +114350,7 @@
         <v>1616</v>
       </c>
       <c r="C678" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="D678" t="s">
         <v>1573</v>
